--- a/data/processed/Viecon_data.xlsx
+++ b/data/processed/Viecon_data.xlsx
@@ -525,10 +525,10 @@
         <v>2015</v>
       </c>
       <c r="C2" t="n">
-        <v>353.7</v>
+        <v>3.537</v>
       </c>
       <c r="D2" t="n">
-        <v>2000.9</v>
+        <v>2000900</v>
       </c>
       <c r="E2" t="n">
         <v>566</v>
@@ -549,7 +549,7 @@
         <v>697</v>
       </c>
       <c r="K2" t="n">
-        <v>652.8</v>
+        <v>6.528</v>
       </c>
       <c r="L2" t="n">
         <v>348079</v>
@@ -577,10 +577,10 @@
         <v>2016</v>
       </c>
       <c r="C3" t="n">
-        <v>353.7</v>
+        <v>3.537</v>
       </c>
       <c r="D3" t="n">
-        <v>1976.4</v>
+        <v>1976400</v>
       </c>
       <c r="E3" t="n">
         <v>559</v>
@@ -601,7 +601,7 @@
         <v>1180</v>
       </c>
       <c r="K3" t="n">
-        <v>677.1</v>
+        <v>6.771000000000001</v>
       </c>
       <c r="L3" t="n">
         <v>369843</v>
@@ -629,10 +629,10 @@
         <v>2017</v>
       </c>
       <c r="C4" t="n">
-        <v>353.6</v>
+        <v>3.536</v>
       </c>
       <c r="D4" t="n">
-        <v>1954.2</v>
+        <v>1954200</v>
       </c>
       <c r="E4" t="n">
         <v>553</v>
@@ -653,7 +653,7 @@
         <v>1063</v>
       </c>
       <c r="K4" t="n">
-        <v>649.4</v>
+        <v>6.494</v>
       </c>
       <c r="L4" t="n">
         <v>401724</v>
@@ -681,10 +681,10 @@
         <v>2018</v>
       </c>
       <c r="C5" t="n">
-        <v>353.7</v>
+        <v>3.537</v>
       </c>
       <c r="D5" t="n">
-        <v>1931</v>
+        <v>1931000</v>
       </c>
       <c r="E5" t="n">
         <v>546</v>
@@ -705,7 +705,7 @@
         <v>1016</v>
       </c>
       <c r="K5" t="n">
-        <v>630.6</v>
+        <v>6.306</v>
       </c>
       <c r="L5" t="n">
         <v>486804</v>
@@ -733,10 +733,10 @@
         <v>2019</v>
       </c>
       <c r="C6" t="n">
-        <v>353.7</v>
+        <v>3.537</v>
       </c>
       <c r="D6" t="n">
-        <v>1907.4</v>
+        <v>1907400</v>
       </c>
       <c r="E6" t="n">
         <v>539</v>
@@ -757,7 +757,7 @@
         <v>966</v>
       </c>
       <c r="K6" t="n">
-        <v>632.2</v>
+        <v>6.322000000000001</v>
       </c>
       <c r="L6" t="n">
         <v>539909</v>
@@ -785,10 +785,10 @@
         <v>2020</v>
       </c>
       <c r="C7" t="n">
-        <v>353.7</v>
+        <v>3.537</v>
       </c>
       <c r="D7" t="n">
-        <v>1904.5</v>
+        <v>1904500</v>
       </c>
       <c r="E7" t="n">
         <v>538</v>
@@ -809,7 +809,7 @@
         <v>878</v>
       </c>
       <c r="K7" t="n">
-        <v>642.9</v>
+        <v>6.429</v>
       </c>
       <c r="L7" t="n">
         <v>511148</v>
@@ -837,10 +837,10 @@
         <v>2021</v>
       </c>
       <c r="C8" t="n">
-        <v>353.7</v>
+        <v>3.537</v>
       </c>
       <c r="D8" t="n">
-        <v>1909.5</v>
+        <v>1909500</v>
       </c>
       <c r="E8" t="n">
         <v>540</v>
@@ -861,7 +861,7 @@
         <v>857</v>
       </c>
       <c r="K8" t="n">
-        <v>630.2</v>
+        <v>6.302</v>
       </c>
       <c r="L8" t="n">
         <v>522253</v>
@@ -889,10 +889,10 @@
         <v>2015</v>
       </c>
       <c r="C9" t="n">
-        <v>198.1</v>
+        <v>1.981</v>
       </c>
       <c r="D9" t="n">
-        <v>1104.3</v>
+        <v>1104300</v>
       </c>
       <c r="E9" t="n">
         <v>557</v>
@@ -913,7 +913,7 @@
         <v>298</v>
       </c>
       <c r="K9" t="n">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="L9" t="n">
         <v>319325</v>
@@ -941,10 +941,10 @@
         <v>2016</v>
       </c>
       <c r="C10" t="n">
-        <v>198.1</v>
+        <v>1.981</v>
       </c>
       <c r="D10" t="n">
-        <v>1117.6</v>
+        <v>1117600</v>
       </c>
       <c r="E10" t="n">
         <v>564</v>
@@ -965,7 +965,7 @@
         <v>335</v>
       </c>
       <c r="K10" t="n">
-        <v>39.4</v>
+        <v>0.394</v>
       </c>
       <c r="L10" t="n">
         <v>329296</v>
@@ -993,10 +993,10 @@
         <v>2017</v>
       </c>
       <c r="C11" t="n">
-        <v>197.9</v>
+        <v>1.979</v>
       </c>
       <c r="D11" t="n">
-        <v>1127.3</v>
+        <v>1127300</v>
       </c>
       <c r="E11" t="n">
         <v>570</v>
@@ -1017,7 +1017,7 @@
         <v>323</v>
       </c>
       <c r="K11" t="n">
-        <v>38.5</v>
+        <v>0.385</v>
       </c>
       <c r="L11" t="n">
         <v>339274</v>
@@ -1045,10 +1045,10 @@
         <v>2018</v>
       </c>
       <c r="C12" t="n">
-        <v>198.1</v>
+        <v>1.981</v>
       </c>
       <c r="D12" t="n">
-        <v>1138.3</v>
+        <v>1138300</v>
       </c>
       <c r="E12" t="n">
         <v>575</v>
@@ -1069,7 +1069,7 @@
         <v>302</v>
       </c>
       <c r="K12" t="n">
-        <v>38.5</v>
+        <v>0.385</v>
       </c>
       <c r="L12" t="n">
         <v>349607</v>
@@ -1097,10 +1097,10 @@
         <v>2019</v>
       </c>
       <c r="C13" t="n">
-        <v>198.1</v>
+        <v>1.981</v>
       </c>
       <c r="D13" t="n">
-        <v>1152.2</v>
+        <v>1152200</v>
       </c>
       <c r="E13" t="n">
         <v>582</v>
@@ -1121,7 +1121,7 @@
         <v>302</v>
       </c>
       <c r="K13" t="n">
-        <v>38.2</v>
+        <v>0.3820000000000001</v>
       </c>
       <c r="L13" t="n">
         <v>360421</v>
@@ -1149,10 +1149,10 @@
         <v>2020</v>
       </c>
       <c r="C14" t="n">
-        <v>198.3</v>
+        <v>1.983</v>
       </c>
       <c r="D14" t="n">
-        <v>1167.9</v>
+        <v>1167900</v>
       </c>
       <c r="E14" t="n">
         <v>589</v>
@@ -1173,7 +1173,7 @@
         <v>266</v>
       </c>
       <c r="K14" t="n">
-        <v>37.6</v>
+        <v>0.376</v>
       </c>
       <c r="L14" t="n">
         <v>369392</v>
@@ -1201,10 +1201,10 @@
         <v>2021</v>
       </c>
       <c r="C15" t="n">
-        <v>198.3</v>
+        <v>1.983</v>
       </c>
       <c r="D15" t="n">
-        <v>1176.1</v>
+        <v>1176100</v>
       </c>
       <c r="E15" t="n">
         <v>593</v>
@@ -1225,7 +1225,7 @@
         <v>271</v>
       </c>
       <c r="K15" t="n">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="L15" t="n">
         <v>371896</v>
@@ -1253,10 +1253,10 @@
         <v>2015</v>
       </c>
       <c r="C16" t="n">
-        <v>389.5</v>
+        <v>3.895</v>
       </c>
       <c r="D16" t="n">
-        <v>1666.9</v>
+        <v>1666900</v>
       </c>
       <c r="E16" t="n">
         <v>428</v>
@@ -1277,7 +1277,7 @@
         <v>487</v>
       </c>
       <c r="K16" t="n">
-        <v>122.3</v>
+        <v>1.223</v>
       </c>
       <c r="L16" t="n">
         <v>36179</v>
@@ -1305,10 +1305,10 @@
         <v>2016</v>
       </c>
       <c r="C17" t="n">
-        <v>389.5</v>
+        <v>3.895</v>
       </c>
       <c r="D17" t="n">
-        <v>1696.9</v>
+        <v>1696900</v>
       </c>
       <c r="E17" t="n">
         <v>436</v>
@@ -1329,7 +1329,7 @@
         <v>659</v>
       </c>
       <c r="K17" t="n">
-        <v>120.3</v>
+        <v>1.203</v>
       </c>
       <c r="L17" t="n">
         <v>38929</v>
@@ -1357,10 +1357,10 @@
         <v>2017</v>
       </c>
       <c r="C18" t="n">
-        <v>389.5</v>
+        <v>3.895</v>
       </c>
       <c r="D18" t="n">
-        <v>1736.8</v>
+        <v>1736800</v>
       </c>
       <c r="E18" t="n">
         <v>446</v>
@@ -1381,7 +1381,7 @@
         <v>676</v>
       </c>
       <c r="K18" t="n">
-        <v>117.5</v>
+        <v>1.175</v>
       </c>
       <c r="L18" t="n">
         <v>41530</v>
@@ -1409,10 +1409,10 @@
         <v>2018</v>
       </c>
       <c r="C19" t="n">
-        <v>389.6</v>
+        <v>3.896</v>
       </c>
       <c r="D19" t="n">
-        <v>1777.5</v>
+        <v>1777500</v>
       </c>
       <c r="E19" t="n">
         <v>456</v>
@@ -1433,7 +1433,7 @@
         <v>652</v>
       </c>
       <c r="K19" t="n">
-        <v>114.2</v>
+        <v>1.142</v>
       </c>
       <c r="L19" t="n">
         <v>43704</v>
@@ -1461,10 +1461,10 @@
         <v>2019</v>
       </c>
       <c r="C20" t="n">
-        <v>389.6</v>
+        <v>3.896</v>
       </c>
       <c r="D20" t="n">
-        <v>1810.4</v>
+        <v>1810400</v>
       </c>
       <c r="E20" t="n">
         <v>465</v>
@@ -1485,7 +1485,7 @@
         <v>652</v>
       </c>
       <c r="K20" t="n">
-        <v>112.8</v>
+        <v>1.128</v>
       </c>
       <c r="L20" t="n">
         <v>46039</v>
@@ -1513,10 +1513,10 @@
         <v>2020</v>
       </c>
       <c r="C21" t="n">
-        <v>389.6</v>
+        <v>3.896</v>
       </c>
       <c r="D21" t="n">
-        <v>1841.6</v>
+        <v>1841600</v>
       </c>
       <c r="E21" t="n">
         <v>473</v>
@@ -1537,7 +1537,7 @@
         <v>463</v>
       </c>
       <c r="K21" t="n">
-        <v>111.1</v>
+        <v>1.111</v>
       </c>
       <c r="L21" t="n">
         <v>48411</v>
@@ -1565,10 +1565,10 @@
         <v>2021</v>
       </c>
       <c r="C22" t="n">
-        <v>389.6</v>
+        <v>3.896</v>
       </c>
       <c r="D22" t="n">
-        <v>1875.2</v>
+        <v>1875200</v>
       </c>
       <c r="E22" t="n">
         <v>481</v>
@@ -1587,7 +1587,7 @@
         <v>427</v>
       </c>
       <c r="K22" t="n">
-        <v>109.8</v>
+        <v>1.098</v>
       </c>
       <c r="L22" t="n">
         <v>49754</v>
@@ -1613,10 +1613,10 @@
         <v>2015</v>
       </c>
       <c r="C23" t="n">
-        <v>486</v>
+        <v>4.86</v>
       </c>
       <c r="D23" t="n">
-        <v>305.6</v>
+        <v>305600</v>
       </c>
       <c r="E23" t="n">
         <v>64</v>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="L23" t="n">
         <v>934</v>
@@ -1665,10 +1665,10 @@
         <v>2016</v>
       </c>
       <c r="C24" t="n">
-        <v>486</v>
+        <v>4.86</v>
       </c>
       <c r="D24" t="n">
-        <v>307.7</v>
+        <v>307700</v>
       </c>
       <c r="E24" t="n">
         <v>63</v>
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>40.7</v>
+        <v>0.407</v>
       </c>
       <c r="L24" t="n">
         <v>954</v>
@@ -1717,10 +1717,10 @@
         <v>2017</v>
       </c>
       <c r="C25" t="n">
-        <v>486</v>
+        <v>4.86</v>
       </c>
       <c r="D25" t="n">
-        <v>309.9</v>
+        <v>309900</v>
       </c>
       <c r="E25" t="n">
         <v>64</v>
@@ -1741,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>39.8</v>
+        <v>0.398</v>
       </c>
       <c r="L25" t="n">
         <v>1117</v>
@@ -1769,10 +1769,10 @@
         <v>2018</v>
       </c>
       <c r="C26" t="n">
-        <v>486.1</v>
+        <v>4.861000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>312</v>
+        <v>312000</v>
       </c>
       <c r="E26" t="n">
         <v>64</v>
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>38.5</v>
+        <v>0.385</v>
       </c>
       <c r="L26" t="n">
         <v>1773</v>
@@ -1821,10 +1821,10 @@
         <v>2019</v>
       </c>
       <c r="C27" t="n">
-        <v>486</v>
+        <v>4.86</v>
       </c>
       <c r="D27" t="n">
-        <v>314.4</v>
+        <v>314400</v>
       </c>
       <c r="E27" t="n">
         <v>65</v>
@@ -1845,7 +1845,7 @@
         <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>37.7</v>
+        <v>0.3770000000000001</v>
       </c>
       <c r="L27" t="n">
         <v>2105</v>
@@ -1873,10 +1873,10 @@
         <v>2020</v>
       </c>
       <c r="C28" t="n">
-        <v>486</v>
+        <v>4.86</v>
       </c>
       <c r="D28" t="n">
-        <v>316.5</v>
+        <v>316500</v>
       </c>
       <c r="E28" t="n">
         <v>65</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>37.1</v>
+        <v>0.371</v>
       </c>
       <c r="L28" t="n">
         <v>2135</v>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>323.7</v>
+        <v>323700</v>
       </c>
       <c r="E29" t="n">
         <v>67</v>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>37.3</v>
+        <v>0.373</v>
       </c>
       <c r="L29" t="n">
         <v>2331</v>
@@ -1969,10 +1969,10 @@
         <v>2015</v>
       </c>
       <c r="C30" t="n">
-        <v>266.9</v>
+        <v>2.669</v>
       </c>
       <c r="D30" t="n">
-        <v>887.3</v>
+        <v>887300</v>
       </c>
       <c r="E30" t="n">
         <v>332</v>
@@ -1993,7 +1993,7 @@
         <v>2953</v>
       </c>
       <c r="K30" t="n">
-        <v>180.7</v>
+        <v>1.807</v>
       </c>
       <c r="L30" t="n">
         <v>298500</v>
@@ -2021,10 +2021,10 @@
         <v>2016</v>
       </c>
       <c r="C31" t="n">
-        <v>266.9</v>
+        <v>2.669</v>
       </c>
       <c r="D31" t="n">
-        <v>892.8</v>
+        <v>892800</v>
       </c>
       <c r="E31" t="n">
         <v>335</v>
@@ -2045,7 +2045,7 @@
         <v>510</v>
       </c>
       <c r="K31" t="n">
-        <v>172.5</v>
+        <v>1.725</v>
       </c>
       <c r="L31" t="n">
         <v>302444</v>
@@ -2073,10 +2073,10 @@
         <v>2017</v>
       </c>
       <c r="C32" t="n">
-        <v>266.8</v>
+        <v>2.668</v>
       </c>
       <c r="D32" t="n">
-        <v>897.7</v>
+        <v>897700</v>
       </c>
       <c r="E32" t="n">
         <v>336</v>
@@ -2097,7 +2097,7 @@
         <v>505</v>
       </c>
       <c r="K32" t="n">
-        <v>180.8</v>
+        <v>1.808</v>
       </c>
       <c r="L32" t="n">
         <v>322650</v>
@@ -2125,10 +2125,10 @@
         <v>2018</v>
       </c>
       <c r="C33" t="n">
-        <v>266.8</v>
+        <v>2.668</v>
       </c>
       <c r="D33" t="n">
-        <v>903</v>
+        <v>903000</v>
       </c>
       <c r="E33" t="n">
         <v>338</v>
@@ -2149,7 +2149,7 @@
         <v>519</v>
       </c>
       <c r="K33" t="n">
-        <v>185.2</v>
+        <v>1.852</v>
       </c>
       <c r="L33" t="n">
         <v>341259</v>
@@ -2177,10 +2177,10 @@
         <v>2019</v>
       </c>
       <c r="C34" t="n">
-        <v>266.8</v>
+        <v>2.668</v>
       </c>
       <c r="D34" t="n">
-        <v>908.2</v>
+        <v>908200</v>
       </c>
       <c r="E34" t="n">
         <v>340</v>
@@ -2201,7 +2201,7 @@
         <v>519</v>
       </c>
       <c r="K34" t="n">
-        <v>189.4</v>
+        <v>1.894</v>
       </c>
       <c r="L34" t="n">
         <v>360068</v>
@@ -2229,10 +2229,10 @@
         <v>2020</v>
       </c>
       <c r="C35" t="n">
-        <v>266.8</v>
+        <v>2.668</v>
       </c>
       <c r="D35" t="n">
-        <v>913.5</v>
+        <v>913500</v>
       </c>
       <c r="E35" t="n">
         <v>342</v>
@@ -2253,7 +2253,7 @@
         <v>343</v>
       </c>
       <c r="K35" t="n">
-        <v>187.8</v>
+        <v>1.878</v>
       </c>
       <c r="L35" t="n">
         <v>380753</v>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>918.5</v>
+        <v>918500</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
@@ -2301,7 +2301,7 @@
         <v>345</v>
       </c>
       <c r="K36" t="n">
-        <v>191.2</v>
+        <v>1.912</v>
       </c>
       <c r="L36" t="n">
         <v>391229</v>
@@ -2327,10 +2327,10 @@
         <v>2015</v>
       </c>
       <c r="C37" t="n">
-        <v>82.3</v>
+        <v>0.823</v>
       </c>
       <c r="D37" t="n">
-        <v>1218.5</v>
+        <v>1218500</v>
       </c>
       <c r="E37" t="n">
         <v>1481</v>
@@ -2351,7 +2351,7 @@
         <v>108</v>
       </c>
       <c r="K37" t="n">
-        <v>75.5</v>
+        <v>0.755</v>
       </c>
       <c r="L37" t="n">
         <v>36137</v>
@@ -2379,10 +2379,10 @@
         <v>2016</v>
       </c>
       <c r="C38" t="n">
-        <v>82.3</v>
+        <v>0.823</v>
       </c>
       <c r="D38" t="n">
-        <v>1257.9</v>
+        <v>1257900</v>
       </c>
       <c r="E38" t="n">
         <v>1528</v>
@@ -2403,7 +2403,7 @@
         <v>126</v>
       </c>
       <c r="K38" t="n">
-        <v>73.8</v>
+        <v>0.738</v>
       </c>
       <c r="L38" t="n">
         <v>36528</v>
@@ -2431,10 +2431,10 @@
         <v>2017</v>
       </c>
       <c r="C39" t="n">
-        <v>82.2</v>
+        <v>0.8220000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>1297.8</v>
+        <v>1297800</v>
       </c>
       <c r="E39" t="n">
         <v>1579</v>
@@ -2455,7 +2455,7 @@
         <v>139</v>
       </c>
       <c r="K39" t="n">
-        <v>71.5</v>
+        <v>0.715</v>
       </c>
       <c r="L39" t="n">
         <v>37015</v>
@@ -2483,10 +2483,10 @@
         <v>2018</v>
       </c>
       <c r="C40" t="n">
-        <v>82.3</v>
+        <v>0.823</v>
       </c>
       <c r="D40" t="n">
-        <v>1337.3</v>
+        <v>1337300</v>
       </c>
       <c r="E40" t="n">
         <v>1625</v>
@@ -2507,7 +2507,7 @@
         <v>143</v>
       </c>
       <c r="K40" t="n">
-        <v>68.5</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="L40" t="n">
         <v>37210</v>
@@ -2535,10 +2535,10 @@
         <v>2019</v>
       </c>
       <c r="C41" t="n">
-        <v>82.3</v>
+        <v>0.823</v>
       </c>
       <c r="D41" t="n">
-        <v>1378.6</v>
+        <v>1378600</v>
       </c>
       <c r="E41" t="n">
         <v>1675</v>
@@ -2559,7 +2559,7 @@
         <v>106</v>
       </c>
       <c r="K41" t="n">
-        <v>67.09999999999999</v>
+        <v>0.6709999999999999</v>
       </c>
       <c r="L41" t="n">
         <v>37851</v>
@@ -2587,10 +2587,10 @@
         <v>2020</v>
       </c>
       <c r="C42" t="n">
-        <v>82.3</v>
+        <v>0.823</v>
       </c>
       <c r="D42" t="n">
-        <v>1419.1</v>
+        <v>1419100</v>
       </c>
       <c r="E42" t="n">
         <v>1725</v>
@@ -2611,7 +2611,7 @@
         <v>91</v>
       </c>
       <c r="K42" t="n">
-        <v>64.7</v>
+        <v>0.647</v>
       </c>
       <c r="L42" t="n">
         <v>38735</v>
@@ -2639,10 +2639,10 @@
         <v>2021</v>
       </c>
       <c r="C43" t="n">
-        <v>82.3</v>
+        <v>0.823</v>
       </c>
       <c r="D43" t="n">
-        <v>1462.9</v>
+        <v>1462900</v>
       </c>
       <c r="E43" t="n">
         <v>1778</v>
@@ -2663,7 +2663,7 @@
         <v>104</v>
       </c>
       <c r="K43" t="n">
-        <v>62.9</v>
+        <v>0.629</v>
       </c>
       <c r="L43" t="n">
         <v>39239</v>
@@ -2691,10 +2691,10 @@
         <v>2015</v>
       </c>
       <c r="C44" t="n">
-        <v>239.5</v>
+        <v>2.395</v>
       </c>
       <c r="D44" t="n">
-        <v>1275.8</v>
+        <v>1275800</v>
       </c>
       <c r="E44" t="n">
         <v>528</v>
@@ -2715,7 +2715,7 @@
         <v>550</v>
       </c>
       <c r="K44" t="n">
-        <v>63.7</v>
+        <v>0.637</v>
       </c>
       <c r="L44" t="n">
         <v>444233</v>
@@ -2743,10 +2743,10 @@
         <v>2016</v>
       </c>
       <c r="C45" t="n">
-        <v>239.5</v>
+        <v>2.395</v>
       </c>
       <c r="D45" t="n">
-        <v>1278.6</v>
+        <v>1278600</v>
       </c>
       <c r="E45" t="n">
         <v>528</v>
@@ -2767,7 +2767,7 @@
         <v>625</v>
       </c>
       <c r="K45" t="n">
-        <v>42.2</v>
+        <v>0.422</v>
       </c>
       <c r="L45" t="n">
         <v>454023</v>
@@ -2795,10 +2795,10 @@
         <v>2017</v>
       </c>
       <c r="C46" t="n">
-        <v>239.5</v>
+        <v>2.395</v>
       </c>
       <c r="D46" t="n">
-        <v>1282.4</v>
+        <v>1282400</v>
       </c>
       <c r="E46" t="n">
         <v>529</v>
@@ -2819,7 +2819,7 @@
         <v>701</v>
       </c>
       <c r="K46" t="n">
-        <v>55.5</v>
+        <v>0.555</v>
       </c>
       <c r="L46" t="n">
         <v>463137</v>
@@ -2847,10 +2847,10 @@
         <v>2018</v>
       </c>
       <c r="C47" t="n">
-        <v>239.6</v>
+        <v>2.396</v>
       </c>
       <c r="D47" t="n">
-        <v>1286</v>
+        <v>1286000</v>
       </c>
       <c r="E47" t="n">
         <v>530</v>
@@ -2871,7 +2871,7 @@
         <v>506</v>
       </c>
       <c r="K47" t="n">
-        <v>52.3</v>
+        <v>0.523</v>
       </c>
       <c r="L47" t="n">
         <v>481919</v>
@@ -2899,10 +2899,10 @@
         <v>2019</v>
       </c>
       <c r="C48" t="n">
-        <v>238</v>
+        <v>2.38</v>
       </c>
       <c r="D48" t="n">
-        <v>1289.2</v>
+        <v>1289200</v>
       </c>
       <c r="E48" t="n">
         <v>530</v>
@@ -2923,7 +2923,7 @@
         <v>530</v>
       </c>
       <c r="K48" t="n">
-        <v>47.8</v>
+        <v>0.478</v>
       </c>
       <c r="L48" t="n">
         <v>511537</v>
@@ -2951,10 +2951,10 @@
         <v>2020</v>
       </c>
       <c r="C49" t="n">
-        <v>238</v>
+        <v>2.38</v>
       </c>
       <c r="D49" t="n">
-        <v>1292.4</v>
+        <v>1292400</v>
       </c>
       <c r="E49" t="n">
         <v>530</v>
@@ -2975,7 +2975,7 @@
         <v>216</v>
       </c>
       <c r="K49" t="n">
-        <v>22.2</v>
+        <v>0.222</v>
       </c>
       <c r="L49" t="n">
         <v>511834</v>
@@ -3003,10 +3003,10 @@
         <v>2021</v>
       </c>
       <c r="C50" t="n">
-        <v>238</v>
+        <v>2.38</v>
       </c>
       <c r="D50" t="n">
-        <v>1295.7</v>
+        <v>1295700</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
@@ -3025,7 +3025,7 @@
         <v>143</v>
       </c>
       <c r="K50" t="n">
-        <v>36.7</v>
+        <v>0.367</v>
       </c>
       <c r="L50" t="n">
         <v>521287</v>
@@ -3051,10 +3051,10 @@
         <v>2015</v>
       </c>
       <c r="C51" t="n">
-        <v>605</v>
+        <v>6.05</v>
       </c>
       <c r="D51" t="n">
-        <v>1487.6</v>
+        <v>1487600</v>
       </c>
       <c r="E51" t="n">
         <v>246</v>
@@ -3075,7 +3075,7 @@
         <v>84</v>
       </c>
       <c r="K51" t="n">
-        <v>114.5</v>
+        <v>1.145</v>
       </c>
       <c r="L51" t="n">
         <v>212102</v>
@@ -3103,10 +3103,10 @@
         <v>2016</v>
       </c>
       <c r="C52" t="n">
-        <v>606.6</v>
+        <v>6.066000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>1487.7</v>
+        <v>1487700</v>
       </c>
       <c r="E52" t="n">
         <v>245</v>
@@ -3127,7 +3127,7 @@
         <v>121</v>
       </c>
       <c r="K52" t="n">
-        <v>111</v>
+        <v>1.11</v>
       </c>
       <c r="L52" t="n">
         <v>221980</v>
@@ -3155,10 +3155,10 @@
         <v>2017</v>
       </c>
       <c r="C53" t="n">
-        <v>606.6</v>
+        <v>6.066000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>1487.7</v>
+        <v>1487700</v>
       </c>
       <c r="E53" t="n">
         <v>245</v>
@@ -3179,7 +3179,7 @@
         <v>124</v>
       </c>
       <c r="K53" t="n">
-        <v>113.3</v>
+        <v>1.133</v>
       </c>
       <c r="L53" t="n">
         <v>230451</v>
@@ -3207,10 +3207,10 @@
         <v>2018</v>
       </c>
       <c r="C54" t="n">
-        <v>606.5</v>
+        <v>6.065</v>
       </c>
       <c r="D54" t="n">
-        <v>1487.8</v>
+        <v>1487800</v>
       </c>
       <c r="E54" t="n">
         <v>245</v>
@@ -3231,7 +3231,7 @@
         <v>142</v>
       </c>
       <c r="K54" t="n">
-        <v>111.6</v>
+        <v>1.116</v>
       </c>
       <c r="L54" t="n">
         <v>243306</v>
@@ -3259,10 +3259,10 @@
         <v>2019</v>
       </c>
       <c r="C55" t="n">
-        <v>606.6</v>
+        <v>6.066000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>1487.8</v>
+        <v>1487800</v>
       </c>
       <c r="E55" t="n">
         <v>245</v>
@@ -3283,7 +3283,7 @@
         <v>150</v>
       </c>
       <c r="K55" t="n">
-        <v>107.4</v>
+        <v>1.074</v>
       </c>
       <c r="L55" t="n">
         <v>257245</v>
@@ -3311,10 +3311,10 @@
         <v>2020</v>
       </c>
       <c r="C56" t="n">
-        <v>606.6</v>
+        <v>6.066000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>1487.9</v>
+        <v>1487900</v>
       </c>
       <c r="E56" t="n">
         <v>245</v>
@@ -3335,7 +3335,7 @@
         <v>114</v>
       </c>
       <c r="K56" t="n">
-        <v>101.8</v>
+        <v>1.018</v>
       </c>
       <c r="L56" t="n">
         <v>263840</v>
@@ -3363,10 +3363,10 @@
         <v>2021</v>
       </c>
       <c r="C57" t="n">
-        <v>606.6</v>
+        <v>6.066000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>1508.3</v>
+        <v>1508300</v>
       </c>
       <c r="E57" t="n">
         <v>249</v>
@@ -3387,7 +3387,7 @@
         <v>110</v>
       </c>
       <c r="K57" t="n">
-        <v>103.4</v>
+        <v>1.034</v>
       </c>
       <c r="L57" t="n">
         <v>269731</v>
@@ -3413,10 +3413,10 @@
         <v>2015</v>
       </c>
       <c r="C58" t="n">
-        <v>269.5</v>
+        <v>2.695</v>
       </c>
       <c r="D58" t="n">
-        <v>2069.2</v>
+        <v>2069200</v>
       </c>
       <c r="E58" t="n">
         <v>768</v>
@@ -3437,7 +3437,7 @@
         <v>1100</v>
       </c>
       <c r="K58" t="n">
-        <v>8</v>
+        <v>0.08</v>
       </c>
       <c r="L58" t="n">
         <v>4007</v>
@@ -3465,10 +3465,10 @@
         <v>2016</v>
       </c>
       <c r="C59" t="n">
-        <v>269.5</v>
+        <v>2.695</v>
       </c>
       <c r="D59" t="n">
-        <v>2138.8</v>
+        <v>2138800</v>
       </c>
       <c r="E59" t="n">
         <v>794</v>
@@ -3489,7 +3489,7 @@
         <v>901</v>
       </c>
       <c r="K59" t="n">
-        <v>7.7</v>
+        <v>0.077</v>
       </c>
       <c r="L59" t="n">
         <v>4050</v>
@@ -3517,10 +3517,10 @@
         <v>2017</v>
       </c>
       <c r="C60" t="n">
-        <v>269.6</v>
+        <v>2.696</v>
       </c>
       <c r="D60" t="n">
-        <v>2227.2</v>
+        <v>2227200</v>
       </c>
       <c r="E60" t="n">
         <v>826</v>
@@ -3541,7 +3541,7 @@
         <v>918</v>
       </c>
       <c r="K60" t="n">
-        <v>7.6</v>
+        <v>0.076</v>
       </c>
       <c r="L60" t="n">
         <v>4131</v>
@@ -3569,10 +3569,10 @@
         <v>2018</v>
       </c>
       <c r="C61" t="n">
-        <v>269.5</v>
+        <v>2.695</v>
       </c>
       <c r="D61" t="n">
-        <v>2345.2</v>
+        <v>2345200</v>
       </c>
       <c r="E61" t="n">
         <v>870</v>
@@ -3593,7 +3593,7 @@
         <v>846</v>
       </c>
       <c r="K61" t="n">
-        <v>7.3</v>
+        <v>0.073</v>
       </c>
       <c r="L61" t="n">
         <v>4211</v>
@@ -3621,10 +3621,10 @@
         <v>2019</v>
       </c>
       <c r="C62" t="n">
-        <v>269.5</v>
+        <v>2.695</v>
       </c>
       <c r="D62" t="n">
-        <v>2456.3</v>
+        <v>2456300</v>
       </c>
       <c r="E62" t="n">
         <v>911</v>
@@ -3645,7 +3645,7 @@
         <v>862</v>
       </c>
       <c r="K62" t="n">
-        <v>7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L62" t="n">
         <v>4291</v>
@@ -3673,10 +3673,10 @@
         <v>2020</v>
       </c>
       <c r="C63" t="n">
-        <v>269.5</v>
+        <v>2.695</v>
       </c>
       <c r="D63" t="n">
-        <v>2580.6</v>
+        <v>2580600</v>
       </c>
       <c r="E63" t="n">
         <v>958</v>
@@ -3697,7 +3697,7 @@
         <v>759</v>
       </c>
       <c r="K63" t="n">
-        <v>6.6</v>
+        <v>0.066</v>
       </c>
       <c r="L63" t="n">
         <v>4429</v>
@@ -3725,10 +3725,10 @@
         <v>2021</v>
       </c>
       <c r="C64" t="n">
-        <v>269.5</v>
+        <v>2.695</v>
       </c>
       <c r="D64" t="n">
-        <v>2596.8</v>
+        <v>2596800</v>
       </c>
       <c r="E64" t="n">
         <v>964</v>
@@ -3749,7 +3749,7 @@
         <v>804</v>
       </c>
       <c r="K64" t="n">
-        <v>6.4</v>
+        <v>0.064</v>
       </c>
       <c r="L64" t="n">
         <v>4408</v>
@@ -3777,10 +3777,10 @@
         <v>2015</v>
       </c>
       <c r="C65" t="n">
-        <v>687.7</v>
+        <v>6.877000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>947.2</v>
+        <v>947200</v>
       </c>
       <c r="E65" t="n">
         <v>137</v>
@@ -3801,7 +3801,7 @@
         <v>968</v>
       </c>
       <c r="K65" t="n">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="L65" t="n">
         <v>5697</v>
@@ -3829,10 +3829,10 @@
         <v>2016</v>
       </c>
       <c r="C66" t="n">
-        <v>687.7</v>
+        <v>6.877000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>962.7</v>
+        <v>962700</v>
       </c>
       <c r="E66" t="n">
         <v>140</v>
@@ -3853,7 +3853,7 @@
         <v>853</v>
       </c>
       <c r="K66" t="n">
-        <v>16.8</v>
+        <v>0.168</v>
       </c>
       <c r="L66" t="n">
         <v>5395</v>
@@ -3881,10 +3881,10 @@
         <v>2017</v>
       </c>
       <c r="C67" t="n">
-        <v>687.8</v>
+        <v>6.878</v>
       </c>
       <c r="D67" t="n">
-        <v>972.6</v>
+        <v>972600</v>
       </c>
       <c r="E67" t="n">
         <v>141</v>
@@ -3905,7 +3905,7 @@
         <v>862</v>
       </c>
       <c r="K67" t="n">
-        <v>16.8</v>
+        <v>0.168</v>
       </c>
       <c r="L67" t="n">
         <v>5642</v>
@@ -3933,10 +3933,10 @@
         <v>2018</v>
       </c>
       <c r="C68" t="n">
-        <v>687.6</v>
+        <v>6.876</v>
       </c>
       <c r="D68" t="n">
-        <v>984.9</v>
+        <v>984900</v>
       </c>
       <c r="E68" t="n">
         <v>143</v>
@@ -3957,7 +3957,7 @@
         <v>829</v>
       </c>
       <c r="K68" t="n">
-        <v>16.3</v>
+        <v>0.163</v>
       </c>
       <c r="L68" t="n">
         <v>5317</v>
@@ -3985,10 +3985,10 @@
         <v>2019</v>
       </c>
       <c r="C69" t="n">
-        <v>687.4</v>
+        <v>6.874</v>
       </c>
       <c r="D69" t="n">
-        <v>997.8</v>
+        <v>997800</v>
       </c>
       <c r="E69" t="n">
         <v>145</v>
@@ -4009,7 +4009,7 @@
         <v>822</v>
       </c>
       <c r="K69" t="n">
-        <v>15.4</v>
+        <v>0.154</v>
       </c>
       <c r="L69" t="n">
         <v>4695</v>
@@ -4037,10 +4037,10 @@
         <v>2020</v>
       </c>
       <c r="C70" t="n">
-        <v>687.4</v>
+        <v>6.874</v>
       </c>
       <c r="D70" t="n">
-        <v>1011.1</v>
+        <v>1011100</v>
       </c>
       <c r="E70" t="n">
         <v>147</v>
@@ -4061,7 +4061,7 @@
         <v>487</v>
       </c>
       <c r="K70" t="n">
-        <v>14.5</v>
+        <v>0.145</v>
       </c>
       <c r="L70" t="n">
         <v>4678</v>
@@ -4089,10 +4089,10 @@
         <v>2021</v>
       </c>
       <c r="C71" t="n">
-        <v>687.4</v>
+        <v>6.874</v>
       </c>
       <c r="D71" t="n">
-        <v>1024.3</v>
+        <v>1024300</v>
       </c>
       <c r="E71" t="n">
         <v>149</v>
@@ -4113,7 +4113,7 @@
         <v>496</v>
       </c>
       <c r="K71" t="n">
-        <v>13.5</v>
+        <v>0.135</v>
       </c>
       <c r="L71" t="n">
         <v>4759</v>
@@ -4139,10 +4139,10 @@
         <v>2015</v>
       </c>
       <c r="C72" t="n">
-        <v>794.4</v>
+        <v>7.944</v>
       </c>
       <c r="D72" t="n">
-        <v>1205.4</v>
+        <v>1205400</v>
       </c>
       <c r="E72" t="n">
         <v>156</v>
@@ -4163,7 +4163,7 @@
         <v>665</v>
       </c>
       <c r="K72" t="n">
-        <v>134.7</v>
+        <v>1.347</v>
       </c>
       <c r="L72" t="n">
         <v>210272</v>
@@ -4191,10 +4191,10 @@
         <v>2016</v>
       </c>
       <c r="C73" t="n">
-        <v>794.4</v>
+        <v>7.944</v>
       </c>
       <c r="D73" t="n">
-        <v>1213.6</v>
+        <v>1213600</v>
       </c>
       <c r="E73" t="n">
         <v>154</v>
@@ -4215,7 +4215,7 @@
         <v>462</v>
       </c>
       <c r="K73" t="n">
-        <v>123.4</v>
+        <v>1.234</v>
       </c>
       <c r="L73" t="n">
         <v>215741</v>
@@ -4243,10 +4243,10 @@
         <v>2017</v>
       </c>
       <c r="C74" t="n">
-        <v>794.6</v>
+        <v>7.946000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>1220.5</v>
+        <v>1220500</v>
       </c>
       <c r="E74" t="n">
         <v>155</v>
@@ -4267,7 +4267,7 @@
         <v>466</v>
       </c>
       <c r="K74" t="n">
-        <v>142.6</v>
+        <v>1.426</v>
       </c>
       <c r="L74" t="n">
         <v>226181</v>
@@ -4295,10 +4295,10 @@
         <v>2018</v>
       </c>
       <c r="C75" t="n">
-        <v>794.4</v>
+        <v>7.944</v>
       </c>
       <c r="D75" t="n">
-        <v>1227.3</v>
+        <v>1227300</v>
       </c>
       <c r="E75" t="n">
         <v>156</v>
@@ -4319,7 +4319,7 @@
         <v>483</v>
       </c>
       <c r="K75" t="n">
-        <v>141.2</v>
+        <v>1.412</v>
       </c>
       <c r="L75" t="n">
         <v>231697</v>
@@ -4347,10 +4347,10 @@
         <v>2019</v>
       </c>
       <c r="C76" t="n">
-        <v>794.2</v>
+        <v>7.942000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>1232.3</v>
+        <v>1232300</v>
       </c>
       <c r="E76" t="n">
         <v>155</v>
@@ -4371,7 +4371,7 @@
         <v>488</v>
       </c>
       <c r="K76" t="n">
-        <v>134.7</v>
+        <v>1.347</v>
       </c>
       <c r="L76" t="n">
         <v>234534</v>
@@ -4399,10 +4399,10 @@
         <v>2020</v>
       </c>
       <c r="C77" t="n">
-        <v>794.3</v>
+        <v>7.943</v>
       </c>
       <c r="D77" t="n">
-        <v>1239.3</v>
+        <v>1239300</v>
       </c>
       <c r="E77" t="n">
         <v>156</v>
@@ -4423,7 +4423,7 @@
         <v>382</v>
       </c>
       <c r="K77" t="n">
-        <v>124.9</v>
+        <v>1.249</v>
       </c>
       <c r="L77" t="n">
         <v>233539</v>
@@ -4451,10 +4451,10 @@
         <v>2021</v>
       </c>
       <c r="C78" t="n">
-        <v>794.3</v>
+        <v>7.943</v>
       </c>
       <c r="D78" t="n">
-        <v>1246.3</v>
+        <v>1246300</v>
       </c>
       <c r="E78" t="n">
         <v>157</v>
@@ -4475,7 +4475,7 @@
         <v>413</v>
       </c>
       <c r="K78" t="n">
-        <v>138.9</v>
+        <v>1.389</v>
       </c>
       <c r="L78" t="n">
         <v>237699</v>
@@ -4501,10 +4501,10 @@
         <v>2015</v>
       </c>
       <c r="C79" t="n">
-        <v>522.1</v>
+        <v>5.221</v>
       </c>
       <c r="D79" t="n">
-        <v>1199.5</v>
+        <v>1199500</v>
       </c>
       <c r="E79" t="n">
         <v>230</v>
@@ -4525,7 +4525,7 @@
         <v>63</v>
       </c>
       <c r="K79" t="n">
-        <v>127.1</v>
+        <v>1.271</v>
       </c>
       <c r="L79" t="n">
         <v>499881</v>
@@ -4553,10 +4553,10 @@
         <v>2016</v>
       </c>
       <c r="C80" t="n">
-        <v>522.1</v>
+        <v>5.221</v>
       </c>
       <c r="D80" t="n">
-        <v>1198.1</v>
+        <v>1198100</v>
       </c>
       <c r="E80" t="n">
         <v>229</v>
@@ -4577,7 +4577,7 @@
         <v>95</v>
       </c>
       <c r="K80" t="n">
-        <v>112.8</v>
+        <v>1.128</v>
       </c>
       <c r="L80" t="n">
         <v>491049</v>
@@ -4605,10 +4605,10 @@
         <v>2017</v>
       </c>
       <c r="C81" t="n">
-        <v>522.1</v>
+        <v>5.221</v>
       </c>
       <c r="D81" t="n">
-        <v>1197</v>
+        <v>1197000</v>
       </c>
       <c r="E81" t="n">
         <v>229</v>
@@ -4629,7 +4629,7 @@
         <v>107</v>
       </c>
       <c r="K81" t="n">
-        <v>113.6</v>
+        <v>1.136</v>
       </c>
       <c r="L81" t="n">
         <v>525493</v>
@@ -4657,10 +4657,10 @@
         <v>2018</v>
       </c>
       <c r="C82" t="n">
-        <v>522.1</v>
+        <v>5.221</v>
       </c>
       <c r="D82" t="n">
-        <v>1195.6</v>
+        <v>1195600</v>
       </c>
       <c r="E82" t="n">
         <v>229</v>
@@ -4681,7 +4681,7 @@
         <v>97</v>
       </c>
       <c r="K82" t="n">
-        <v>117.9</v>
+        <v>1.179</v>
       </c>
       <c r="L82" t="n">
         <v>550583</v>
@@ -4709,10 +4709,10 @@
         <v>2019</v>
       </c>
       <c r="C83" t="n">
-        <v>527.5</v>
+        <v>5.275</v>
       </c>
       <c r="D83" t="n">
-        <v>1194.3</v>
+        <v>1194300</v>
       </c>
       <c r="E83" t="n">
         <v>226</v>
@@ -4733,7 +4733,7 @@
         <v>96</v>
       </c>
       <c r="K83" t="n">
-        <v>116.2</v>
+        <v>1.162</v>
       </c>
       <c r="L83" t="n">
         <v>565650</v>
@@ -4761,10 +4761,10 @@
         <v>2020</v>
       </c>
       <c r="C84" t="n">
-        <v>527.5</v>
+        <v>5.275</v>
       </c>
       <c r="D84" t="n">
-        <v>1193.9</v>
+        <v>1193900</v>
       </c>
       <c r="E84" t="n">
         <v>226</v>
@@ -4785,7 +4785,7 @@
         <v>212</v>
       </c>
       <c r="K84" t="n">
-        <v>113</v>
+        <v>1.13</v>
       </c>
       <c r="L84" t="n">
         <v>590191</v>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>1208.8</v>
+        <v>1208800</v>
       </c>
       <c r="E85" t="n">
         <v>229</v>
@@ -4835,7 +4835,7 @@
         <v>236</v>
       </c>
       <c r="K85" t="n">
-        <v>100.7</v>
+        <v>1.007</v>
       </c>
       <c r="L85" t="n">
         <v>608966</v>
@@ -4863,10 +4863,10 @@
         <v>2015</v>
       </c>
       <c r="C86" t="n">
-        <v>143.9</v>
+        <v>1.439</v>
       </c>
       <c r="D86" t="n">
-        <v>1208.5</v>
+        <v>1208500</v>
       </c>
       <c r="E86" t="n">
         <v>840</v>
@@ -4887,7 +4887,7 @@
         <v>35</v>
       </c>
       <c r="K86" t="n">
-        <v>239</v>
+        <v>2.39</v>
       </c>
       <c r="L86" t="n">
         <v>172411</v>
@@ -4915,10 +4915,10 @@
         <v>2016</v>
       </c>
       <c r="C87" t="n">
-        <v>143.9</v>
+        <v>1.439</v>
       </c>
       <c r="D87" t="n">
-        <v>1214.6</v>
+        <v>1214600</v>
       </c>
       <c r="E87" t="n">
         <v>844</v>
@@ -4939,7 +4939,7 @@
         <v>56</v>
       </c>
       <c r="K87" t="n">
-        <v>241.1</v>
+        <v>2.411</v>
       </c>
       <c r="L87" t="n">
         <v>166439</v>
@@ -4967,10 +4967,10 @@
         <v>2017</v>
       </c>
       <c r="C88" t="n">
-        <v>143.9</v>
+        <v>1.439</v>
       </c>
       <c r="D88" t="n">
-        <v>1222.4</v>
+        <v>1222400</v>
       </c>
       <c r="E88" t="n">
         <v>849</v>
@@ -4991,7 +4991,7 @@
         <v>43</v>
       </c>
       <c r="K88" t="n">
-        <v>241.2</v>
+        <v>2.412</v>
       </c>
       <c r="L88" t="n">
         <v>191827</v>
@@ -5019,10 +5019,10 @@
         <v>2018</v>
       </c>
       <c r="C89" t="n">
-        <v>143.9</v>
+        <v>1.439</v>
       </c>
       <c r="D89" t="n">
-        <v>1227.7</v>
+        <v>1227700</v>
       </c>
       <c r="E89" t="n">
         <v>853</v>
@@ -5043,7 +5043,7 @@
         <v>36</v>
       </c>
       <c r="K89" t="n">
-        <v>238.4</v>
+        <v>2.384</v>
       </c>
       <c r="L89" t="n">
         <v>216784</v>
@@ -5071,10 +5071,10 @@
         <v>2019</v>
       </c>
       <c r="C90" t="n">
-        <v>143.9</v>
+        <v>1.439</v>
       </c>
       <c r="D90" t="n">
-        <v>1236</v>
+        <v>1236000</v>
       </c>
       <c r="E90" t="n">
         <v>859</v>
@@ -5095,7 +5095,7 @@
         <v>36</v>
       </c>
       <c r="K90" t="n">
-        <v>226</v>
+        <v>2.26</v>
       </c>
       <c r="L90" t="n">
         <v>230382</v>
@@ -5123,10 +5123,10 @@
         <v>2020</v>
       </c>
       <c r="C91" t="n">
-        <v>144</v>
+        <v>1.44</v>
       </c>
       <c r="D91" t="n">
-        <v>1240.7</v>
+        <v>1240700</v>
       </c>
       <c r="E91" t="n">
         <v>861</v>
@@ -5147,7 +5147,7 @@
         <v>72</v>
       </c>
       <c r="K91" t="n">
-        <v>223.9</v>
+        <v>2.239</v>
       </c>
       <c r="L91" t="n">
         <v>221091</v>
@@ -5175,10 +5175,10 @@
         <v>2021</v>
       </c>
       <c r="C92" t="n">
-        <v>144</v>
+        <v>1.44</v>
       </c>
       <c r="D92" t="n">
-        <v>1247</v>
+        <v>1247000</v>
       </c>
       <c r="E92" t="n">
         <v>866</v>
@@ -5199,7 +5199,7 @@
         <v>72</v>
       </c>
       <c r="K92" t="n">
-        <v>223.6</v>
+        <v>2.236</v>
       </c>
       <c r="L92" t="n">
         <v>217345</v>
@@ -5227,10 +5227,10 @@
         <v>2015</v>
       </c>
       <c r="C93" t="n">
-        <v>670</v>
+        <v>6.7</v>
       </c>
       <c r="D93" t="n">
-        <v>522</v>
+        <v>522000</v>
       </c>
       <c r="E93" t="n">
         <v>78</v>
@@ -5251,7 +5251,7 @@
         <v>3</v>
       </c>
       <c r="K93" t="n">
-        <v>70.5</v>
+        <v>0.705</v>
       </c>
       <c r="L93" t="n">
         <v>415</v>
@@ -5279,10 +5279,10 @@
         <v>2016</v>
       </c>
       <c r="C94" t="n">
-        <v>670</v>
+        <v>6.7</v>
       </c>
       <c r="D94" t="n">
-        <v>524.2</v>
+        <v>524200.0000000001</v>
       </c>
       <c r="E94" t="n">
         <v>78</v>
@@ -5303,7 +5303,7 @@
         <v>2</v>
       </c>
       <c r="K94" t="n">
-        <v>69.2</v>
+        <v>0.6920000000000001</v>
       </c>
       <c r="L94" t="n">
         <v>457</v>
@@ -5331,10 +5331,10 @@
         <v>2017</v>
       </c>
       <c r="C95" t="n">
-        <v>670.1</v>
+        <v>6.701000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>526.4</v>
+        <v>526400</v>
       </c>
       <c r="E95" t="n">
         <v>79</v>
@@ -5355,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="K95" t="n">
-        <v>70.7</v>
+        <v>0.7070000000000001</v>
       </c>
       <c r="L95" t="n">
         <v>503</v>
@@ -5383,10 +5383,10 @@
         <v>2018</v>
       </c>
       <c r="C96" t="n">
-        <v>670.3</v>
+        <v>6.702999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>528.7</v>
+        <v>528700</v>
       </c>
       <c r="E96" t="n">
         <v>79</v>
@@ -5407,7 +5407,7 @@
         <v>2</v>
       </c>
       <c r="K96" t="n">
-        <v>70.3</v>
+        <v>0.703</v>
       </c>
       <c r="L96" t="n">
         <v>517</v>
@@ -5435,10 +5435,10 @@
         <v>2019</v>
       </c>
       <c r="C97" t="n">
-        <v>670</v>
+        <v>6.7</v>
       </c>
       <c r="D97" t="n">
-        <v>530.9</v>
+        <v>530900</v>
       </c>
       <c r="E97" t="n">
         <v>79</v>
@@ -5459,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="K97" t="n">
-        <v>69.7</v>
+        <v>0.6970000000000001</v>
       </c>
       <c r="L97" t="n">
         <v>538</v>
@@ -5487,10 +5487,10 @@
         <v>2020</v>
       </c>
       <c r="C98" t="n">
-        <v>670</v>
+        <v>6.7</v>
       </c>
       <c r="D98" t="n">
-        <v>533.1</v>
+        <v>533100</v>
       </c>
       <c r="E98" t="n">
         <v>80</v>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>69.8</v>
+        <v>0.698</v>
       </c>
       <c r="L98" t="n">
         <v>573</v>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>542.2</v>
+        <v>542200</v>
       </c>
       <c r="E99" t="n">
         <v>81</v>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>70.5</v>
+        <v>0.705</v>
       </c>
       <c r="L99" t="n">
         <v>603</v>
@@ -5583,10 +5583,10 @@
         <v>2015</v>
       </c>
       <c r="C100" t="n">
-        <v>128.5</v>
+        <v>1.285</v>
       </c>
       <c r="D100" t="n">
-        <v>1056.3</v>
+        <v>1056300</v>
       </c>
       <c r="E100" t="n">
         <v>822</v>
@@ -5607,7 +5607,7 @@
         <v>10</v>
       </c>
       <c r="K100" t="n">
-        <v>5.8</v>
+        <v>0.058</v>
       </c>
       <c r="L100" t="n">
         <v>34980</v>
@@ -5635,10 +5635,10 @@
         <v>2016</v>
       </c>
       <c r="C101" t="n">
-        <v>128.5</v>
+        <v>1.285</v>
       </c>
       <c r="D101" t="n">
-        <v>1080.3</v>
+        <v>1080300</v>
       </c>
       <c r="E101" t="n">
         <v>841</v>
@@ -5659,7 +5659,7 @@
         <v>19</v>
       </c>
       <c r="K101" t="n">
-        <v>5.9</v>
+        <v>0.059</v>
       </c>
       <c r="L101" t="n">
         <v>34569</v>
@@ -5687,10 +5687,10 @@
         <v>2017</v>
       </c>
       <c r="C102" t="n">
-        <v>128.5</v>
+        <v>1.285</v>
       </c>
       <c r="D102" t="n">
-        <v>1097.8</v>
+        <v>1097800</v>
       </c>
       <c r="E102" t="n">
         <v>854</v>
@@ -5711,7 +5711,7 @@
         <v>18</v>
       </c>
       <c r="K102" t="n">
-        <v>5.6</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="L102" t="n">
         <v>36210</v>
@@ -5739,10 +5739,10 @@
         <v>2018</v>
       </c>
       <c r="C103" t="n">
-        <v>128.5</v>
+        <v>1.285</v>
       </c>
       <c r="D103" t="n">
-        <v>1114.4</v>
+        <v>1114400</v>
       </c>
       <c r="E103" t="n">
         <v>867</v>
@@ -5763,7 +5763,7 @@
         <v>19</v>
       </c>
       <c r="K103" t="n">
-        <v>5.5</v>
+        <v>0.055</v>
       </c>
       <c r="L103" t="n">
         <v>37241</v>
@@ -5791,10 +5791,10 @@
         <v>2019</v>
       </c>
       <c r="C104" t="n">
-        <v>128.5</v>
+        <v>1.285</v>
       </c>
       <c r="D104" t="n">
-        <v>1141.1</v>
+        <v>1141100</v>
       </c>
       <c r="E104" t="n">
         <v>888</v>
@@ -5815,7 +5815,7 @@
         <v>19</v>
       </c>
       <c r="K104" t="n">
-        <v>5.3</v>
+        <v>0.053</v>
       </c>
       <c r="L104" t="n">
         <v>38682</v>
@@ -5843,10 +5843,10 @@
         <v>2020</v>
       </c>
       <c r="C105" t="n">
-        <v>128.5</v>
+        <v>1.285</v>
       </c>
       <c r="D105" t="n">
-        <v>1169.5</v>
+        <v>1169500</v>
       </c>
       <c r="E105" t="n">
         <v>910</v>
@@ -5867,7 +5867,7 @@
         <v>13</v>
       </c>
       <c r="K105" t="n">
-        <v>5.1</v>
+        <v>0.051</v>
       </c>
       <c r="L105" t="n">
         <v>38162</v>
@@ -5895,10 +5895,10 @@
         <v>2021</v>
       </c>
       <c r="C106" t="n">
-        <v>128.5</v>
+        <v>1.285</v>
       </c>
       <c r="D106" t="n">
-        <v>1195.5</v>
+        <v>1195500</v>
       </c>
       <c r="E106" t="n">
         <v>930</v>
@@ -5919,7 +5919,7 @@
         <v>13</v>
       </c>
       <c r="K106" t="n">
-        <v>4.9</v>
+        <v>0.049</v>
       </c>
       <c r="L106" t="n">
         <v>35303</v>
@@ -5945,10 +5945,10 @@
         <v>2015</v>
       </c>
       <c r="C107" t="n">
-        <v>1303.1</v>
+        <v>13.031</v>
       </c>
       <c r="D107" t="n">
-        <v>1820.2</v>
+        <v>1820200</v>
       </c>
       <c r="E107" t="n">
         <v>140</v>
@@ -5969,7 +5969,7 @@
         <v>668</v>
       </c>
       <c r="K107" t="n">
-        <v>211.8</v>
+        <v>2.118</v>
       </c>
       <c r="L107" t="n">
         <v>16380</v>
@@ -5997,10 +5997,10 @@
         <v>2016</v>
       </c>
       <c r="C108" t="n">
-        <v>1303</v>
+        <v>13.03</v>
       </c>
       <c r="D108" t="n">
-        <v>1836.4</v>
+        <v>1836400</v>
       </c>
       <c r="E108" t="n">
         <v>141</v>
@@ -6021,7 +6021,7 @@
         <v>927</v>
       </c>
       <c r="K108" t="n">
-        <v>206.3</v>
+        <v>2.063</v>
       </c>
       <c r="L108" t="n">
         <v>16233</v>
@@ -6049,10 +6049,10 @@
         <v>2017</v>
       </c>
       <c r="C109" t="n">
-        <v>1303</v>
+        <v>13.03</v>
       </c>
       <c r="D109" t="n">
-        <v>1850.3</v>
+        <v>1850300</v>
       </c>
       <c r="E109" t="n">
         <v>142</v>
@@ -6073,7 +6073,7 @@
         <v>960</v>
       </c>
       <c r="K109" t="n">
-        <v>201.8</v>
+        <v>2.018</v>
       </c>
       <c r="L109" t="n">
         <v>17410</v>
@@ -6101,10 +6101,10 @@
         <v>2018</v>
       </c>
       <c r="C110" t="n">
-        <v>1303</v>
+        <v>13.03</v>
       </c>
       <c r="D110" t="n">
-        <v>1861.5</v>
+        <v>1861500</v>
       </c>
       <c r="E110" t="n">
         <v>143</v>
@@ -6125,7 +6125,7 @@
         <v>780</v>
       </c>
       <c r="K110" t="n">
-        <v>199.8</v>
+        <v>1.998</v>
       </c>
       <c r="L110" t="n">
         <v>18506</v>
@@ -6153,10 +6153,10 @@
         <v>2019</v>
       </c>
       <c r="C111" t="n">
-        <v>1307</v>
+        <v>13.07</v>
       </c>
       <c r="D111" t="n">
-        <v>1872.6</v>
+        <v>1872600</v>
       </c>
       <c r="E111" t="n">
         <v>143</v>
@@ -6177,7 +6177,7 @@
         <v>786</v>
       </c>
       <c r="K111" t="n">
-        <v>195.2</v>
+        <v>1.952</v>
       </c>
       <c r="L111" t="n">
         <v>19838</v>
@@ -6205,10 +6205,10 @@
         <v>2020</v>
       </c>
       <c r="C112" t="n">
-        <v>1307</v>
+        <v>13.07</v>
       </c>
       <c r="D112" t="n">
-        <v>1886.9</v>
+        <v>1886900</v>
       </c>
       <c r="E112" t="n">
         <v>144</v>
@@ -6229,7 +6229,7 @@
         <v>678</v>
       </c>
       <c r="K112" t="n">
-        <v>194.9</v>
+        <v>1.949</v>
       </c>
       <c r="L112" t="n">
         <v>19989</v>
@@ -6257,10 +6257,10 @@
         <v>2021</v>
       </c>
       <c r="C113" t="n">
-        <v>1307</v>
+        <v>13.07</v>
       </c>
       <c r="D113" t="n">
-        <v>1909</v>
+        <v>1909000</v>
       </c>
       <c r="E113" t="n">
         <v>146</v>
@@ -6281,7 +6281,7 @@
         <v>898</v>
       </c>
       <c r="K113" t="n">
-        <v>192.6</v>
+        <v>1.926</v>
       </c>
       <c r="L113" t="n">
         <v>20837</v>
@@ -6307,10 +6307,10 @@
         <v>2015</v>
       </c>
       <c r="C114" t="n">
-        <v>650.9</v>
+        <v>6.509</v>
       </c>
       <c r="D114" t="n">
-        <v>580.5</v>
+        <v>580500</v>
       </c>
       <c r="E114" t="n">
         <v>90</v>
@@ -6331,7 +6331,7 @@
         <v>1057</v>
       </c>
       <c r="K114" t="n">
-        <v>63.6</v>
+        <v>0.636</v>
       </c>
       <c r="L114" t="n">
         <v>4300</v>
@@ -6359,10 +6359,10 @@
         <v>2016</v>
       </c>
       <c r="C115" t="n">
-        <v>650.9</v>
+        <v>6.509</v>
       </c>
       <c r="D115" t="n">
-        <v>594.4</v>
+        <v>594400</v>
       </c>
       <c r="E115" t="n">
         <v>93</v>
@@ -6383,7 +6383,7 @@
         <v>1226</v>
       </c>
       <c r="K115" t="n">
-        <v>64.2</v>
+        <v>0.642</v>
       </c>
       <c r="L115" t="n">
         <v>4720</v>
@@ -6411,10 +6411,10 @@
         <v>2017</v>
       </c>
       <c r="C116" t="n">
-        <v>651.3</v>
+        <v>6.513</v>
       </c>
       <c r="D116" t="n">
-        <v>604.9</v>
+        <v>604900</v>
       </c>
       <c r="E116" t="n">
         <v>96</v>
@@ -6435,7 +6435,7 @@
         <v>1215</v>
       </c>
       <c r="K116" t="n">
-        <v>63.6</v>
+        <v>0.636</v>
       </c>
       <c r="L116" t="n">
         <v>5092</v>
@@ -6463,10 +6463,10 @@
         <v>2018</v>
       </c>
       <c r="C117" t="n">
-        <v>650.9</v>
+        <v>6.509</v>
       </c>
       <c r="D117" t="n">
-        <v>615.4</v>
+        <v>615400</v>
       </c>
       <c r="E117" t="n">
         <v>99</v>
@@ -6487,7 +6487,7 @@
         <v>1211</v>
       </c>
       <c r="K117" t="n">
-        <v>69.7</v>
+        <v>0.6970000000000001</v>
       </c>
       <c r="L117" t="n">
         <v>5624</v>
@@ -6515,10 +6515,10 @@
         <v>2019</v>
       </c>
       <c r="C118" t="n">
-        <v>650.9</v>
+        <v>6.509</v>
       </c>
       <c r="D118" t="n">
-        <v>625.8</v>
+        <v>625800</v>
       </c>
       <c r="E118" t="n">
         <v>99</v>
@@ -6539,7 +6539,7 @@
         <v>1216</v>
       </c>
       <c r="K118" t="n">
-        <v>66.7</v>
+        <v>0.667</v>
       </c>
       <c r="L118" t="n">
         <v>6144</v>
@@ -6567,10 +6567,10 @@
         <v>2020</v>
       </c>
       <c r="C119" t="n">
-        <v>650.9</v>
+        <v>6.509</v>
       </c>
       <c r="D119" t="n">
-        <v>637.9</v>
+        <v>637900</v>
       </c>
       <c r="E119" t="n">
         <v>99</v>
@@ -6591,7 +6591,7 @@
         <v>234</v>
       </c>
       <c r="K119" t="n">
-        <v>60.7</v>
+        <v>0.6070000000000001</v>
       </c>
       <c r="L119" t="n">
         <v>6566</v>
@@ -6619,10 +6619,10 @@
         <v>2021</v>
       </c>
       <c r="C120" t="n">
-        <v>650.9</v>
+        <v>6.509</v>
       </c>
       <c r="D120" t="n">
-        <v>664.4</v>
+        <v>664400</v>
       </c>
       <c r="E120" t="n">
         <v>99</v>
@@ -6643,7 +6643,7 @@
         <v>254</v>
       </c>
       <c r="K120" t="n">
-        <v>54</v>
+        <v>0.54</v>
       </c>
       <c r="L120" t="n">
         <v>7054</v>
@@ -6669,10 +6669,10 @@
         <v>2015</v>
       </c>
       <c r="C121" t="n">
-        <v>954.1</v>
+        <v>9.541</v>
       </c>
       <c r="D121" t="n">
-        <v>557.2</v>
+        <v>557200</v>
       </c>
       <c r="E121" t="n">
         <v>58</v>
@@ -6693,7 +6693,7 @@
         <v>10</v>
       </c>
       <c r="K121" t="n">
-        <v>79.2</v>
+        <v>0.792</v>
       </c>
       <c r="L121" t="n">
         <v>2236</v>
@@ -6721,10 +6721,10 @@
         <v>2016</v>
       </c>
       <c r="C122" t="n">
-        <v>954.1</v>
+        <v>9.541</v>
       </c>
       <c r="D122" t="n">
-        <v>568.3</v>
+        <v>568300</v>
       </c>
       <c r="E122" t="n">
         <v>60</v>
@@ -6745,7 +6745,7 @@
         <v>9</v>
       </c>
       <c r="K122" t="n">
-        <v>80.09999999999999</v>
+        <v>0.8009999999999999</v>
       </c>
       <c r="L122" t="n">
         <v>2534</v>
@@ -6773,10 +6773,10 @@
         <v>2017</v>
       </c>
       <c r="C123" t="n">
-        <v>954.2</v>
+        <v>9.542</v>
       </c>
       <c r="D123" t="n">
-        <v>579.4</v>
+        <v>579400</v>
       </c>
       <c r="E123" t="n">
         <v>61</v>
@@ -6797,7 +6797,7 @@
         <v>7</v>
       </c>
       <c r="K123" t="n">
-        <v>80.8</v>
+        <v>0.8079999999999999</v>
       </c>
       <c r="L123" t="n">
         <v>2808</v>
@@ -6825,10 +6825,10 @@
         <v>2018</v>
       </c>
       <c r="C124" t="n">
-        <v>954.1</v>
+        <v>9.541</v>
       </c>
       <c r="D124" t="n">
-        <v>590.5</v>
+        <v>590500</v>
       </c>
       <c r="E124" t="n">
         <v>62</v>
@@ -6849,7 +6849,7 @@
         <v>19</v>
       </c>
       <c r="K124" t="n">
-        <v>81.09999999999999</v>
+        <v>0.8109999999999999</v>
       </c>
       <c r="L124" t="n">
         <v>3063</v>
@@ -6877,10 +6877,10 @@
         <v>2019</v>
       </c>
       <c r="C125" t="n">
-        <v>954</v>
+        <v>9.540000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>601.6</v>
+        <v>601600</v>
       </c>
       <c r="E125" t="n">
         <v>63</v>
@@ -6901,7 +6901,7 @@
         <v>13</v>
       </c>
       <c r="K125" t="n">
-        <v>80.59999999999999</v>
+        <v>0.8059999999999999</v>
       </c>
       <c r="L125" t="n">
         <v>3445</v>
@@ -6929,10 +6929,10 @@
         <v>2020</v>
       </c>
       <c r="C126" t="n">
-        <v>954</v>
+        <v>9.540000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>613.5</v>
+        <v>613500</v>
       </c>
       <c r="E126" t="n">
         <v>64</v>
@@ -6953,7 +6953,7 @@
         <v>6</v>
       </c>
       <c r="K126" t="n">
-        <v>80.3</v>
+        <v>0.8029999999999999</v>
       </c>
       <c r="L126" t="n">
         <v>3841</v>
@@ -6981,10 +6981,10 @@
         <v>2021</v>
       </c>
       <c r="C127" t="n">
-        <v>954</v>
+        <v>9.540000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>625.1</v>
+        <v>625100</v>
       </c>
       <c r="E127" t="n">
         <v>66</v>
@@ -7005,7 +7005,7 @@
         <v>6</v>
       </c>
       <c r="K127" t="n">
-        <v>81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L127" t="n">
         <v>4216</v>
@@ -7031,10 +7031,10 @@
         <v>2015</v>
       </c>
       <c r="C128" t="n">
-        <v>586.4</v>
+        <v>5.864</v>
       </c>
       <c r="D128" t="n">
-        <v>2890</v>
+        <v>2890000</v>
       </c>
       <c r="E128" t="n">
         <v>493</v>
@@ -7055,7 +7055,7 @@
         <v>3055</v>
       </c>
       <c r="K128" t="n">
-        <v>115.9</v>
+        <v>1.159</v>
       </c>
       <c r="L128" t="n">
         <v>52242</v>
@@ -7083,10 +7083,10 @@
         <v>2016</v>
       </c>
       <c r="C129" t="n">
-        <v>586.4</v>
+        <v>5.864</v>
       </c>
       <c r="D129" t="n">
-        <v>2951.4</v>
+        <v>2951400</v>
       </c>
       <c r="E129" t="n">
         <v>503</v>
@@ -7107,7 +7107,7 @@
         <v>3810</v>
       </c>
       <c r="K129" t="n">
-        <v>113.1</v>
+        <v>1.131</v>
       </c>
       <c r="L129" t="n">
         <v>54580</v>
@@ -7135,10 +7135,10 @@
         <v>2017</v>
       </c>
       <c r="C130" t="n">
-        <v>586.3</v>
+        <v>5.863</v>
       </c>
       <c r="D130" t="n">
-        <v>3004.9</v>
+        <v>3004900</v>
       </c>
       <c r="E130" t="n">
         <v>512</v>
@@ -7159,7 +7159,7 @@
         <v>3830</v>
       </c>
       <c r="K130" t="n">
-        <v>106.9</v>
+        <v>1.069</v>
       </c>
       <c r="L130" t="n">
         <v>58894</v>
@@ -7187,10 +7187,10 @@
         <v>2018</v>
       </c>
       <c r="C131" t="n">
-        <v>586.4</v>
+        <v>5.864</v>
       </c>
       <c r="D131" t="n">
-        <v>3055.1</v>
+        <v>3055100</v>
       </c>
       <c r="E131" t="n">
         <v>521</v>
@@ -7211,7 +7211,7 @@
         <v>3261</v>
       </c>
       <c r="K131" t="n">
-        <v>103.8</v>
+        <v>1.038</v>
       </c>
       <c r="L131" t="n">
         <v>62022</v>
@@ -7239,10 +7239,10 @@
         <v>2019</v>
       </c>
       <c r="C132" t="n">
-        <v>586.4</v>
+        <v>5.864</v>
       </c>
       <c r="D132" t="n">
-        <v>3113.7</v>
+        <v>3113700</v>
       </c>
       <c r="E132" t="n">
         <v>531</v>
@@ -7263,7 +7263,7 @@
         <v>3390</v>
       </c>
       <c r="K132" t="n">
-        <v>98.40000000000001</v>
+        <v>0.9840000000000001</v>
       </c>
       <c r="L132" t="n">
         <v>63832</v>
@@ -7291,10 +7291,10 @@
         <v>2020</v>
       </c>
       <c r="C133" t="n">
-        <v>586.4</v>
+        <v>5.864</v>
       </c>
       <c r="D133" t="n">
-        <v>3177.4</v>
+        <v>3177400</v>
       </c>
       <c r="E133" t="n">
         <v>542</v>
@@ -7315,7 +7315,7 @@
         <v>2377</v>
       </c>
       <c r="K133" t="n">
-        <v>91.90000000000001</v>
+        <v>0.919</v>
       </c>
       <c r="L133" t="n">
         <v>67066</v>
@@ -7343,10 +7343,10 @@
         <v>2021</v>
       </c>
       <c r="C134" t="n">
-        <v>586.4</v>
+        <v>5.864</v>
       </c>
       <c r="D134" t="n">
-        <v>3169.1</v>
+        <v>3169100</v>
       </c>
       <c r="E134" t="n">
         <v>540</v>
@@ -7367,7 +7367,7 @@
         <v>2160</v>
       </c>
       <c r="K134" t="n">
-        <v>89.59999999999999</v>
+        <v>0.8959999999999999</v>
       </c>
       <c r="L134" t="n">
         <v>69613</v>
@@ -7395,10 +7395,10 @@
         <v>2015</v>
       </c>
       <c r="C135" t="n">
-        <v>338.4</v>
+        <v>3.384</v>
       </c>
       <c r="D135" t="n">
-        <v>1625.6</v>
+        <v>1625600</v>
       </c>
       <c r="E135" t="n">
         <v>480</v>
@@ -7419,7 +7419,7 @@
         <v>370</v>
       </c>
       <c r="K135" t="n">
-        <v>550.5</v>
+        <v>5.505</v>
       </c>
       <c r="L135" t="n">
         <v>485622</v>
@@ -7447,10 +7447,10 @@
         <v>2016</v>
       </c>
       <c r="C136" t="n">
-        <v>338.4</v>
+        <v>3.384</v>
       </c>
       <c r="D136" t="n">
-        <v>1619</v>
+        <v>1619000</v>
       </c>
       <c r="E136" t="n">
         <v>478</v>
@@ -7471,7 +7471,7 @@
         <v>470</v>
       </c>
       <c r="K136" t="n">
-        <v>556.1</v>
+        <v>5.561</v>
       </c>
       <c r="L136" t="n">
         <v>491486</v>
@@ -7499,10 +7499,10 @@
         <v>2017</v>
       </c>
       <c r="C137" t="n">
-        <v>338.3</v>
+        <v>3.383</v>
       </c>
       <c r="D137" t="n">
-        <v>1612.5</v>
+        <v>1612500</v>
       </c>
       <c r="E137" t="n">
         <v>477</v>
@@ -7523,7 +7523,7 @@
         <v>458</v>
       </c>
       <c r="K137" t="n">
-        <v>543.5</v>
+        <v>5.435</v>
       </c>
       <c r="L137" t="n">
         <v>525813</v>
@@ -7551,10 +7551,10 @@
         <v>2018</v>
       </c>
       <c r="C138" t="n">
-        <v>338.4</v>
+        <v>3.384</v>
       </c>
       <c r="D138" t="n">
-        <v>1606.1</v>
+        <v>1606100</v>
       </c>
       <c r="E138" t="n">
         <v>475</v>
@@ -7575,7 +7575,7 @@
         <v>447</v>
       </c>
       <c r="K138" t="n">
-        <v>524.7</v>
+        <v>5.247000000000001</v>
       </c>
       <c r="L138" t="n">
         <v>548104</v>
@@ -7603,10 +7603,10 @@
         <v>2019</v>
       </c>
       <c r="C139" t="n">
-        <v>338.4</v>
+        <v>3.384</v>
       </c>
       <c r="D139" t="n">
-        <v>1598.8</v>
+        <v>1598800</v>
       </c>
       <c r="E139" t="n">
         <v>472</v>
@@ -7627,7 +7627,7 @@
         <v>447</v>
       </c>
       <c r="K139" t="n">
-        <v>526.8</v>
+        <v>5.268</v>
       </c>
       <c r="L139" t="n">
         <v>584263</v>
@@ -7655,10 +7655,10 @@
         <v>2020</v>
       </c>
       <c r="C140" t="n">
-        <v>338.2</v>
+        <v>3.382</v>
       </c>
       <c r="D140" t="n">
-        <v>1600</v>
+        <v>1600000</v>
       </c>
       <c r="E140" t="n">
         <v>473</v>
@@ -7679,7 +7679,7 @@
         <v>433</v>
       </c>
       <c r="K140" t="n">
-        <v>519.1</v>
+        <v>5.191000000000001</v>
       </c>
       <c r="L140" t="n">
         <v>565837</v>
@@ -7707,10 +7707,10 @@
         <v>2021</v>
       </c>
       <c r="C141" t="n">
-        <v>338.2</v>
+        <v>3.382</v>
       </c>
       <c r="D141" t="n">
-        <v>1601.3</v>
+        <v>1601300</v>
       </c>
       <c r="E141" t="n">
         <v>473</v>
@@ -7731,7 +7731,7 @@
         <v>453</v>
       </c>
       <c r="K141" t="n">
-        <v>508.3</v>
+        <v>5.083</v>
       </c>
       <c r="L141" t="n">
         <v>586944</v>
@@ -7759,10 +7759,10 @@
         <v>2015</v>
       </c>
       <c r="C142" t="n">
-        <v>1551.1</v>
+        <v>15.511</v>
       </c>
       <c r="D142" t="n">
-        <v>1426.4</v>
+        <v>1426400</v>
       </c>
       <c r="E142" t="n">
         <v>92</v>
@@ -7783,7 +7783,7 @@
         <v>667</v>
       </c>
       <c r="K142" t="n">
-        <v>126.8</v>
+        <v>1.268</v>
       </c>
       <c r="L142" t="n">
         <v>5402</v>
@@ -7811,10 +7811,10 @@
         <v>2016</v>
       </c>
       <c r="C143" t="n">
-        <v>1551.1</v>
+        <v>15.511</v>
       </c>
       <c r="D143" t="n">
-        <v>1447.1</v>
+        <v>1447100</v>
       </c>
       <c r="E143" t="n">
         <v>93</v>
@@ -7835,7 +7835,7 @@
         <v>880</v>
       </c>
       <c r="K143" t="n">
-        <v>124.8</v>
+        <v>1.248</v>
       </c>
       <c r="L143" t="n">
         <v>5416</v>
@@ -7863,10 +7863,10 @@
         <v>2017</v>
       </c>
       <c r="C144" t="n">
-        <v>1551.1</v>
+        <v>15.511</v>
       </c>
       <c r="D144" t="n">
-        <v>1468.9</v>
+        <v>1468900</v>
       </c>
       <c r="E144" t="n">
         <v>95</v>
@@ -7887,7 +7887,7 @@
         <v>850</v>
       </c>
       <c r="K144" t="n">
-        <v>122</v>
+        <v>1.22</v>
       </c>
       <c r="L144" t="n">
         <v>5794</v>
@@ -7915,10 +7915,10 @@
         <v>2018</v>
       </c>
       <c r="C145" t="n">
-        <v>1551.1</v>
+        <v>15.511</v>
       </c>
       <c r="D145" t="n">
-        <v>1495.7</v>
+        <v>1495700</v>
       </c>
       <c r="E145" t="n">
         <v>96</v>
@@ -7939,7 +7939,7 @@
         <v>513</v>
       </c>
       <c r="K145" t="n">
-        <v>120.9</v>
+        <v>1.209</v>
       </c>
       <c r="L145" t="n">
         <v>6084</v>
@@ -7967,10 +7967,10 @@
         <v>2019</v>
       </c>
       <c r="C146" t="n">
-        <v>1551</v>
+        <v>15.51</v>
       </c>
       <c r="D146" t="n">
-        <v>1520.2</v>
+        <v>1520200</v>
       </c>
       <c r="E146" t="n">
         <v>98</v>
@@ -7991,7 +7991,7 @@
         <v>396</v>
       </c>
       <c r="K146" t="n">
-        <v>120.8</v>
+        <v>1.208</v>
       </c>
       <c r="L146" t="n">
         <v>6708</v>
@@ -8019,10 +8019,10 @@
         <v>2020</v>
       </c>
       <c r="C147" t="n">
-        <v>1551</v>
+        <v>15.51</v>
       </c>
       <c r="D147" t="n">
-        <v>1541.8</v>
+        <v>1541800</v>
       </c>
       <c r="E147" t="n">
         <v>99</v>
@@ -8043,7 +8043,7 @@
         <v>284</v>
       </c>
       <c r="K147" t="n">
-        <v>120.2</v>
+        <v>1.202</v>
       </c>
       <c r="L147" t="n">
         <v>6917</v>
@@ -8071,10 +8071,10 @@
         <v>2021</v>
       </c>
       <c r="C148" t="n">
-        <v>1551</v>
+        <v>15.51</v>
       </c>
       <c r="D148" t="n">
-        <v>1569.7</v>
+        <v>1569700</v>
       </c>
       <c r="E148" t="n">
         <v>101</v>
@@ -8095,7 +8095,7 @@
         <v>230</v>
       </c>
       <c r="K148" t="n">
-        <v>113.2</v>
+        <v>1.132</v>
       </c>
       <c r="L148" t="n">
         <v>7793</v>
@@ -8123,10 +8123,10 @@
         <v>2015</v>
       </c>
       <c r="C149" t="n">
-        <v>792.9</v>
+        <v>7.929</v>
       </c>
       <c r="D149" t="n">
-        <v>806.7</v>
+        <v>806700</v>
       </c>
       <c r="E149" t="n">
         <v>1432</v>
@@ -8147,7 +8147,7 @@
         <v>33</v>
       </c>
       <c r="K149" t="n">
-        <v>91.8</v>
+        <v>0.918</v>
       </c>
       <c r="L149" t="n">
         <v>1895</v>
@@ -8175,10 +8175,10 @@
         <v>2016</v>
       </c>
       <c r="C150" t="n">
-        <v>792.9</v>
+        <v>7.929</v>
       </c>
       <c r="D150" t="n">
-        <v>820.4</v>
+        <v>820400</v>
       </c>
       <c r="E150" t="n">
         <v>1477</v>
@@ -8199,7 +8199,7 @@
         <v>38</v>
       </c>
       <c r="K150" t="n">
-        <v>91</v>
+        <v>0.91</v>
       </c>
       <c r="L150" t="n">
         <v>1926</v>
@@ -8227,10 +8227,10 @@
         <v>2017</v>
       </c>
       <c r="C151" t="n">
-        <v>792.9</v>
+        <v>7.929</v>
       </c>
       <c r="D151" t="n">
-        <v>833.7</v>
+        <v>833700</v>
       </c>
       <c r="E151" t="n">
         <v>1516</v>
@@ -8251,7 +8251,7 @@
         <v>37</v>
       </c>
       <c r="K151" t="n">
-        <v>92.09999999999999</v>
+        <v>0.9209999999999999</v>
       </c>
       <c r="L151" t="n">
         <v>1987</v>
@@ -8279,10 +8279,10 @@
         <v>2018</v>
       </c>
       <c r="C152" t="n">
-        <v>792.8</v>
+        <v>7.928</v>
       </c>
       <c r="D152" t="n">
-        <v>846.5</v>
+        <v>846500</v>
       </c>
       <c r="E152" t="n">
         <v>1676</v>
@@ -8303,7 +8303,7 @@
         <v>50</v>
       </c>
       <c r="K152" t="n">
-        <v>92.09999999999999</v>
+        <v>0.9209999999999999</v>
       </c>
       <c r="L152" t="n">
         <v>2150</v>
@@ -8331,10 +8331,10 @@
         <v>2019</v>
       </c>
       <c r="C153" t="n">
-        <v>792.8</v>
+        <v>7.928</v>
       </c>
       <c r="D153" t="n">
-        <v>858.1</v>
+        <v>858100</v>
       </c>
       <c r="E153" t="n">
         <v>1725</v>
@@ -8355,7 +8355,7 @@
         <v>51</v>
       </c>
       <c r="K153" t="n">
-        <v>92.3</v>
+        <v>0.923</v>
       </c>
       <c r="L153" t="n">
         <v>2144</v>
@@ -8383,10 +8383,10 @@
         <v>2020</v>
       </c>
       <c r="C154" t="n">
-        <v>792.8</v>
+        <v>7.928</v>
       </c>
       <c r="D154" t="n">
-        <v>870.2</v>
+        <v>870200</v>
       </c>
       <c r="E154" t="n">
         <v>1778</v>
@@ -8407,7 +8407,7 @@
         <v>32</v>
       </c>
       <c r="K154" t="n">
-        <v>92.8</v>
+        <v>0.9279999999999999</v>
       </c>
       <c r="L154" t="n">
         <v>2762</v>
@@ -8435,10 +8435,10 @@
         <v>2021</v>
       </c>
       <c r="C155" t="n">
-        <v>792.8</v>
+        <v>7.928</v>
       </c>
       <c r="D155" t="n">
-        <v>887.1</v>
+        <v>887100</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
@@ -8457,7 +8457,7 @@
         <v>24</v>
       </c>
       <c r="K155" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="L155" t="n">
         <v>2807</v>
@@ -8485,10 +8485,10 @@
         <v>2015</v>
       </c>
       <c r="C156" t="n">
-        <v>86.2</v>
+        <v>0.8620000000000001</v>
       </c>
       <c r="D156" t="n">
-        <v>824.3</v>
+        <v>824300</v>
       </c>
       <c r="E156" t="n">
         <v>931</v>
@@ -8509,7 +8509,7 @@
         <v>769</v>
       </c>
       <c r="K156" t="n">
-        <v>75.59999999999999</v>
+        <v>0.756</v>
       </c>
       <c r="L156" t="n">
         <v>22367</v>
@@ -8537,10 +8537,10 @@
         <v>2016</v>
       </c>
       <c r="C157" t="n">
-        <v>86.2</v>
+        <v>0.8620000000000001</v>
       </c>
       <c r="D157" t="n">
-        <v>832.2</v>
+        <v>832200</v>
       </c>
       <c r="E157" t="n">
         <v>932</v>
@@ -8561,7 +8561,7 @@
         <v>1071</v>
       </c>
       <c r="K157" t="n">
-        <v>73.90000000000001</v>
+        <v>0.7390000000000001</v>
       </c>
       <c r="L157" t="n">
         <v>22507</v>
@@ -8589,10 +8589,10 @@
         <v>2017</v>
       </c>
       <c r="C158" t="n">
-        <v>85.90000000000001</v>
+        <v>0.8590000000000001</v>
       </c>
       <c r="D158" t="n">
-        <v>839.8</v>
+        <v>839800</v>
       </c>
       <c r="E158" t="n">
         <v>935</v>
@@ -8613,7 +8613,7 @@
         <v>1032</v>
       </c>
       <c r="K158" t="n">
-        <v>72.8</v>
+        <v>0.728</v>
       </c>
       <c r="L158" t="n">
         <v>19819</v>
@@ -8641,10 +8641,10 @@
         <v>2018</v>
       </c>
       <c r="C159" t="n">
-        <v>86.2</v>
+        <v>0.8620000000000001</v>
       </c>
       <c r="D159" t="n">
-        <v>847.1</v>
+        <v>847100</v>
       </c>
       <c r="E159" t="n">
         <v>938</v>
@@ -8665,7 +8665,7 @@
         <v>739</v>
       </c>
       <c r="K159" t="n">
-        <v>70.2</v>
+        <v>0.7020000000000001</v>
       </c>
       <c r="L159" t="n">
         <v>22530</v>
@@ -8693,10 +8693,10 @@
         <v>2019</v>
       </c>
       <c r="C160" t="n">
-        <v>86.2</v>
+        <v>0.8620000000000001</v>
       </c>
       <c r="D160" t="n">
-        <v>854.5</v>
+        <v>854500</v>
       </c>
       <c r="E160" t="n">
         <v>991</v>
@@ -8717,7 +8717,7 @@
         <v>739</v>
       </c>
       <c r="K160" t="n">
-        <v>68.7</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="L160" t="n">
         <v>22949</v>
@@ -8745,10 +8745,10 @@
         <v>2020</v>
       </c>
       <c r="C161" t="n">
-        <v>86.2</v>
+        <v>0.8620000000000001</v>
       </c>
       <c r="D161" t="n">
-        <v>861.8</v>
+        <v>861800</v>
       </c>
       <c r="E161" t="n">
         <v>1000</v>
@@ -8769,7 +8769,7 @@
         <v>619</v>
       </c>
       <c r="K161" t="n">
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="L161" t="n">
         <v>24764</v>
@@ -8797,10 +8797,10 @@
         <v>2021</v>
       </c>
       <c r="C162" t="n">
-        <v>86.2</v>
+        <v>0.8620000000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>875.2</v>
+        <v>875200</v>
       </c>
       <c r="E162" t="n">
         <v>1015</v>
@@ -8821,7 +8821,7 @@
         <v>438</v>
       </c>
       <c r="K162" t="n">
-        <v>64.90000000000001</v>
+        <v>0.649</v>
       </c>
       <c r="L162" t="n">
         <v>24584</v>
@@ -8847,10 +8847,10 @@
         <v>2015</v>
       </c>
       <c r="C163" t="n">
-        <v>335.9</v>
+        <v>3.359</v>
       </c>
       <c r="D163" t="n">
-        <v>7433.6</v>
+        <v>7433600</v>
       </c>
       <c r="E163" t="n">
         <v>2213</v>
@@ -8871,7 +8871,7 @@
         <v>2137</v>
       </c>
       <c r="K163" t="n">
-        <v>221.6</v>
+        <v>2.216</v>
       </c>
       <c r="L163" t="n">
         <v>88001</v>
@@ -8899,10 +8899,10 @@
         <v>2016</v>
       </c>
       <c r="C164" t="n">
-        <v>335.9</v>
+        <v>3.359</v>
       </c>
       <c r="D164" t="n">
-        <v>7590.8</v>
+        <v>7590800</v>
       </c>
       <c r="E164" t="n">
         <v>2260</v>
@@ -8923,7 +8923,7 @@
         <v>3189</v>
       </c>
       <c r="K164" t="n">
-        <v>217</v>
+        <v>2.17</v>
       </c>
       <c r="L164" t="n">
         <v>92402</v>
@@ -8951,10 +8951,10 @@
         <v>2017</v>
       </c>
       <c r="C165" t="n">
-        <v>336</v>
+        <v>3.36</v>
       </c>
       <c r="D165" t="n">
-        <v>7742.2</v>
+        <v>7742200</v>
       </c>
       <c r="E165" t="n">
         <v>2305</v>
@@ -8975,7 +8975,7 @@
         <v>3166</v>
       </c>
       <c r="K165" t="n">
-        <v>209</v>
+        <v>2.09</v>
       </c>
       <c r="L165" t="n">
         <v>99691</v>
@@ -9003,10 +9003,10 @@
         <v>2018</v>
       </c>
       <c r="C166" t="n">
-        <v>336.1</v>
+        <v>3.361</v>
       </c>
       <c r="D166" t="n">
-        <v>7914.5</v>
+        <v>7914500</v>
       </c>
       <c r="E166" t="n">
         <v>2356</v>
@@ -9027,7 +9027,7 @@
         <v>3075</v>
       </c>
       <c r="K166" t="n">
-        <v>196.4</v>
+        <v>1.964</v>
       </c>
       <c r="L166" t="n">
         <v>106211</v>
@@ -9055,10 +9055,10 @@
         <v>2019</v>
       </c>
       <c r="C167" t="n">
-        <v>336</v>
+        <v>3.36</v>
       </c>
       <c r="D167" t="n">
-        <v>8093.9</v>
+        <v>8093900</v>
       </c>
       <c r="E167" t="n">
         <v>2408</v>
@@ -9079,7 +9079,7 @@
         <v>3227</v>
       </c>
       <c r="K167" t="n">
-        <v>187.3</v>
+        <v>1.873</v>
       </c>
       <c r="L167" t="n">
         <v>112637</v>
@@ -9107,10 +9107,10 @@
         <v>2020</v>
       </c>
       <c r="C168" t="n">
-        <v>336</v>
+        <v>3.36</v>
       </c>
       <c r="D168" t="n">
-        <v>8246.5</v>
+        <v>8246500</v>
       </c>
       <c r="E168" t="n">
         <v>2454</v>
@@ -9131,7 +9131,7 @@
         <v>1942</v>
       </c>
       <c r="K168" t="n">
-        <v>179.4</v>
+        <v>1.794</v>
       </c>
       <c r="L168" t="n">
         <v>116090</v>
@@ -9159,10 +9159,10 @@
         <v>2021</v>
       </c>
       <c r="C169" t="n">
-        <v>336</v>
+        <v>3.36</v>
       </c>
       <c r="D169" t="n">
-        <v>8330.799999999999</v>
+        <v>8330799.999999999</v>
       </c>
       <c r="E169" t="n">
         <v>2480</v>
@@ -9183,7 +9183,7 @@
         <v>1927</v>
       </c>
       <c r="K169" t="n">
-        <v>175.3</v>
+        <v>1.753</v>
       </c>
       <c r="L169" t="n">
         <v>119595</v>
@@ -9209,10 +9209,10 @@
         <v>2015</v>
       </c>
       <c r="C170" t="n">
-        <v>599.1</v>
+        <v>5.991000000000001</v>
       </c>
       <c r="D170" t="n">
-        <v>1261.3</v>
+        <v>1261300</v>
       </c>
       <c r="E170" t="n">
         <v>211</v>
@@ -9233,7 +9233,7 @@
         <v>190</v>
       </c>
       <c r="K170" t="n">
-        <v>110.5</v>
+        <v>1.105</v>
       </c>
       <c r="L170" t="n">
         <v>48967</v>
@@ -9261,10 +9261,10 @@
         <v>2016</v>
       </c>
       <c r="C171" t="n">
-        <v>599.1</v>
+        <v>5.991000000000001</v>
       </c>
       <c r="D171" t="n">
-        <v>1266.7</v>
+        <v>1266700</v>
       </c>
       <c r="E171" t="n">
         <v>211</v>
@@ -9285,7 +9285,7 @@
         <v>252</v>
       </c>
       <c r="K171" t="n">
-        <v>113</v>
+        <v>1.13</v>
       </c>
       <c r="L171" t="n">
         <v>38659</v>
@@ -9313,10 +9313,10 @@
         <v>2017</v>
       </c>
       <c r="C172" t="n">
-        <v>599</v>
+        <v>5.99</v>
       </c>
       <c r="D172" t="n">
-        <v>1274.2</v>
+        <v>1274200</v>
       </c>
       <c r="E172" t="n">
         <v>213</v>
@@ -9337,7 +9337,7 @@
         <v>256</v>
       </c>
       <c r="K172" t="n">
-        <v>111.8</v>
+        <v>1.118</v>
       </c>
       <c r="L172" t="n">
         <v>45021</v>
@@ -9365,10 +9365,10 @@
         <v>2018</v>
       </c>
       <c r="C173" t="n">
-        <v>599</v>
+        <v>5.99</v>
       </c>
       <c r="D173" t="n">
-        <v>1280.5</v>
+        <v>1280500</v>
       </c>
       <c r="E173" t="n">
         <v>214</v>
@@ -9389,7 +9389,7 @@
         <v>238</v>
       </c>
       <c r="K173" t="n">
-        <v>112.1</v>
+        <v>1.121</v>
       </c>
       <c r="L173" t="n">
         <v>47574</v>
@@ -9417,10 +9417,10 @@
         <v>2019</v>
       </c>
       <c r="C174" t="n">
-        <v>599.4</v>
+        <v>5.994</v>
       </c>
       <c r="D174" t="n">
-        <v>1290.3</v>
+        <v>1290300</v>
       </c>
       <c r="E174" t="n">
         <v>215</v>
@@ -9441,7 +9441,7 @@
         <v>238</v>
       </c>
       <c r="K174" t="n">
-        <v>114.6</v>
+        <v>1.146</v>
       </c>
       <c r="L174" t="n">
         <v>53403</v>
@@ -9469,10 +9469,10 @@
         <v>2020</v>
       </c>
       <c r="C175" t="n">
-        <v>599.4</v>
+        <v>5.994</v>
       </c>
       <c r="D175" t="n">
-        <v>1296.6</v>
+        <v>1296600</v>
       </c>
       <c r="E175" t="n">
         <v>216</v>
@@ -9493,7 +9493,7 @@
         <v>195</v>
       </c>
       <c r="K175" t="n">
-        <v>114.3</v>
+        <v>1.143</v>
       </c>
       <c r="L175" t="n">
         <v>55471</v>
@@ -9521,10 +9521,10 @@
         <v>2021</v>
       </c>
       <c r="C176" t="n">
-        <v>599.4</v>
+        <v>5.994</v>
       </c>
       <c r="D176" t="n">
-        <v>1314.1</v>
+        <v>1314100</v>
       </c>
       <c r="E176" t="n">
         <v>219</v>
@@ -9545,7 +9545,7 @@
         <v>206</v>
       </c>
       <c r="K176" t="n">
-        <v>117.1</v>
+        <v>1.171</v>
       </c>
       <c r="L176" t="n">
         <v>54310</v>
@@ -9573,10 +9573,10 @@
         <v>2015</v>
       </c>
       <c r="C177" t="n">
-        <v>166.8</v>
+        <v>1.668</v>
       </c>
       <c r="D177" t="n">
-        <v>1812.8</v>
+        <v>1812800</v>
       </c>
       <c r="E177" t="n">
         <v>1086.8</v>
@@ -9597,7 +9597,7 @@
         <v>626</v>
       </c>
       <c r="K177" t="n">
-        <v>126.7</v>
+        <v>1.267</v>
       </c>
       <c r="L177" t="n">
         <v>66673</v>
@@ -9625,10 +9625,10 @@
         <v>2016</v>
       </c>
       <c r="C178" t="n">
-        <v>166.8</v>
+        <v>1.668</v>
       </c>
       <c r="D178" t="n">
-        <v>1832.8</v>
+        <v>1832800</v>
       </c>
       <c r="E178" t="n">
         <v>1098.8</v>
@@ -9649,7 +9649,7 @@
         <v>1138</v>
       </c>
       <c r="K178" t="n">
-        <v>124.5</v>
+        <v>1.245</v>
       </c>
       <c r="L178" t="n">
         <v>69073</v>
@@ -9677,10 +9677,10 @@
         <v>2017</v>
       </c>
       <c r="C179" t="n">
-        <v>166.6</v>
+        <v>1.666</v>
       </c>
       <c r="D179" t="n">
-        <v>1850.6</v>
+        <v>1850600</v>
       </c>
       <c r="E179" t="n">
         <v>1110.8</v>
@@ -9701,7 +9701,7 @@
         <v>1092</v>
       </c>
       <c r="K179" t="n">
-        <v>122.4</v>
+        <v>1.224</v>
       </c>
       <c r="L179" t="n">
         <v>71368</v>
@@ -9729,10 +9729,10 @@
         <v>2018</v>
       </c>
       <c r="C180" t="n">
-        <v>166.8</v>
+        <v>1.668</v>
       </c>
       <c r="D180" t="n">
-        <v>1877.7</v>
+        <v>1877700</v>
       </c>
       <c r="E180" t="n">
         <v>1125.7</v>
@@ -9753,7 +9753,7 @@
         <v>845</v>
       </c>
       <c r="K180" t="n">
-        <v>120.3</v>
+        <v>1.203</v>
       </c>
       <c r="L180" t="n">
         <v>73797</v>
@@ -9781,10 +9781,10 @@
         <v>2019</v>
       </c>
       <c r="C181" t="n">
-        <v>166.8</v>
+        <v>1.668</v>
       </c>
       <c r="D181" t="n">
-        <v>1896.9</v>
+        <v>1896900</v>
       </c>
       <c r="E181" t="n">
         <v>1137</v>
@@ -9801,7 +9801,7 @@
         <v>832</v>
       </c>
       <c r="K181" t="n">
-        <v>118.5</v>
+        <v>1.185</v>
       </c>
       <c r="L181" t="n">
         <v>82106</v>
@@ -9829,10 +9829,10 @@
         <v>2020</v>
       </c>
       <c r="C182" t="n">
-        <v>166.8</v>
+        <v>1.668</v>
       </c>
       <c r="D182" t="n">
-        <v>1916.8</v>
+        <v>1916800</v>
       </c>
       <c r="E182" t="n">
         <v>1149</v>
@@ -9849,7 +9849,7 @@
         <v>625</v>
       </c>
       <c r="K182" t="n">
-        <v>116.1</v>
+        <v>1.161</v>
       </c>
       <c r="L182" t="n">
         <v>86814</v>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>1936.8</v>
+        <v>1936800</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="n">
@@ -9893,7 +9893,7 @@
         <v>695</v>
       </c>
       <c r="K183" t="n">
-        <v>114.6</v>
+        <v>1.146</v>
       </c>
       <c r="L183" t="n">
         <v>91321</v>
@@ -9919,10 +9919,10 @@
         <v>2015</v>
       </c>
       <c r="C184" t="n">
-        <v>156.2</v>
+        <v>1.562</v>
       </c>
       <c r="D184" t="n">
-        <v>1969.5</v>
+        <v>1969500</v>
       </c>
       <c r="E184" t="n">
         <v>1261</v>
@@ -9943,7 +9943,7 @@
         <v>624</v>
       </c>
       <c r="K184" t="n">
-        <v>77</v>
+        <v>0.77</v>
       </c>
       <c r="L184" t="n">
         <v>115815</v>
@@ -9971,10 +9971,10 @@
         <v>2016</v>
       </c>
       <c r="C185" t="n">
-        <v>156.2</v>
+        <v>1.562</v>
       </c>
       <c r="D185" t="n">
-        <v>1985.3</v>
+        <v>1985300</v>
       </c>
       <c r="E185" t="n">
         <v>1271</v>
@@ -9995,7 +9995,7 @@
         <v>901</v>
       </c>
       <c r="K185" t="n">
-        <v>75.2</v>
+        <v>0.752</v>
       </c>
       <c r="L185" t="n">
         <v>122387</v>
@@ -10023,10 +10023,10 @@
         <v>2017</v>
       </c>
       <c r="C186" t="n">
-        <v>156.1</v>
+        <v>1.561</v>
       </c>
       <c r="D186" t="n">
-        <v>2001.4</v>
+        <v>2001400</v>
       </c>
       <c r="E186" t="n">
         <v>1282</v>
@@ -10047,7 +10047,7 @@
         <v>675</v>
       </c>
       <c r="K186" t="n">
-        <v>73.3</v>
+        <v>0.733</v>
       </c>
       <c r="L186" t="n">
         <v>141673</v>
@@ -10075,10 +10075,10 @@
         <v>2018</v>
       </c>
       <c r="C187" t="n">
-        <v>156.2</v>
+        <v>1.562</v>
       </c>
       <c r="D187" t="n">
-        <v>2016.4</v>
+        <v>2016400</v>
       </c>
       <c r="E187" t="n">
         <v>1291</v>
@@ -10099,7 +10099,7 @@
         <v>718</v>
       </c>
       <c r="K187" t="n">
-        <v>70.2</v>
+        <v>0.7020000000000001</v>
       </c>
       <c r="L187" t="n">
         <v>158477</v>
@@ -10127,10 +10127,10 @@
         <v>2019</v>
       </c>
       <c r="C188" t="n">
-        <v>152.7</v>
+        <v>1.527</v>
       </c>
       <c r="D188" t="n">
-        <v>2033.2</v>
+        <v>2033200</v>
       </c>
       <c r="E188" t="n">
         <v>1332</v>
@@ -10151,7 +10151,7 @@
         <v>731</v>
       </c>
       <c r="K188" t="n">
-        <v>65.8</v>
+        <v>0.658</v>
       </c>
       <c r="L188" t="n">
         <v>173747</v>
@@ -10179,10 +10179,10 @@
         <v>2020</v>
       </c>
       <c r="C189" t="n">
-        <v>152.7</v>
+        <v>1.527</v>
       </c>
       <c r="D189" t="n">
-        <v>2053.5</v>
+        <v>2053500</v>
       </c>
       <c r="E189" t="n">
         <v>1345</v>
@@ -10203,7 +10203,7 @@
         <v>492</v>
       </c>
       <c r="K189" t="n">
-        <v>59.6</v>
+        <v>0.596</v>
       </c>
       <c r="L189" t="n">
         <v>182715</v>
@@ -10231,10 +10231,10 @@
         <v>2021</v>
       </c>
       <c r="C190" t="n">
-        <v>152.7</v>
+        <v>1.527</v>
       </c>
       <c r="D190" t="n">
-        <v>2072.4</v>
+        <v>2072400</v>
       </c>
       <c r="E190" t="n">
         <v>1358</v>
@@ -10255,7 +10255,7 @@
         <v>527</v>
       </c>
       <c r="K190" t="n">
-        <v>58.8</v>
+        <v>0.588</v>
       </c>
       <c r="L190" t="n">
         <v>190683</v>
@@ -10281,10 +10281,10 @@
         <v>2015</v>
       </c>
       <c r="C191" t="n">
-        <v>162.1</v>
+        <v>1.621</v>
       </c>
       <c r="D191" t="n">
-        <v>742.4</v>
+        <v>742400</v>
       </c>
       <c r="E191" t="n">
         <v>458</v>
@@ -10305,7 +10305,7 @@
         <v>11</v>
       </c>
       <c r="K191" t="n">
-        <v>210</v>
+        <v>2.1</v>
       </c>
       <c r="L191" t="n">
         <v>60131</v>
@@ -10333,10 +10333,10 @@
         <v>2016</v>
       </c>
       <c r="C192" t="n">
-        <v>162.2</v>
+        <v>1.622</v>
       </c>
       <c r="D192" t="n">
-        <v>740.1</v>
+        <v>740100</v>
       </c>
       <c r="E192" t="n">
         <v>456</v>
@@ -10357,7 +10357,7 @@
         <v>23</v>
       </c>
       <c r="K192" t="n">
-        <v>205.5</v>
+        <v>2.055</v>
       </c>
       <c r="L192" t="n">
         <v>60524</v>
@@ -10385,10 +10385,10 @@
         <v>2017</v>
       </c>
       <c r="C193" t="n">
-        <v>162.2</v>
+        <v>1.622</v>
       </c>
       <c r="D193" t="n">
-        <v>737.3</v>
+        <v>737300</v>
       </c>
       <c r="E193" t="n">
         <v>455</v>
@@ -10409,7 +10409,7 @@
         <v>22</v>
       </c>
       <c r="K193" t="n">
-        <v>209.8</v>
+        <v>2.098</v>
       </c>
       <c r="L193" t="n">
         <v>61920</v>
@@ -10437,10 +10437,10 @@
         <v>2018</v>
       </c>
       <c r="C194" t="n">
-        <v>162.2</v>
+        <v>1.622</v>
       </c>
       <c r="D194" t="n">
-        <v>734.9</v>
+        <v>734900</v>
       </c>
       <c r="E194" t="n">
         <v>453</v>
@@ -10461,7 +10461,7 @@
         <v>21</v>
       </c>
       <c r="K194" t="n">
-        <v>197.8</v>
+        <v>1.978</v>
       </c>
       <c r="L194" t="n">
         <v>64864</v>
@@ -10489,10 +10489,10 @@
         <v>2019</v>
       </c>
       <c r="C195" t="n">
-        <v>162.2</v>
+        <v>1.622</v>
       </c>
       <c r="D195" t="n">
-        <v>732.2</v>
+        <v>732200</v>
       </c>
       <c r="E195" t="n">
         <v>451</v>
@@ -10513,7 +10513,7 @@
         <v>22</v>
       </c>
       <c r="K195" t="n">
-        <v>199.3</v>
+        <v>1.993</v>
       </c>
       <c r="L195" t="n">
         <v>72667</v>
@@ -10541,10 +10541,10 @@
         <v>2020</v>
       </c>
       <c r="C196" t="n">
-        <v>162.2</v>
+        <v>1.622</v>
       </c>
       <c r="D196" t="n">
-        <v>729.8</v>
+        <v>729800</v>
       </c>
       <c r="E196" t="n">
         <v>450</v>
@@ -10565,7 +10565,7 @@
         <v>38</v>
       </c>
       <c r="K196" t="n">
-        <v>201.2</v>
+        <v>2.012</v>
       </c>
       <c r="L196" t="n">
         <v>75060</v>
@@ -10593,10 +10593,10 @@
         <v>2021</v>
       </c>
       <c r="C197" t="n">
-        <v>162.2</v>
+        <v>1.622</v>
       </c>
       <c r="D197" t="n">
-        <v>729.9</v>
+        <v>729900</v>
       </c>
       <c r="E197" t="n">
         <v>450</v>
@@ -10617,7 +10617,7 @@
         <v>52</v>
       </c>
       <c r="K197" t="n">
-        <v>192</v>
+        <v>1.92</v>
       </c>
       <c r="L197" t="n">
         <v>75216</v>
@@ -10643,10 +10643,10 @@
         <v>2015</v>
       </c>
       <c r="C198" t="n">
-        <v>206.1</v>
+        <v>2.061</v>
       </c>
       <c r="D198" t="n">
-        <v>8307.9</v>
+        <v>8307900</v>
       </c>
       <c r="E198" t="n">
         <v>4031</v>
@@ -10667,7 +10667,7 @@
         <v>215</v>
       </c>
       <c r="K198" t="n">
-        <v>21.3</v>
+        <v>0.213</v>
       </c>
       <c r="L198" t="n">
         <v>52078</v>
@@ -10695,10 +10695,10 @@
         <v>2016</v>
       </c>
       <c r="C199" t="n">
-        <v>206.1</v>
+        <v>2.061</v>
       </c>
       <c r="D199" t="n">
-        <v>8479.1</v>
+        <v>8479100</v>
       </c>
       <c r="E199" t="n">
         <v>4114</v>
@@ -10719,7 +10719,7 @@
         <v>239</v>
       </c>
       <c r="K199" t="n">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="L199" t="n">
         <v>57848.4</v>
@@ -10747,10 +10747,10 @@
         <v>2017</v>
       </c>
       <c r="C200" t="n">
-        <v>206.2</v>
+        <v>2.062</v>
       </c>
       <c r="D200" t="n">
-        <v>8649.6</v>
+        <v>8649600</v>
       </c>
       <c r="E200" t="n">
         <v>4197</v>
@@ -10771,7 +10771,7 @@
         <v>214</v>
       </c>
       <c r="K200" t="n">
-        <v>19.6</v>
+        <v>0.196</v>
       </c>
       <c r="L200" t="n">
         <v>59308.6</v>
@@ -10799,10 +10799,10 @@
         <v>2018</v>
       </c>
       <c r="C201" t="n">
-        <v>206.2</v>
+        <v>2.062</v>
       </c>
       <c r="D201" t="n">
-        <v>8843.299999999999</v>
+        <v>8843300</v>
       </c>
       <c r="E201" t="n">
         <v>4289</v>
@@ -10823,7 +10823,7 @@
         <v>171</v>
       </c>
       <c r="K201" t="n">
-        <v>17.7</v>
+        <v>0.177</v>
       </c>
       <c r="L201" t="n">
         <v>57140</v>
@@ -10851,10 +10851,10 @@
         <v>2019</v>
       </c>
       <c r="C202" t="n">
-        <v>209.5</v>
+        <v>2.095</v>
       </c>
       <c r="D202" t="n">
-        <v>9038.5</v>
+        <v>9038500</v>
       </c>
       <c r="E202" t="n">
         <v>4314</v>
@@ -10875,7 +10875,7 @@
         <v>211</v>
       </c>
       <c r="K202" t="n">
-        <v>17.4</v>
+        <v>0.174</v>
       </c>
       <c r="L202" t="n">
         <v>60415</v>
@@ -10903,10 +10903,10 @@
         <v>2020</v>
       </c>
       <c r="C203" t="n">
-        <v>209.5</v>
+        <v>2.095</v>
       </c>
       <c r="D203" t="n">
-        <v>9227.6</v>
+        <v>9227600</v>
       </c>
       <c r="E203" t="n">
         <v>4404</v>
@@ -10927,7 +10927,7 @@
         <v>249</v>
       </c>
       <c r="K203" t="n">
-        <v>17.3</v>
+        <v>0.173</v>
       </c>
       <c r="L203" t="n">
         <v>60160</v>
@@ -10955,10 +10955,10 @@
         <v>2021</v>
       </c>
       <c r="C204" t="n">
-        <v>209.5</v>
+        <v>2.095</v>
       </c>
       <c r="D204" t="n">
-        <v>9166.799999999999</v>
+        <v>9166800</v>
       </c>
       <c r="E204" t="n">
         <v>4375</v>
@@ -10979,7 +10979,7 @@
         <v>85</v>
       </c>
       <c r="K204" t="n">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="L204" t="n">
         <v>53439</v>
@@ -11007,10 +11007,10 @@
         <v>2015</v>
       </c>
       <c r="C205" t="n">
-        <v>459.1</v>
+        <v>4.591</v>
       </c>
       <c r="D205" t="n">
-        <v>828.6</v>
+        <v>828600</v>
       </c>
       <c r="E205" t="n">
         <v>180</v>
@@ -11031,7 +11031,7 @@
         <v>128</v>
       </c>
       <c r="K205" t="n">
-        <v>78.09999999999999</v>
+        <v>0.7809999999999999</v>
       </c>
       <c r="L205" t="n">
         <v>5703</v>
@@ -11059,10 +11059,10 @@
         <v>2016</v>
       </c>
       <c r="C206" t="n">
-        <v>459.1</v>
+        <v>4.591</v>
       </c>
       <c r="D206" t="n">
-        <v>837</v>
+        <v>837000</v>
       </c>
       <c r="E206" t="n">
         <v>182</v>
@@ -11083,7 +11083,7 @@
         <v>181</v>
       </c>
       <c r="K206" t="n">
-        <v>77.90000000000001</v>
+        <v>0.779</v>
       </c>
       <c r="L206" t="n">
         <v>6229</v>
@@ -11111,10 +11111,10 @@
         <v>2017</v>
       </c>
       <c r="C207" t="n">
-        <v>459.1</v>
+        <v>4.591</v>
       </c>
       <c r="D207" t="n">
-        <v>845</v>
+        <v>845000</v>
       </c>
       <c r="E207" t="n">
         <v>184</v>
@@ -11135,7 +11135,7 @@
         <v>191</v>
       </c>
       <c r="K207" t="n">
-        <v>76.09999999999999</v>
+        <v>0.761</v>
       </c>
       <c r="L207" t="n">
         <v>6564</v>
@@ -11163,10 +11163,10 @@
         <v>2018</v>
       </c>
       <c r="C208" t="n">
-        <v>459.1</v>
+        <v>4.591</v>
       </c>
       <c r="D208" t="n">
-        <v>850.4</v>
+        <v>850400</v>
       </c>
       <c r="E208" t="n">
         <v>185</v>
@@ -11187,7 +11187,7 @@
         <v>187</v>
       </c>
       <c r="K208" t="n">
-        <v>72.2</v>
+        <v>0.7220000000000001</v>
       </c>
       <c r="L208" t="n">
         <v>6988</v>
@@ -11215,10 +11215,10 @@
         <v>2019</v>
       </c>
       <c r="C209" t="n">
-        <v>459</v>
+        <v>4.59</v>
       </c>
       <c r="D209" t="n">
-        <v>855.8</v>
+        <v>855800</v>
       </c>
       <c r="E209" t="n">
         <v>186</v>
@@ -11239,7 +11239,7 @@
         <v>196</v>
       </c>
       <c r="K209" t="n">
-        <v>71.90000000000001</v>
+        <v>0.7190000000000001</v>
       </c>
       <c r="L209" t="n">
         <v>7506</v>
@@ -11267,10 +11267,10 @@
         <v>2020</v>
       </c>
       <c r="C210" t="n">
-        <v>459</v>
+        <v>4.59</v>
       </c>
       <c r="D210" t="n">
-        <v>861.2</v>
+        <v>861200</v>
       </c>
       <c r="E210" t="n">
         <v>188</v>
@@ -11291,7 +11291,7 @@
         <v>188</v>
       </c>
       <c r="K210" t="n">
-        <v>70.5</v>
+        <v>0.705</v>
       </c>
       <c r="L210" t="n">
         <v>7782</v>
@@ -11320,7 +11320,7 @@
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="n">
-        <v>871.7</v>
+        <v>871700</v>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="n">
@@ -11339,7 +11339,7 @@
         <v>184</v>
       </c>
       <c r="K211" t="n">
-        <v>70.8</v>
+        <v>0.708</v>
       </c>
       <c r="L211" t="n">
         <v>8225</v>
@@ -11367,10 +11367,10 @@
         <v>2015</v>
       </c>
       <c r="C212" t="n">
-        <v>93</v>
+        <v>0.93</v>
       </c>
       <c r="D212" t="n">
-        <v>1202</v>
+        <v>1202000</v>
       </c>
       <c r="E212" t="n">
         <v>1292</v>
@@ -11391,7 +11391,7 @@
         <v>659</v>
       </c>
       <c r="K212" t="n">
-        <v>86</v>
+        <v>0.86</v>
       </c>
       <c r="L212" t="n">
         <v>34552</v>
@@ -11419,10 +11419,10 @@
         <v>2016</v>
       </c>
       <c r="C213" t="n">
-        <v>93</v>
+        <v>0.93</v>
       </c>
       <c r="D213" t="n">
-        <v>1215.5</v>
+        <v>1215500</v>
       </c>
       <c r="E213" t="n">
         <v>1307</v>
@@ -11443,7 +11443,7 @@
         <v>648</v>
       </c>
       <c r="K213" t="n">
-        <v>82.3</v>
+        <v>0.823</v>
       </c>
       <c r="L213" t="n">
         <v>36727</v>
@@ -11471,10 +11471,10 @@
         <v>2017</v>
       </c>
       <c r="C214" t="n">
-        <v>92.90000000000001</v>
+        <v>0.929</v>
       </c>
       <c r="D214" t="n">
-        <v>1228.8</v>
+        <v>1228800</v>
       </c>
       <c r="E214" t="n">
         <v>1323</v>
@@ -11495,7 +11495,7 @@
         <v>994</v>
       </c>
       <c r="K214" t="n">
-        <v>78.2</v>
+        <v>0.782</v>
       </c>
       <c r="L214" t="n">
         <v>39348</v>
@@ -11523,10 +11523,10 @@
         <v>2018</v>
       </c>
       <c r="C215" t="n">
-        <v>93</v>
+        <v>0.93</v>
       </c>
       <c r="D215" t="n">
-        <v>1242.4</v>
+        <v>1242400</v>
       </c>
       <c r="E215" t="n">
         <v>1336</v>
@@ -11547,7 +11547,7 @@
         <v>861</v>
       </c>
       <c r="K215" t="n">
-        <v>73.3</v>
+        <v>0.733</v>
       </c>
       <c r="L215" t="n">
         <v>41485</v>
@@ -11575,10 +11575,10 @@
         <v>2019</v>
       </c>
       <c r="C216" t="n">
-        <v>93</v>
+        <v>0.93</v>
       </c>
       <c r="D216" t="n">
-        <v>1255.8</v>
+        <v>1255800</v>
       </c>
       <c r="E216" t="n">
         <v>1350</v>
@@ -11599,7 +11599,7 @@
         <v>861</v>
       </c>
       <c r="K216" t="n">
-        <v>68.3</v>
+        <v>0.6829999999999999</v>
       </c>
       <c r="L216" t="n">
         <v>45950</v>
@@ -11627,10 +11627,10 @@
         <v>2020</v>
       </c>
       <c r="C217" t="n">
-        <v>93</v>
+        <v>0.93</v>
       </c>
       <c r="D217" t="n">
-        <v>1269.1</v>
+        <v>1269100</v>
       </c>
       <c r="E217" t="n">
         <v>1364</v>
@@ -11651,7 +11651,7 @@
         <v>751</v>
       </c>
       <c r="K217" t="n">
-        <v>62.9</v>
+        <v>0.629</v>
       </c>
       <c r="L217" t="n">
         <v>48241</v>
@@ -11679,10 +11679,10 @@
         <v>2021</v>
       </c>
       <c r="C218" t="n">
-        <v>93</v>
+        <v>0.93</v>
       </c>
       <c r="D218" t="n">
-        <v>1284.6</v>
+        <v>1284600</v>
       </c>
       <c r="E218" t="n">
         <v>1381</v>
@@ -11703,7 +11703,7 @@
         <v>782</v>
       </c>
       <c r="K218" t="n">
-        <v>59.4</v>
+        <v>0.594</v>
       </c>
       <c r="L218" t="n">
         <v>50903</v>
@@ -11729,10 +11729,10 @@
         <v>2015</v>
       </c>
       <c r="C219" t="n">
-        <v>513.8</v>
+        <v>5.138</v>
       </c>
       <c r="D219" t="n">
-        <v>1198.4</v>
+        <v>1198400</v>
       </c>
       <c r="E219" t="n">
         <v>231</v>
@@ -11753,7 +11753,7 @@
         <v>71</v>
       </c>
       <c r="K219" t="n">
-        <v>40.4</v>
+        <v>0.404</v>
       </c>
       <c r="L219" t="n">
         <v>102910</v>
@@ -11781,10 +11781,10 @@
         <v>2016</v>
       </c>
       <c r="C220" t="n">
-        <v>513.8</v>
+        <v>5.138</v>
       </c>
       <c r="D220" t="n">
-        <v>1207.2</v>
+        <v>1207200</v>
       </c>
       <c r="E220" t="n">
         <v>236</v>
@@ -11805,7 +11805,7 @@
         <v>144</v>
       </c>
       <c r="K220" t="n">
-        <v>46.4</v>
+        <v>0.464</v>
       </c>
       <c r="L220" t="n">
         <v>106182</v>
@@ -11833,10 +11833,10 @@
         <v>2017</v>
       </c>
       <c r="C221" t="n">
-        <v>513.9</v>
+        <v>5.139</v>
       </c>
       <c r="D221" t="n">
-        <v>1216.3</v>
+        <v>1216300</v>
       </c>
       <c r="E221" t="n">
         <v>238</v>
@@ -11857,7 +11857,7 @@
         <v>150</v>
       </c>
       <c r="K221" t="n">
-        <v>54.1</v>
+        <v>0.541</v>
       </c>
       <c r="L221" t="n">
         <v>107763</v>
@@ -11885,10 +11885,10 @@
         <v>2018</v>
       </c>
       <c r="C222" t="n">
-        <v>513.8</v>
+        <v>5.138</v>
       </c>
       <c r="D222" t="n">
-        <v>1224.5</v>
+        <v>1224500</v>
       </c>
       <c r="E222" t="n">
         <v>240</v>
@@ -11909,7 +11909,7 @@
         <v>157</v>
       </c>
       <c r="K222" t="n">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="L222" t="n">
         <v>107018</v>
@@ -11937,10 +11937,10 @@
         <v>2019</v>
       </c>
       <c r="C223" t="n">
-        <v>520</v>
+        <v>5.2</v>
       </c>
       <c r="D223" t="n">
-        <v>1232.8</v>
+        <v>1232800</v>
       </c>
       <c r="E223" t="n">
         <v>240</v>
@@ -11961,7 +11961,7 @@
         <v>193</v>
       </c>
       <c r="K223" t="n">
-        <v>51.5</v>
+        <v>0.515</v>
       </c>
       <c r="L223" t="n">
         <v>108948</v>
@@ -11989,10 +11989,10 @@
         <v>2020</v>
       </c>
       <c r="C224" t="n">
-        <v>520</v>
+        <v>5.2</v>
       </c>
       <c r="D224" t="n">
-        <v>1240.4</v>
+        <v>1240400</v>
       </c>
       <c r="E224" t="n">
         <v>241</v>
@@ -12013,7 +12013,7 @@
         <v>225</v>
       </c>
       <c r="K224" t="n">
-        <v>38.7</v>
+        <v>0.387</v>
       </c>
       <c r="L224" t="n">
         <v>111816</v>
@@ -12041,10 +12041,10 @@
         <v>2021</v>
       </c>
       <c r="C225" t="n">
-        <v>520</v>
+        <v>5.2</v>
       </c>
       <c r="D225" t="n">
-        <v>1248.1</v>
+        <v>1248100</v>
       </c>
       <c r="E225" t="n">
         <v>240</v>
@@ -12065,7 +12065,7 @@
         <v>243</v>
       </c>
       <c r="K225" t="n">
-        <v>50.4</v>
+        <v>0.504</v>
       </c>
       <c r="L225" t="n">
         <v>112998</v>
@@ -12091,10 +12091,10 @@
         <v>2015</v>
       </c>
       <c r="C226" t="n">
-        <v>634.9</v>
+        <v>6.349</v>
       </c>
       <c r="D226" t="n">
-        <v>1705.4</v>
+        <v>1705400</v>
       </c>
       <c r="E226" t="n">
         <v>269</v>
@@ -12115,7 +12115,7 @@
         <v>634</v>
       </c>
       <c r="K226" t="n">
-        <v>769.7</v>
+        <v>7.697000000000001</v>
       </c>
       <c r="L226" t="n">
         <v>677300</v>
@@ -12143,10 +12143,10 @@
         <v>2016</v>
       </c>
       <c r="C227" t="n">
-        <v>634.9</v>
+        <v>6.349</v>
       </c>
       <c r="D227" t="n">
-        <v>1708.7</v>
+        <v>1708700</v>
       </c>
       <c r="E227" t="n">
         <v>269</v>
@@ -12167,7 +12167,7 @@
         <v>1044</v>
       </c>
       <c r="K227" t="n">
-        <v>766.3</v>
+        <v>7.662999999999999</v>
       </c>
       <c r="L227" t="n">
         <v>716368</v>
@@ -12195,10 +12195,10 @@
         <v>2017</v>
       </c>
       <c r="C228" t="n">
-        <v>634.9</v>
+        <v>6.349</v>
       </c>
       <c r="D228" t="n">
-        <v>1712.9</v>
+        <v>1712900</v>
       </c>
       <c r="E228" t="n">
         <v>270</v>
@@ -12219,7 +12219,7 @@
         <v>1048</v>
       </c>
       <c r="K228" t="n">
-        <v>735.6</v>
+        <v>7.356000000000001</v>
       </c>
       <c r="L228" t="n">
         <v>763376</v>
@@ -12247,10 +12247,10 @@
         <v>2018</v>
       </c>
       <c r="C229" t="n">
-        <v>634.9</v>
+        <v>6.349</v>
       </c>
       <c r="D229" t="n">
-        <v>1718.1</v>
+        <v>1718100</v>
       </c>
       <c r="E229" t="n">
         <v>271</v>
@@ -12271,7 +12271,7 @@
         <v>993</v>
       </c>
       <c r="K229" t="n">
-        <v>728.7</v>
+        <v>7.287000000000001</v>
       </c>
       <c r="L229" t="n">
         <v>815530</v>
@@ -12299,10 +12299,10 @@
         <v>2019</v>
       </c>
       <c r="C230" t="n">
-        <v>634.9</v>
+        <v>6.349</v>
       </c>
       <c r="D230" t="n">
-        <v>1723.7</v>
+        <v>1723700</v>
       </c>
       <c r="E230" t="n">
         <v>271</v>
@@ -12323,7 +12323,7 @@
         <v>995</v>
       </c>
       <c r="K230" t="n">
-        <v>722.2</v>
+        <v>7.222</v>
       </c>
       <c r="L230" t="n">
         <v>845498</v>
@@ -12351,10 +12351,10 @@
         <v>2020</v>
       </c>
       <c r="C231" t="n">
-        <v>635.2</v>
+        <v>6.352</v>
       </c>
       <c r="D231" t="n">
-        <v>1728.9</v>
+        <v>1728900</v>
       </c>
       <c r="E231" t="n">
         <v>272</v>
@@ -12375,7 +12375,7 @@
         <v>998</v>
       </c>
       <c r="K231" t="n">
-        <v>726.2</v>
+        <v>7.262</v>
       </c>
       <c r="L231" t="n">
         <v>841416</v>
@@ -12403,10 +12403,10 @@
         <v>2021</v>
       </c>
       <c r="C232" t="n">
-        <v>635.2</v>
+        <v>6.352</v>
       </c>
       <c r="D232" t="n">
-        <v>1752.3</v>
+        <v>1752300</v>
       </c>
       <c r="E232" t="n">
         <v>276</v>
@@ -12427,7 +12427,7 @@
         <v>1068</v>
       </c>
       <c r="K232" t="n">
-        <v>716</v>
+        <v>7.16</v>
       </c>
       <c r="L232" t="n">
         <v>853480</v>
@@ -12455,10 +12455,10 @@
         <v>2015</v>
       </c>
       <c r="C233" t="n">
-        <v>967.4</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="D233" t="n">
-        <v>495.9</v>
+        <v>495900</v>
       </c>
       <c r="E233" t="n">
         <v>51</v>
@@ -12479,7 +12479,7 @@
         <v>66</v>
       </c>
       <c r="K233" t="n">
-        <v>30.8</v>
+        <v>0.308</v>
       </c>
       <c r="L233" t="n">
         <v>3311</v>
@@ -12507,10 +12507,10 @@
         <v>2016</v>
       </c>
       <c r="C234" t="n">
-        <v>967.4</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="D234" t="n">
-        <v>507.8</v>
+        <v>507800</v>
       </c>
       <c r="E234" t="n">
         <v>52</v>
@@ -12531,7 +12531,7 @@
         <v>77</v>
       </c>
       <c r="K234" t="n">
-        <v>30.9</v>
+        <v>0.309</v>
       </c>
       <c r="L234" t="n">
         <v>3827</v>
@@ -12559,10 +12559,10 @@
         <v>2017</v>
       </c>
       <c r="C235" t="n">
-        <v>967.5</v>
+        <v>9.675000000000001</v>
       </c>
       <c r="D235" t="n">
-        <v>520</v>
+        <v>520000</v>
       </c>
       <c r="E235" t="n">
         <v>54</v>
@@ -12583,7 +12583,7 @@
         <v>77</v>
       </c>
       <c r="K235" t="n">
-        <v>30.6</v>
+        <v>0.306</v>
       </c>
       <c r="L235" t="n">
         <v>4245</v>
@@ -12611,10 +12611,10 @@
         <v>2018</v>
       </c>
       <c r="C236" t="n">
-        <v>967.4</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="D236" t="n">
-        <v>532.4</v>
+        <v>532400</v>
       </c>
       <c r="E236" t="n">
         <v>55</v>
@@ -12635,7 +12635,7 @@
         <v>78</v>
       </c>
       <c r="K236" t="n">
-        <v>29.9</v>
+        <v>0.299</v>
       </c>
       <c r="L236" t="n">
         <v>4763</v>
@@ -12663,10 +12663,10 @@
         <v>2019</v>
       </c>
       <c r="C237" t="n">
-        <v>967.7</v>
+        <v>9.677000000000001</v>
       </c>
       <c r="D237" t="n">
-        <v>543.4</v>
+        <v>543400</v>
       </c>
       <c r="E237" t="n">
         <v>56</v>
@@ -12687,7 +12687,7 @@
         <v>78</v>
       </c>
       <c r="K237" t="n">
-        <v>29.4</v>
+        <v>0.294</v>
       </c>
       <c r="L237" t="n">
         <v>5459</v>
@@ -12715,10 +12715,10 @@
         <v>2020</v>
       </c>
       <c r="C238" t="n">
-        <v>967.7</v>
+        <v>9.677000000000001</v>
       </c>
       <c r="D238" t="n">
-        <v>555.6</v>
+        <v>555600</v>
       </c>
       <c r="E238" t="n">
         <v>57</v>
@@ -12739,7 +12739,7 @@
         <v>53</v>
       </c>
       <c r="K238" t="n">
-        <v>28.6</v>
+        <v>0.286</v>
       </c>
       <c r="L238" t="n">
         <v>6018</v>
@@ -12767,10 +12767,10 @@
         <v>2021</v>
       </c>
       <c r="C239" t="n">
-        <v>967.7</v>
+        <v>9.677000000000001</v>
       </c>
       <c r="D239" t="n">
-        <v>568.8</v>
+        <v>568800</v>
       </c>
       <c r="E239" t="n">
         <v>59</v>
@@ -12791,7 +12791,7 @@
         <v>54</v>
       </c>
       <c r="K239" t="n">
-        <v>28.87</v>
+        <v>0.2887</v>
       </c>
       <c r="L239" t="n">
         <v>6301</v>
@@ -12819,10 +12819,10 @@
         <v>2015</v>
       </c>
       <c r="C240" t="n">
-        <v>907</v>
+        <v>9.07</v>
       </c>
       <c r="D240" t="n">
-        <v>427.9</v>
+        <v>427900</v>
       </c>
       <c r="E240" t="n">
         <v>47</v>
@@ -12843,7 +12843,7 @@
         <v>4</v>
       </c>
       <c r="K240" t="n">
-        <v>53.6</v>
+        <v>0.536</v>
       </c>
       <c r="L240" t="n">
         <v>1920</v>
@@ -12871,10 +12871,10 @@
         <v>2016</v>
       </c>
       <c r="C241" t="n">
-        <v>906.9</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="D241" t="n">
-        <v>436.3</v>
+        <v>436300</v>
       </c>
       <c r="E241" t="n">
         <v>48</v>
@@ -12895,7 +12895,7 @@
         <v>5</v>
       </c>
       <c r="K241" t="n">
-        <v>54.2</v>
+        <v>0.542</v>
       </c>
       <c r="L241" t="n">
         <v>2063</v>
@@ -12923,10 +12923,10 @@
         <v>2017</v>
       </c>
       <c r="C242" t="n">
-        <v>906.9</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="D242" t="n">
-        <v>444.5</v>
+        <v>444500</v>
       </c>
       <c r="E242" t="n">
         <v>49</v>
@@ -12947,7 +12947,7 @@
         <v>5</v>
       </c>
       <c r="K242" t="n">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="L242" t="n">
         <v>2175</v>
@@ -12975,10 +12975,10 @@
         <v>2018</v>
       </c>
       <c r="C243" t="n">
-        <v>906.9</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="D243" t="n">
-        <v>453.4</v>
+        <v>453400</v>
       </c>
       <c r="E243" t="n">
         <v>50</v>
@@ -12999,7 +12999,7 @@
         <v>8</v>
       </c>
       <c r="K243" t="n">
-        <v>53.3</v>
+        <v>0.533</v>
       </c>
       <c r="L243" t="n">
         <v>2277</v>
@@ -13027,10 +13027,10 @@
         <v>2019</v>
       </c>
       <c r="C244" t="n">
-        <v>906.9</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="D244" t="n">
-        <v>462.6</v>
+        <v>462600</v>
       </c>
       <c r="E244" t="n">
         <v>51</v>
@@ -13051,7 +13051,7 @@
         <v>8</v>
       </c>
       <c r="K244" t="n">
-        <v>54</v>
+        <v>0.54</v>
       </c>
       <c r="L244" t="n">
         <v>2417</v>
@@ -13079,10 +13079,10 @@
         <v>2020</v>
       </c>
       <c r="C245" t="n">
-        <v>906.9</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="D245" t="n">
-        <v>469.8</v>
+        <v>469800</v>
       </c>
       <c r="E245" t="n">
         <v>52</v>
@@ -13103,7 +13103,7 @@
         <v>14</v>
       </c>
       <c r="K245" t="n">
-        <v>54</v>
+        <v>0.54</v>
       </c>
       <c r="L245" t="n">
         <v>2668</v>
@@ -13131,10 +13131,10 @@
         <v>2021</v>
       </c>
       <c r="C246" t="n">
-        <v>906.9</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="D246" t="n">
-        <v>478.4</v>
+        <v>478400</v>
       </c>
       <c r="E246" t="n">
         <v>53</v>
@@ -13155,7 +13155,7 @@
         <v>11</v>
       </c>
       <c r="K246" t="n">
-        <v>53.1</v>
+        <v>0.531</v>
       </c>
       <c r="L246" t="n">
         <v>2820</v>
@@ -13183,10 +13183,10 @@
         <v>2015</v>
       </c>
       <c r="C247" t="n">
-        <v>978.3</v>
+        <v>9.782999999999999</v>
       </c>
       <c r="D247" t="n">
-        <v>1261.4</v>
+        <v>1261400</v>
       </c>
       <c r="E247" t="n">
         <v>129</v>
@@ -13207,7 +13207,7 @@
         <v>817</v>
       </c>
       <c r="K247" t="n">
-        <v>45.9</v>
+        <v>0.459</v>
       </c>
       <c r="L247" t="n">
         <v>9587</v>
@@ -13235,10 +13235,10 @@
         <v>2016</v>
       </c>
       <c r="C248" t="n">
-        <v>978.3</v>
+        <v>9.782999999999999</v>
       </c>
       <c r="D248" t="n">
-        <v>1271.3</v>
+        <v>1271300</v>
       </c>
       <c r="E248" t="n">
         <v>130</v>
@@ -13259,7 +13259,7 @@
         <v>932</v>
       </c>
       <c r="K248" t="n">
-        <v>42.8</v>
+        <v>0.428</v>
       </c>
       <c r="L248" t="n">
         <v>9407</v>
@@ -13287,10 +13287,10 @@
         <v>2017</v>
       </c>
       <c r="C249" t="n">
-        <v>978</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="D249" t="n">
-        <v>1281.3</v>
+        <v>1281300</v>
       </c>
       <c r="E249" t="n">
         <v>131</v>
@@ -13311,7 +13311,7 @@
         <v>954</v>
       </c>
       <c r="K249" t="n">
-        <v>42.4</v>
+        <v>0.424</v>
       </c>
       <c r="L249" t="n">
         <v>9940</v>
@@ -13339,10 +13339,10 @@
         <v>2018</v>
       </c>
       <c r="C250" t="n">
-        <v>978.3</v>
+        <v>9.782999999999999</v>
       </c>
       <c r="D250" t="n">
-        <v>1291.4</v>
+        <v>1291400</v>
       </c>
       <c r="E250" t="n">
         <v>132</v>
@@ -13363,7 +13363,7 @@
         <v>964</v>
       </c>
       <c r="K250" t="n">
-        <v>38.6</v>
+        <v>0.386</v>
       </c>
       <c r="L250" t="n">
         <v>10777</v>
@@ -13391,10 +13391,10 @@
         <v>2019</v>
       </c>
       <c r="C251" t="n">
-        <v>978.1</v>
+        <v>9.781000000000001</v>
       </c>
       <c r="D251" t="n">
-        <v>1299.3</v>
+        <v>1299300</v>
       </c>
       <c r="E251" t="n">
         <v>133</v>
@@ -13415,7 +13415,7 @@
         <v>925</v>
       </c>
       <c r="K251" t="n">
-        <v>36.9</v>
+        <v>0.369</v>
       </c>
       <c r="L251" t="n">
         <v>8590</v>
@@ -13443,10 +13443,10 @@
         <v>2020</v>
       </c>
       <c r="C252" t="n">
-        <v>978.1</v>
+        <v>9.781000000000001</v>
       </c>
       <c r="D252" t="n">
-        <v>1309.8</v>
+        <v>1309800</v>
       </c>
       <c r="E252" t="n">
         <v>134</v>
@@ -13467,7 +13467,7 @@
         <v>491</v>
       </c>
       <c r="K252" t="n">
-        <v>35.3</v>
+        <v>0.353</v>
       </c>
       <c r="L252" t="n">
         <v>8567</v>
@@ -13495,10 +13495,10 @@
         <v>2021</v>
       </c>
       <c r="C253" t="n">
-        <v>978.1</v>
+        <v>9.781000000000001</v>
       </c>
       <c r="D253" t="n">
-        <v>1321.8</v>
+        <v>1321800</v>
       </c>
       <c r="E253" t="n">
         <v>135</v>
@@ -13519,7 +13519,7 @@
         <v>512</v>
       </c>
       <c r="K253" t="n">
-        <v>34.5</v>
+        <v>0.345</v>
       </c>
       <c r="L253" t="n">
         <v>8946</v>
@@ -13547,10 +13547,10 @@
         <v>2015</v>
       </c>
       <c r="C254" t="n">
-        <v>831</v>
+        <v>8.31</v>
       </c>
       <c r="D254" t="n">
-        <v>757.8</v>
+        <v>757800</v>
       </c>
       <c r="E254" t="n">
         <v>91</v>
@@ -13571,7 +13571,7 @@
         <v>3</v>
       </c>
       <c r="K254" t="n">
-        <v>71.90000000000001</v>
+        <v>0.7190000000000001</v>
       </c>
       <c r="L254" t="n">
         <v>1479</v>
@@ -13599,10 +13599,10 @@
         <v>2016</v>
       </c>
       <c r="C255" t="n">
-        <v>831</v>
+        <v>8.31</v>
       </c>
       <c r="D255" t="n">
-        <v>763.4</v>
+        <v>763400</v>
       </c>
       <c r="E255" t="n">
         <v>92</v>
@@ -13623,7 +13623,7 @@
         <v>6</v>
       </c>
       <c r="K255" t="n">
-        <v>72.2</v>
+        <v>0.7220000000000001</v>
       </c>
       <c r="L255" t="n">
         <v>1539</v>
@@ -13651,10 +13651,10 @@
         <v>2017</v>
       </c>
       <c r="C256" t="n">
-        <v>831</v>
+        <v>8.31</v>
       </c>
       <c r="D256" t="n">
-        <v>768.7</v>
+        <v>768700</v>
       </c>
       <c r="E256" t="n">
         <v>93</v>
@@ -13675,7 +13675,7 @@
         <v>6</v>
       </c>
       <c r="K256" t="n">
-        <v>70.8</v>
+        <v>0.708</v>
       </c>
       <c r="L256" t="n">
         <v>1560</v>
@@ -13703,10 +13703,10 @@
         <v>2018</v>
       </c>
       <c r="C257" t="n">
-        <v>831</v>
+        <v>8.31</v>
       </c>
       <c r="D257" t="n">
-        <v>775.9</v>
+        <v>775900</v>
       </c>
       <c r="E257" t="n">
         <v>93</v>
@@ -13727,7 +13727,7 @@
         <v>6</v>
       </c>
       <c r="K257" t="n">
-        <v>69.8</v>
+        <v>0.698</v>
       </c>
       <c r="L257" t="n">
         <v>1599</v>
@@ -13755,10 +13755,10 @@
         <v>2019</v>
       </c>
       <c r="C258" t="n">
-        <v>831</v>
+        <v>8.31</v>
       </c>
       <c r="D258" t="n">
-        <v>782.8</v>
+        <v>782800</v>
       </c>
       <c r="E258" t="n">
         <v>94</v>
@@ -13779,7 +13779,7 @@
         <v>7</v>
       </c>
       <c r="K258" t="n">
-        <v>68</v>
+        <v>0.68</v>
       </c>
       <c r="L258" t="n">
         <v>1668</v>
@@ -13807,10 +13807,10 @@
         <v>2020</v>
       </c>
       <c r="C259" t="n">
-        <v>831</v>
+        <v>8.31</v>
       </c>
       <c r="D259" t="n">
-        <v>788.7</v>
+        <v>788700</v>
       </c>
       <c r="E259" t="n">
         <v>95</v>
@@ -13831,7 +13831,7 @@
         <v>9</v>
       </c>
       <c r="K259" t="n">
-        <v>67.5</v>
+        <v>0.675</v>
       </c>
       <c r="L259" t="n">
         <v>1733</v>
@@ -13859,10 +13859,10 @@
         <v>2021</v>
       </c>
       <c r="C260" t="n">
-        <v>831</v>
+        <v>8.31</v>
       </c>
       <c r="D260" t="n">
-        <v>796.9</v>
+        <v>796900</v>
       </c>
       <c r="E260" t="n">
         <v>96</v>
@@ -13883,7 +13883,7 @@
         <v>10</v>
       </c>
       <c r="K260" t="n">
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="L260" t="n">
         <v>1776</v>
@@ -13909,10 +13909,10 @@
         <v>2015</v>
       </c>
       <c r="C261" t="n">
-        <v>636.4</v>
+        <v>6.364</v>
       </c>
       <c r="D261" t="n">
-        <v>684.5</v>
+        <v>684500</v>
       </c>
       <c r="E261" t="n">
         <v>107.6</v>
@@ -13933,7 +13933,7 @@
         <v>76</v>
       </c>
       <c r="K261" t="n">
-        <v>67.59999999999999</v>
+        <v>0.6759999999999999</v>
       </c>
       <c r="L261" t="n">
         <v>5168</v>
@@ -13961,10 +13961,10 @@
         <v>2016</v>
       </c>
       <c r="C262" t="n">
-        <v>636.4</v>
+        <v>6.364</v>
       </c>
       <c r="D262" t="n">
-        <v>696.5</v>
+        <v>696500</v>
       </c>
       <c r="E262" t="n">
         <v>109.4</v>
@@ -13985,7 +13985,7 @@
         <v>243</v>
       </c>
       <c r="K262" t="n">
-        <v>69.2</v>
+        <v>0.6920000000000001</v>
       </c>
       <c r="L262" t="n">
         <v>6013</v>
@@ -14013,10 +14013,10 @@
         <v>2017</v>
       </c>
       <c r="C263" t="n">
-        <v>636.6</v>
+        <v>6.366000000000001</v>
       </c>
       <c r="D263" t="n">
-        <v>708.6</v>
+        <v>708600</v>
       </c>
       <c r="E263" t="n">
         <v>111.3</v>
@@ -14037,7 +14037,7 @@
         <v>264</v>
       </c>
       <c r="K263" t="n">
-        <v>70.40000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L263" t="n">
         <v>6377</v>
@@ -14065,10 +14065,10 @@
         <v>2018</v>
       </c>
       <c r="C264" t="n">
-        <v>636.4</v>
+        <v>6.364</v>
       </c>
       <c r="D264" t="n">
-        <v>720.8</v>
+        <v>720800</v>
       </c>
       <c r="E264" t="n">
         <v>113.3</v>
@@ -14089,7 +14089,7 @@
         <v>295</v>
       </c>
       <c r="K264" t="n">
-        <v>71.40000000000001</v>
+        <v>0.7140000000000001</v>
       </c>
       <c r="L264" t="n">
         <v>6797</v>
@@ -14117,10 +14117,10 @@
         <v>2019</v>
       </c>
       <c r="C265" t="n">
-        <v>636.4</v>
+        <v>6.364</v>
       </c>
       <c r="D265" t="n">
-        <v>733.3</v>
+        <v>733300</v>
       </c>
       <c r="E265" t="n">
         <v>115.2</v>
@@ -14141,7 +14141,7 @@
         <v>294</v>
       </c>
       <c r="K265" t="n">
-        <v>71.40000000000001</v>
+        <v>0.7140000000000001</v>
       </c>
       <c r="L265" t="n">
         <v>9474</v>
@@ -14169,10 +14169,10 @@
         <v>2020</v>
       </c>
       <c r="C266" t="n">
-        <v>636.4</v>
+        <v>6.364</v>
       </c>
       <c r="D266" t="n">
-        <v>746.4</v>
+        <v>746400</v>
       </c>
       <c r="E266" t="n">
         <v>117.3</v>
@@ -14193,7 +14193,7 @@
         <v>119</v>
       </c>
       <c r="K266" t="n">
-        <v>72.3</v>
+        <v>0.723</v>
       </c>
       <c r="L266" t="n">
         <v>10164</v>
@@ -14222,7 +14222,7 @@
       </c>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="n">
-        <v>761.9</v>
+        <v>761900</v>
       </c>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="n">
@@ -14241,7 +14241,7 @@
         <v>144</v>
       </c>
       <c r="K267" t="n">
-        <v>70.40000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L267" t="n">
         <v>9587</v>
@@ -14267,10 +14267,10 @@
         <v>2015</v>
       </c>
       <c r="C268" t="n">
-        <v>449.5</v>
+        <v>4.495</v>
       </c>
       <c r="D268" t="n">
-        <v>1626.2</v>
+        <v>1626200</v>
       </c>
       <c r="E268" t="n">
         <v>362</v>
@@ -14291,7 +14291,7 @@
         <v>965</v>
       </c>
       <c r="K268" t="n">
-        <v>527</v>
+        <v>5.27</v>
       </c>
       <c r="L268" t="n">
         <v>54615</v>
@@ -14319,10 +14319,10 @@
         <v>2016</v>
       </c>
       <c r="C269" t="n">
-        <v>449.5</v>
+        <v>4.495</v>
       </c>
       <c r="D269" t="n">
-        <v>1645.2</v>
+        <v>1645200</v>
       </c>
       <c r="E269" t="n">
         <v>366</v>
@@ -14343,7 +14343,7 @@
         <v>1090</v>
       </c>
       <c r="K269" t="n">
-        <v>529.8</v>
+        <v>5.298</v>
       </c>
       <c r="L269" t="n">
         <v>58624</v>
@@ -14371,10 +14371,10 @@
         <v>2017</v>
       </c>
       <c r="C270" t="n">
-        <v>449.5</v>
+        <v>4.495</v>
       </c>
       <c r="D270" t="n">
-        <v>1662.3</v>
+        <v>1662300</v>
       </c>
       <c r="E270" t="n">
         <v>370</v>
@@ -14395,7 +14395,7 @@
         <v>1125</v>
       </c>
       <c r="K270" t="n">
-        <v>528.1</v>
+        <v>5.281000000000001</v>
       </c>
       <c r="L270" t="n">
         <v>59783</v>
@@ -14423,10 +14423,10 @@
         <v>2018</v>
       </c>
       <c r="C271" t="n">
-        <v>449.5</v>
+        <v>4.495</v>
       </c>
       <c r="D271" t="n">
-        <v>1678.9</v>
+        <v>1678900</v>
       </c>
       <c r="E271" t="n">
         <v>374</v>
@@ -14447,7 +14447,7 @@
         <v>1077</v>
       </c>
       <c r="K271" t="n">
-        <v>512.6</v>
+        <v>5.126</v>
       </c>
       <c r="L271" t="n">
         <v>61434</v>
@@ -14475,10 +14475,10 @@
         <v>2019</v>
       </c>
       <c r="C272" t="n">
-        <v>449.5</v>
+        <v>4.495</v>
       </c>
       <c r="D272" t="n">
-        <v>1695.1</v>
+        <v>1695100</v>
       </c>
       <c r="E272" t="n">
         <v>377</v>
@@ -14499,7 +14499,7 @@
         <v>1099</v>
       </c>
       <c r="K272" t="n">
-        <v>506.9</v>
+        <v>5.069</v>
       </c>
       <c r="L272" t="n">
         <v>68986</v>
@@ -14527,10 +14527,10 @@
         <v>2020</v>
       </c>
       <c r="C273" t="n">
-        <v>449.5</v>
+        <v>4.495</v>
       </c>
       <c r="D273" t="n">
-        <v>1713.7</v>
+        <v>1713700</v>
       </c>
       <c r="E273" t="n">
         <v>381</v>
@@ -14551,7 +14551,7 @@
         <v>631</v>
       </c>
       <c r="K273" t="n">
-        <v>503</v>
+        <v>5.03</v>
       </c>
       <c r="L273" t="n">
         <v>72123</v>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="C274" t="inlineStr"/>
       <c r="D274" t="n">
-        <v>1725.8</v>
+        <v>1725800</v>
       </c>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="n">
@@ -14599,7 +14599,7 @@
         <v>581</v>
       </c>
       <c r="K274" t="n">
-        <v>511.7</v>
+        <v>5.117</v>
       </c>
       <c r="L274" t="n">
         <v>70841</v>
@@ -14625,10 +14625,10 @@
         <v>2015</v>
       </c>
       <c r="C275" t="n">
-        <v>166.9</v>
+        <v>1.669</v>
       </c>
       <c r="D275" t="n">
-        <v>1796.9</v>
+        <v>1796900</v>
       </c>
       <c r="E275" t="n">
         <v>1077</v>
@@ -14649,7 +14649,7 @@
         <v>424</v>
       </c>
       <c r="K275" t="n">
-        <v>158.9</v>
+        <v>1.589</v>
       </c>
       <c r="L275" t="n">
         <v>121552</v>
@@ -14677,10 +14677,10 @@
         <v>2016</v>
       </c>
       <c r="C276" t="n">
-        <v>166.9</v>
+        <v>1.669</v>
       </c>
       <c r="D276" t="n">
-        <v>1792.5</v>
+        <v>1792500</v>
       </c>
       <c r="E276" t="n">
         <v>1074</v>
@@ -14701,7 +14701,7 @@
         <v>426</v>
       </c>
       <c r="K276" t="n">
-        <v>157.5</v>
+        <v>1.575</v>
       </c>
       <c r="L276" t="n">
         <v>129218</v>
@@ -14729,10 +14729,10 @@
         <v>2017</v>
       </c>
       <c r="C277" t="n">
-        <v>166.9</v>
+        <v>1.669</v>
       </c>
       <c r="D277" t="n">
-        <v>1788.2</v>
+        <v>1788200</v>
       </c>
       <c r="E277" t="n">
         <v>1071</v>
@@ -14753,7 +14753,7 @@
         <v>432</v>
       </c>
       <c r="K277" t="n">
-        <v>155.8</v>
+        <v>1.558</v>
       </c>
       <c r="L277" t="n">
         <v>138370</v>
@@ -14781,10 +14781,10 @@
         <v>2018</v>
       </c>
       <c r="C278" t="n">
-        <v>166.9</v>
+        <v>1.669</v>
       </c>
       <c r="D278" t="n">
-        <v>1784.2</v>
+        <v>1784200</v>
       </c>
       <c r="E278" t="n">
         <v>1069</v>
@@ -14805,7 +14805,7 @@
         <v>404</v>
       </c>
       <c r="K278" t="n">
-        <v>153.3</v>
+        <v>1.533</v>
       </c>
       <c r="L278" t="n">
         <v>149639</v>
@@ -14833,10 +14833,10 @@
         <v>2019</v>
       </c>
       <c r="C279" t="n">
-        <v>166.9</v>
+        <v>1.669</v>
       </c>
       <c r="D279" t="n">
-        <v>1780.9</v>
+        <v>1780900</v>
       </c>
       <c r="E279" t="n">
         <v>1067</v>
@@ -14857,7 +14857,7 @@
         <v>387</v>
       </c>
       <c r="K279" t="n">
-        <v>150.6</v>
+        <v>1.506</v>
       </c>
       <c r="L279" t="n">
         <v>160352</v>
@@ -14885,10 +14885,10 @@
         <v>2020</v>
       </c>
       <c r="C280" t="n">
-        <v>166.9</v>
+        <v>1.669</v>
       </c>
       <c r="D280" t="n">
-        <v>1780.3</v>
+        <v>1780300</v>
       </c>
       <c r="E280" t="n">
         <v>1067</v>
@@ -14909,7 +14909,7 @@
         <v>293</v>
       </c>
       <c r="K280" t="n">
-        <v>148.7</v>
+        <v>1.487</v>
       </c>
       <c r="L280" t="n">
         <v>170574</v>
@@ -14938,7 +14938,7 @@
       </c>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="n">
-        <v>1836.3</v>
+        <v>1836300</v>
       </c>
       <c r="E281" t="n">
         <v>1100</v>
@@ -14959,7 +14959,7 @@
         <v>296</v>
       </c>
       <c r="K281" t="n">
-        <v>147.8</v>
+        <v>1.478</v>
       </c>
       <c r="L281" t="n">
         <v>178037</v>
@@ -14985,10 +14985,10 @@
         <v>2015</v>
       </c>
       <c r="C282" t="n">
-        <v>1648.1</v>
+        <v>16.481</v>
       </c>
       <c r="D282" t="n">
-        <v>3160.6</v>
+        <v>3160600</v>
       </c>
       <c r="E282" t="n">
         <v>192</v>
@@ -15009,7 +15009,7 @@
         <v>327</v>
       </c>
       <c r="K282" t="n">
-        <v>245.5</v>
+        <v>2.455</v>
       </c>
       <c r="L282" t="n">
         <v>155040</v>
@@ -15037,10 +15037,10 @@
         <v>2016</v>
       </c>
       <c r="C283" t="n">
-        <v>1648.2</v>
+        <v>16.482</v>
       </c>
       <c r="D283" t="n">
-        <v>3203.1</v>
+        <v>3203100</v>
       </c>
       <c r="E283" t="n">
         <v>194</v>
@@ -15061,7 +15061,7 @@
         <v>464</v>
       </c>
       <c r="K283" t="n">
-        <v>244.8</v>
+        <v>2.448</v>
       </c>
       <c r="L283" t="n">
         <v>163190</v>
@@ -15089,10 +15089,10 @@
         <v>2017</v>
       </c>
       <c r="C284" t="n">
-        <v>1648.2</v>
+        <v>16.482</v>
       </c>
       <c r="D284" t="n">
-        <v>3246.7</v>
+        <v>3246700</v>
       </c>
       <c r="E284" t="n">
         <v>197</v>
@@ -15113,7 +15113,7 @@
         <v>496</v>
       </c>
       <c r="K284" t="n">
-        <v>244.6</v>
+        <v>2.446</v>
       </c>
       <c r="L284" t="n">
         <v>182727</v>
@@ -15141,10 +15141,10 @@
         <v>2018</v>
       </c>
       <c r="C285" t="n">
-        <v>1648.1</v>
+        <v>16.481</v>
       </c>
       <c r="D285" t="n">
-        <v>3291.4</v>
+        <v>3291400</v>
       </c>
       <c r="E285" t="n">
         <v>200</v>
@@ -15165,7 +15165,7 @@
         <v>503</v>
       </c>
       <c r="K285" t="n">
-        <v>234.8</v>
+        <v>2.348</v>
       </c>
       <c r="L285" t="n">
         <v>202332</v>
@@ -15193,10 +15193,10 @@
         <v>2019</v>
       </c>
       <c r="C286" t="n">
-        <v>1648.6</v>
+        <v>16.486</v>
       </c>
       <c r="D286" t="n">
-        <v>3337.2</v>
+        <v>3337200</v>
       </c>
       <c r="E286" t="n">
         <v>202</v>
@@ -15217,7 +15217,7 @@
         <v>526</v>
       </c>
       <c r="K286" t="n">
-        <v>229.4</v>
+        <v>2.294</v>
       </c>
       <c r="L286" t="n">
         <v>223995</v>
@@ -15245,10 +15245,10 @@
         <v>2020</v>
       </c>
       <c r="C287" t="n">
-        <v>1648.7</v>
+        <v>16.487</v>
       </c>
       <c r="D287" t="n">
-        <v>3365.2</v>
+        <v>3365200</v>
       </c>
       <c r="E287" t="n">
         <v>204</v>
@@ -15269,7 +15269,7 @@
         <v>397</v>
       </c>
       <c r="K287" t="n">
-        <v>225.7</v>
+        <v>2.257</v>
       </c>
       <c r="L287" t="n">
         <v>243224</v>
@@ -15298,7 +15298,7 @@
       </c>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="n">
-        <v>3409.8</v>
+        <v>3409800</v>
       </c>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="n">
@@ -15317,7 +15317,7 @@
         <v>400</v>
       </c>
       <c r="K288" t="n">
-        <v>225.1</v>
+        <v>2.251</v>
       </c>
       <c r="L288" t="n">
         <v>256323</v>
@@ -15343,10 +15343,10 @@
         <v>2015</v>
       </c>
       <c r="C289" t="n">
-        <v>138.7</v>
+        <v>1.387</v>
       </c>
       <c r="D289" t="n">
-        <v>948.5</v>
+        <v>948500</v>
       </c>
       <c r="E289" t="n">
         <v>686</v>
@@ -15367,7 +15367,7 @@
         <v>110</v>
       </c>
       <c r="K289" t="n">
-        <v>86.09999999999999</v>
+        <v>0.861</v>
       </c>
       <c r="L289" t="n">
         <v>41706</v>
@@ -15395,10 +15395,10 @@
         <v>2016</v>
       </c>
       <c r="C290" t="n">
-        <v>138.7</v>
+        <v>1.387</v>
       </c>
       <c r="D290" t="n">
-        <v>956.8</v>
+        <v>956800</v>
       </c>
       <c r="E290" t="n">
         <v>687</v>
@@ -15419,7 +15419,7 @@
         <v>152</v>
       </c>
       <c r="K290" t="n">
-        <v>85.3</v>
+        <v>0.853</v>
       </c>
       <c r="L290" t="n">
         <v>44194</v>
@@ -15447,10 +15447,10 @@
         <v>2017</v>
       </c>
       <c r="C291" t="n">
-        <v>138.5</v>
+        <v>1.385</v>
       </c>
       <c r="D291" t="n">
-        <v>965.4</v>
+        <v>965400</v>
       </c>
       <c r="E291" t="n">
         <v>694</v>
@@ -15471,7 +15471,7 @@
         <v>159</v>
       </c>
       <c r="K291" t="n">
-        <v>83.8</v>
+        <v>0.838</v>
       </c>
       <c r="L291" t="n">
         <v>47557</v>
@@ -15499,10 +15499,10 @@
         <v>2018</v>
       </c>
       <c r="C292" t="n">
-        <v>138.7</v>
+        <v>1.387</v>
       </c>
       <c r="D292" t="n">
-        <v>974.7</v>
+        <v>974700</v>
       </c>
       <c r="E292" t="n">
         <v>702</v>
@@ -15523,7 +15523,7 @@
         <v>162</v>
       </c>
       <c r="K292" t="n">
-        <v>80.7</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="L292" t="n">
         <v>51076</v>
@@ -15551,10 +15551,10 @@
         <v>2019</v>
       </c>
       <c r="C293" t="n">
-        <v>138.7</v>
+        <v>1.387</v>
       </c>
       <c r="D293" t="n">
-        <v>984.5</v>
+        <v>984500</v>
       </c>
       <c r="E293" t="n">
         <v>710</v>
@@ -15575,7 +15575,7 @@
         <v>162</v>
       </c>
       <c r="K293" t="n">
-        <v>79.09999999999999</v>
+        <v>0.7909999999999999</v>
       </c>
       <c r="L293" t="n">
         <v>55075</v>
@@ -15603,10 +15603,10 @@
         <v>2020</v>
       </c>
       <c r="C294" t="n">
-        <v>141.2</v>
+        <v>1.412</v>
       </c>
       <c r="D294" t="n">
-        <v>993.9</v>
+        <v>993900</v>
       </c>
       <c r="E294" t="n">
         <v>717</v>
@@ -15627,7 +15627,7 @@
         <v>115</v>
       </c>
       <c r="K294" t="n">
-        <v>77.09999999999999</v>
+        <v>0.7709999999999999</v>
       </c>
       <c r="L294" t="n">
         <v>58905</v>
@@ -15655,10 +15655,10 @@
         <v>2021</v>
       </c>
       <c r="C295" t="n">
-        <v>141.2</v>
+        <v>1.412</v>
       </c>
       <c r="D295" t="n">
-        <v>1007.6</v>
+        <v>1007600</v>
       </c>
       <c r="E295" t="n">
         <v>714</v>
@@ -15679,7 +15679,7 @@
         <v>125</v>
       </c>
       <c r="K295" t="n">
-        <v>76.59999999999999</v>
+        <v>0.766</v>
       </c>
       <c r="L295" t="n">
         <v>62501</v>
@@ -15705,10 +15705,10 @@
         <v>2015</v>
       </c>
       <c r="C296" t="n">
-        <v>335.5</v>
+        <v>3.355</v>
       </c>
       <c r="D296" t="n">
-        <v>578.3</v>
+        <v>578300</v>
       </c>
       <c r="E296" t="n">
         <v>177</v>
@@ -15729,7 +15729,7 @@
         <v>67</v>
       </c>
       <c r="K296" t="n">
-        <v>49.1</v>
+        <v>0.491</v>
       </c>
       <c r="L296" t="n">
         <v>85685</v>
@@ -15757,10 +15757,10 @@
         <v>2016</v>
       </c>
       <c r="C297" t="n">
-        <v>335.5</v>
+        <v>3.355</v>
       </c>
       <c r="D297" t="n">
-        <v>581.5</v>
+        <v>581500</v>
       </c>
       <c r="E297" t="n">
         <v>179</v>
@@ -15781,7 +15781,7 @@
         <v>57</v>
       </c>
       <c r="K297" t="n">
-        <v>53.1</v>
+        <v>0.531</v>
       </c>
       <c r="L297" t="n">
         <v>91766</v>
@@ -15809,10 +15809,10 @@
         <v>2017</v>
       </c>
       <c r="C298" t="n">
-        <v>335.4</v>
+        <v>3.354</v>
       </c>
       <c r="D298" t="n">
-        <v>585.4</v>
+        <v>585400</v>
       </c>
       <c r="E298" t="n">
         <v>181</v>
@@ -15833,7 +15833,7 @@
         <v>64</v>
       </c>
       <c r="K298" t="n">
-        <v>61.5</v>
+        <v>0.615</v>
       </c>
       <c r="L298" t="n">
         <v>108453</v>
@@ -15861,10 +15861,10 @@
         <v>2018</v>
       </c>
       <c r="C299" t="n">
-        <v>335.5</v>
+        <v>3.355</v>
       </c>
       <c r="D299" t="n">
-        <v>588.9</v>
+        <v>588900</v>
       </c>
       <c r="E299" t="n">
         <v>182</v>
@@ -15885,7 +15885,7 @@
         <v>62</v>
       </c>
       <c r="K299" t="n">
-        <v>54.9</v>
+        <v>0.549</v>
       </c>
       <c r="L299" t="n">
         <v>118000</v>
@@ -15913,10 +15913,10 @@
         <v>2019</v>
       </c>
       <c r="C300" t="n">
-        <v>335.5</v>
+        <v>3.355</v>
       </c>
       <c r="D300" t="n">
-        <v>591</v>
+        <v>591000</v>
       </c>
       <c r="E300" t="n">
         <v>176</v>
@@ -15937,7 +15937,7 @@
         <v>60</v>
       </c>
       <c r="K300" t="n">
-        <v>55.6</v>
+        <v>0.556</v>
       </c>
       <c r="L300" t="n">
         <v>124396</v>
@@ -15965,10 +15965,10 @@
         <v>2020</v>
       </c>
       <c r="C301" t="n">
-        <v>335.5</v>
+        <v>3.355</v>
       </c>
       <c r="D301" t="n">
-        <v>593.6</v>
+        <v>593600</v>
       </c>
       <c r="E301" t="n">
         <v>177</v>
@@ -15989,7 +15989,7 @@
         <v>82</v>
       </c>
       <c r="K301" t="n">
-        <v>43.1</v>
+        <v>0.431</v>
       </c>
       <c r="L301" t="n">
         <v>128575</v>
@@ -16017,10 +16017,10 @@
         <v>2021</v>
       </c>
       <c r="C302" t="n">
-        <v>335.5</v>
+        <v>3.355</v>
       </c>
       <c r="D302" t="n">
-        <v>596</v>
+        <v>596000</v>
       </c>
       <c r="E302" t="n">
         <v>178</v>
@@ -16041,7 +16041,7 @@
         <v>95</v>
       </c>
       <c r="K302" t="n">
-        <v>55.9</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="L302" t="n">
         <v>132763</v>
@@ -16067,10 +16067,10 @@
         <v>2015</v>
       </c>
       <c r="C303" t="n">
-        <v>353.4</v>
+        <v>3.534</v>
       </c>
       <c r="D303" t="n">
-        <v>1392.3</v>
+        <v>1392300</v>
       </c>
       <c r="E303" t="n">
         <v>394</v>
@@ -16091,7 +16091,7 @@
         <v>167</v>
       </c>
       <c r="K303" t="n">
-        <v>88.59999999999999</v>
+        <v>0.886</v>
       </c>
       <c r="L303" t="n">
         <v>29722</v>
@@ -16119,10 +16119,10 @@
         <v>2016</v>
       </c>
       <c r="C304" t="n">
-        <v>353.5</v>
+        <v>3.535</v>
       </c>
       <c r="D304" t="n">
-        <v>1409</v>
+        <v>1409000</v>
       </c>
       <c r="E304" t="n">
         <v>399</v>
@@ -16143,7 +16143,7 @@
         <v>280</v>
       </c>
       <c r="K304" t="n">
-        <v>86.40000000000001</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="L304" t="n">
         <v>32292</v>
@@ -16171,10 +16171,10 @@
         <v>2017</v>
       </c>
       <c r="C305" t="n">
-        <v>353.5</v>
+        <v>3.535</v>
       </c>
       <c r="D305" t="n">
-        <v>1430.5</v>
+        <v>1430500</v>
       </c>
       <c r="E305" t="n">
         <v>405</v>
@@ -16195,7 +16195,7 @@
         <v>278</v>
       </c>
       <c r="K305" t="n">
-        <v>85.3</v>
+        <v>0.853</v>
       </c>
       <c r="L305" t="n">
         <v>34365</v>
@@ -16223,10 +16223,10 @@
         <v>2018</v>
       </c>
       <c r="C306" t="n">
-        <v>353.5</v>
+        <v>3.535</v>
       </c>
       <c r="D306" t="n">
-        <v>1449.6</v>
+        <v>1449600</v>
       </c>
       <c r="E306" t="n">
         <v>410</v>
@@ -16247,7 +16247,7 @@
         <v>304</v>
       </c>
       <c r="K306" t="n">
-        <v>81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L306" t="n">
         <v>35676</v>
@@ -16275,10 +16275,10 @@
         <v>2019</v>
       </c>
       <c r="C307" t="n">
-        <v>353.5</v>
+        <v>3.535</v>
       </c>
       <c r="D307" t="n">
-        <v>1466.4</v>
+        <v>1466400</v>
       </c>
       <c r="E307" t="n">
         <v>415</v>
@@ -16299,7 +16299,7 @@
         <v>335</v>
       </c>
       <c r="K307" t="n">
-        <v>78.8</v>
+        <v>0.788</v>
       </c>
       <c r="L307" t="n">
         <v>37916</v>
@@ -16327,10 +16327,10 @@
         <v>2020</v>
       </c>
       <c r="C308" t="n">
-        <v>353.5</v>
+        <v>3.535</v>
       </c>
       <c r="D308" t="n">
-        <v>1481.9</v>
+        <v>1481900</v>
       </c>
       <c r="E308" t="n">
         <v>419</v>
@@ -16351,7 +16351,7 @@
         <v>261</v>
       </c>
       <c r="K308" t="n">
-        <v>78.2</v>
+        <v>0.782</v>
       </c>
       <c r="L308" t="n">
         <v>40138</v>
@@ -16379,10 +16379,10 @@
         <v>2021</v>
       </c>
       <c r="C309" t="n">
-        <v>353.5</v>
+        <v>3.535</v>
       </c>
       <c r="D309" t="n">
-        <v>1507.5</v>
+        <v>1507500</v>
       </c>
       <c r="E309" t="n">
         <v>427</v>
@@ -16403,7 +16403,7 @@
         <v>290</v>
       </c>
       <c r="K309" t="n">
-        <v>77.09999999999999</v>
+        <v>0.7709999999999999</v>
       </c>
       <c r="L309" t="n">
         <v>42106</v>
@@ -16429,10 +16429,10 @@
         <v>2015</v>
       </c>
       <c r="C310" t="n">
-        <v>502.3</v>
+        <v>5.023000000000001</v>
       </c>
       <c r="D310" t="n">
-        <v>866.2</v>
+        <v>866200</v>
       </c>
       <c r="E310" t="n">
         <v>177</v>
@@ -16453,7 +16453,7 @@
         <v>123</v>
       </c>
       <c r="K310" t="n">
-        <v>63.1</v>
+        <v>0.631</v>
       </c>
       <c r="L310" t="n">
         <v>63392</v>
@@ -16481,10 +16481,10 @@
         <v>2016</v>
       </c>
       <c r="C311" t="n">
-        <v>502.3</v>
+        <v>5.023000000000001</v>
       </c>
       <c r="D311" t="n">
-        <v>868.1</v>
+        <v>868100</v>
       </c>
       <c r="E311" t="n">
         <v>179</v>
@@ -16505,7 +16505,7 @@
         <v>182</v>
       </c>
       <c r="K311" t="n">
-        <v>63.3</v>
+        <v>0.633</v>
       </c>
       <c r="L311" t="n">
         <v>67042</v>
@@ -16533,10 +16533,10 @@
         <v>2017</v>
       </c>
       <c r="C312" t="n">
-        <v>502.2</v>
+        <v>5.022</v>
       </c>
       <c r="D312" t="n">
-        <v>870</v>
+        <v>870000</v>
       </c>
       <c r="E312" t="n">
         <v>180</v>
@@ -16557,7 +16557,7 @@
         <v>184</v>
       </c>
       <c r="K312" t="n">
-        <v>62.4</v>
+        <v>0.624</v>
       </c>
       <c r="L312" t="n">
         <v>70415</v>
@@ -16585,10 +16585,10 @@
         <v>2018</v>
       </c>
       <c r="C313" t="n">
-        <v>502.3</v>
+        <v>5.023000000000001</v>
       </c>
       <c r="D313" t="n">
-        <v>871.5</v>
+        <v>871500</v>
       </c>
       <c r="E313" t="n">
         <v>181</v>
@@ -16609,7 +16609,7 @@
         <v>176</v>
       </c>
       <c r="K313" t="n">
-        <v>62.6</v>
+        <v>0.626</v>
       </c>
       <c r="L313" t="n">
         <v>72382</v>
@@ -16637,10 +16637,10 @@
         <v>2019</v>
       </c>
       <c r="C314" t="n">
-        <v>502.6</v>
+        <v>5.026000000000001</v>
       </c>
       <c r="D314" t="n">
-        <v>873.2</v>
+        <v>873200</v>
       </c>
       <c r="E314" t="n">
         <v>174</v>
@@ -16661,7 +16661,7 @@
         <v>178</v>
       </c>
       <c r="K314" t="n">
-        <v>60.7</v>
+        <v>0.6070000000000001</v>
       </c>
       <c r="L314" t="n">
         <v>74891</v>
@@ -16689,10 +16689,10 @@
         <v>2020</v>
       </c>
       <c r="C315" t="n">
-        <v>502.6</v>
+        <v>5.026000000000001</v>
       </c>
       <c r="D315" t="n">
-        <v>874.3</v>
+        <v>874300</v>
       </c>
       <c r="E315" t="n">
         <v>174</v>
@@ -16713,7 +16713,7 @@
         <v>72</v>
       </c>
       <c r="K315" t="n">
-        <v>59.4</v>
+        <v>0.594</v>
       </c>
       <c r="L315" t="n">
         <v>75704</v>
@@ -16741,10 +16741,10 @@
         <v>2021</v>
       </c>
       <c r="C316" t="n">
-        <v>502.6</v>
+        <v>5.026000000000001</v>
       </c>
       <c r="D316" t="n">
-        <v>875.5</v>
+        <v>875500</v>
       </c>
       <c r="E316" t="n">
         <v>174</v>
@@ -16765,7 +16765,7 @@
         <v>70</v>
       </c>
       <c r="K316" t="n">
-        <v>59.3</v>
+        <v>0.593</v>
       </c>
       <c r="L316" t="n">
         <v>77266</v>
@@ -16791,10 +16791,10 @@
         <v>2015</v>
       </c>
       <c r="C317" t="n">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="D317" t="n">
-        <v>875.6</v>
+        <v>875600</v>
       </c>
       <c r="E317" t="n">
         <v>109</v>
@@ -16815,7 +16815,7 @@
         <v>651</v>
       </c>
       <c r="K317" t="n">
-        <v>58.9</v>
+        <v>0.589</v>
       </c>
       <c r="L317" t="n">
         <v>68950</v>
@@ -16843,10 +16843,10 @@
         <v>2016</v>
       </c>
       <c r="C318" t="n">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="D318" t="n">
-        <v>880.6</v>
+        <v>880600</v>
       </c>
       <c r="E318" t="n">
         <v>110</v>
@@ -16867,7 +16867,7 @@
         <v>706</v>
       </c>
       <c r="K318" t="n">
-        <v>59.9</v>
+        <v>0.599</v>
       </c>
       <c r="L318" t="n">
         <v>61804</v>
@@ -16895,10 +16895,10 @@
         <v>2017</v>
       </c>
       <c r="C319" t="n">
-        <v>799.9</v>
+        <v>7.999</v>
       </c>
       <c r="D319" t="n">
-        <v>885.7</v>
+        <v>885700</v>
       </c>
       <c r="E319" t="n">
         <v>111</v>
@@ -16919,7 +16919,7 @@
         <v>725</v>
       </c>
       <c r="K319" t="n">
-        <v>60.4</v>
+        <v>0.604</v>
       </c>
       <c r="L319" t="n">
         <v>71168</v>
@@ -16947,10 +16947,10 @@
         <v>2018</v>
       </c>
       <c r="C320" t="n">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="D320" t="n">
-        <v>891.1</v>
+        <v>891100</v>
       </c>
       <c r="E320" t="n">
         <v>111</v>
@@ -16971,7 +16971,7 @@
         <v>698</v>
       </c>
       <c r="K320" t="n">
-        <v>59.1</v>
+        <v>0.5910000000000001</v>
       </c>
       <c r="L320" t="n">
         <v>76711</v>
@@ -16999,10 +16999,10 @@
         <v>2019</v>
       </c>
       <c r="C321" t="n">
-        <v>799.9</v>
+        <v>7.999</v>
       </c>
       <c r="D321" t="n">
-        <v>896.6</v>
+        <v>896600</v>
       </c>
       <c r="E321" t="n">
         <v>112</v>
@@ -17023,7 +17023,7 @@
         <v>600</v>
       </c>
       <c r="K321" t="n">
-        <v>56.8</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="L321" t="n">
         <v>82631</v>
@@ -17051,10 +17051,10 @@
         <v>2020</v>
       </c>
       <c r="C322" t="n">
-        <v>799.9</v>
+        <v>7.999</v>
       </c>
       <c r="D322" t="n">
-        <v>902</v>
+        <v>902000</v>
       </c>
       <c r="E322" t="n">
         <v>113</v>
@@ -17075,7 +17075,7 @@
         <v>293</v>
       </c>
       <c r="K322" t="n">
-        <v>57.6</v>
+        <v>0.5760000000000001</v>
       </c>
       <c r="L322" t="n">
         <v>86247</v>
@@ -17103,10 +17103,10 @@
         <v>2021</v>
       </c>
       <c r="C323" t="n">
-        <v>799.9</v>
+        <v>7.999</v>
       </c>
       <c r="D323" t="n">
-        <v>910.7</v>
+        <v>910700</v>
       </c>
       <c r="E323" t="n">
         <v>114</v>
@@ -17127,7 +17127,7 @@
         <v>319</v>
       </c>
       <c r="K323" t="n">
-        <v>58.5</v>
+        <v>0.585</v>
       </c>
       <c r="L323" t="n">
         <v>84330</v>
@@ -17153,10 +17153,10 @@
         <v>2015</v>
       </c>
       <c r="C324" t="n">
-        <v>1043.8</v>
+        <v>10.438</v>
       </c>
       <c r="D324" t="n">
-        <v>1468.2</v>
+        <v>1468200</v>
       </c>
       <c r="E324" t="n">
         <v>141</v>
@@ -17177,7 +17177,7 @@
         <v>117</v>
       </c>
       <c r="K324" t="n">
-        <v>101.5</v>
+        <v>1.015</v>
       </c>
       <c r="L324" t="n">
         <v>97665</v>
@@ -17205,10 +17205,10 @@
         <v>2016</v>
       </c>
       <c r="C325" t="n">
-        <v>1057.5</v>
+        <v>10.575</v>
       </c>
       <c r="D325" t="n">
-        <v>1475.8</v>
+        <v>1475800</v>
       </c>
       <c r="E325" t="n">
         <v>140</v>
@@ -17229,7 +17229,7 @@
         <v>139</v>
       </c>
       <c r="K325" t="n">
-        <v>99.3</v>
+        <v>0.993</v>
       </c>
       <c r="L325" t="n">
         <v>102649</v>
@@ -17257,10 +17257,10 @@
         <v>2017</v>
       </c>
       <c r="C326" t="n">
-        <v>1057.5</v>
+        <v>10.575</v>
       </c>
       <c r="D326" t="n">
-        <v>1483.3</v>
+        <v>1483300</v>
       </c>
       <c r="E326" t="n">
         <v>140</v>
@@ -17281,7 +17281,7 @@
         <v>140</v>
       </c>
       <c r="K326" t="n">
-        <v>99.40000000000001</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L326" t="n">
         <v>110314</v>
@@ -17309,10 +17309,10 @@
         <v>2018</v>
       </c>
       <c r="C327" t="n">
-        <v>1057.5</v>
+        <v>10.575</v>
       </c>
       <c r="D327" t="n">
-        <v>1490.8</v>
+        <v>1490800</v>
       </c>
       <c r="E327" t="n">
         <v>141</v>
@@ -17333,7 +17333,7 @@
         <v>139</v>
       </c>
       <c r="K327" t="n">
-        <v>98.2</v>
+        <v>0.9820000000000001</v>
       </c>
       <c r="L327" t="n">
         <v>114500</v>
@@ -17361,10 +17361,10 @@
         <v>2019</v>
       </c>
       <c r="C328" t="n">
-        <v>1057.5</v>
+        <v>10.575</v>
       </c>
       <c r="D328" t="n">
-        <v>1497.5</v>
+        <v>1497500</v>
       </c>
       <c r="E328" t="n">
         <v>142</v>
@@ -17385,7 +17385,7 @@
         <v>139</v>
       </c>
       <c r="K328" t="n">
-        <v>96.5</v>
+        <v>0.965</v>
       </c>
       <c r="L328" t="n">
         <v>119500</v>
@@ -17413,10 +17413,10 @@
         <v>2020</v>
       </c>
       <c r="C329" t="n">
-        <v>1057.5</v>
+        <v>10.575</v>
       </c>
       <c r="D329" t="n">
-        <v>1505</v>
+        <v>1505000</v>
       </c>
       <c r="E329" t="n">
         <v>142</v>
@@ -17437,7 +17437,7 @@
         <v>122</v>
       </c>
       <c r="K329" t="n">
-        <v>95</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="L329" t="n">
         <v>124600</v>
@@ -17465,10 +17465,10 @@
         <v>2021</v>
       </c>
       <c r="C330" t="n">
-        <v>1057.5</v>
+        <v>10.575</v>
       </c>
       <c r="D330" t="n">
-        <v>1518.5</v>
+        <v>1518500</v>
       </c>
       <c r="E330" t="n">
         <v>144</v>
@@ -17489,7 +17489,7 @@
         <v>129</v>
       </c>
       <c r="K330" t="n">
-        <v>94.3</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="L330" t="n">
         <v>127070</v>
@@ -17515,10 +17515,10 @@
         <v>2015</v>
       </c>
       <c r="C331" t="n">
-        <v>515.3</v>
+        <v>5.153</v>
       </c>
       <c r="D331" t="n">
-        <v>1226.2</v>
+        <v>1226200</v>
       </c>
       <c r="E331" t="n">
         <v>238</v>
@@ -17539,7 +17539,7 @@
         <v>43</v>
       </c>
       <c r="K331" t="n">
-        <v>85.90000000000001</v>
+        <v>0.8590000000000001</v>
       </c>
       <c r="L331" t="n">
         <v>193069</v>
@@ -17567,10 +17567,10 @@
         <v>2016</v>
       </c>
       <c r="C332" t="n">
-        <v>515.2</v>
+        <v>5.152</v>
       </c>
       <c r="D332" t="n">
-        <v>1227.5</v>
+        <v>1227500</v>
       </c>
       <c r="E332" t="n">
         <v>238</v>
@@ -17591,7 +17591,7 @@
         <v>46</v>
       </c>
       <c r="K332" t="n">
-        <v>86.09999999999999</v>
+        <v>0.861</v>
       </c>
       <c r="L332" t="n">
         <v>206574</v>
@@ -17619,10 +17619,10 @@
         <v>2017</v>
       </c>
       <c r="C333" t="n">
-        <v>515.2</v>
+        <v>5.152</v>
       </c>
       <c r="D333" t="n">
-        <v>1229</v>
+        <v>1229000</v>
       </c>
       <c r="E333" t="n">
         <v>239</v>
@@ -17643,7 +17643,7 @@
         <v>60</v>
       </c>
       <c r="K333" t="n">
-        <v>86.09999999999999</v>
+        <v>0.861</v>
       </c>
       <c r="L333" t="n">
         <v>219000</v>
@@ -17671,10 +17671,10 @@
         <v>2018</v>
       </c>
       <c r="C334" t="n">
-        <v>515.5</v>
+        <v>5.155</v>
       </c>
       <c r="D334" t="n">
-        <v>1230.6</v>
+        <v>1230600</v>
       </c>
       <c r="E334" t="n">
         <v>239</v>
@@ -17695,7 +17695,7 @@
         <v>66</v>
       </c>
       <c r="K334" t="n">
-        <v>85.2</v>
+        <v>0.8520000000000001</v>
       </c>
       <c r="L334" t="n">
         <v>240044</v>
@@ -17723,10 +17723,10 @@
         <v>2019</v>
       </c>
       <c r="C335" t="n">
-        <v>515.5</v>
+        <v>5.155</v>
       </c>
       <c r="D335" t="n">
-        <v>1231.9</v>
+        <v>1231900</v>
       </c>
       <c r="E335" t="n">
         <v>239</v>
@@ -17747,7 +17747,7 @@
         <v>63</v>
       </c>
       <c r="K335" t="n">
-        <v>83.7</v>
+        <v>0.8370000000000001</v>
       </c>
       <c r="L335" t="n">
         <v>254694</v>
@@ -17775,10 +17775,10 @@
         <v>2020</v>
       </c>
       <c r="C336" t="n">
-        <v>515.5</v>
+        <v>5.155</v>
       </c>
       <c r="D336" t="n">
-        <v>1233.4</v>
+        <v>1233400</v>
       </c>
       <c r="E336" t="n">
         <v>239</v>
@@ -17799,7 +17799,7 @@
         <v>62</v>
       </c>
       <c r="K336" t="n">
-        <v>81.59999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="L336" t="n">
         <v>268912</v>
@@ -17827,10 +17827,10 @@
         <v>2021</v>
       </c>
       <c r="C337" t="n">
-        <v>515.5</v>
+        <v>5.155</v>
       </c>
       <c r="D337" t="n">
-        <v>1244.1</v>
+        <v>1244100</v>
       </c>
       <c r="E337" t="n">
         <v>241</v>
@@ -17851,7 +17851,7 @@
         <v>59</v>
       </c>
       <c r="K337" t="n">
-        <v>83.3</v>
+        <v>0.833</v>
       </c>
       <c r="L337" t="n">
         <v>267576</v>
@@ -17877,10 +17877,10 @@
         <v>2015</v>
       </c>
       <c r="C338" t="n">
-        <v>617.8</v>
+        <v>6.178</v>
       </c>
       <c r="D338" t="n">
-        <v>1241.6</v>
+        <v>1241600</v>
       </c>
       <c r="E338" t="n">
         <v>201</v>
@@ -17901,7 +17901,7 @@
         <v>329</v>
       </c>
       <c r="K338" t="n">
-        <v>48.4</v>
+        <v>0.484</v>
       </c>
       <c r="L338" t="n">
         <v>103578</v>
@@ -17929,10 +17929,10 @@
         <v>2016</v>
       </c>
       <c r="C339" t="n">
-        <v>617.8</v>
+        <v>6.178</v>
       </c>
       <c r="D339" t="n">
-        <v>1261.2</v>
+        <v>1261200</v>
       </c>
       <c r="E339" t="n">
         <v>204.2</v>
@@ -17953,7 +17953,7 @@
         <v>319</v>
       </c>
       <c r="K339" t="n">
-        <v>48.1</v>
+        <v>0.481</v>
       </c>
       <c r="L339" t="n">
         <v>108880</v>
@@ -17981,10 +17981,10 @@
         <v>2017</v>
       </c>
       <c r="C340" t="n">
-        <v>617.9</v>
+        <v>6.179</v>
       </c>
       <c r="D340" t="n">
-        <v>1285.2</v>
+        <v>1285200</v>
       </c>
       <c r="E340" t="n">
         <v>208</v>
@@ -18005,7 +18005,7 @@
         <v>341</v>
       </c>
       <c r="K340" t="n">
-        <v>47.3</v>
+        <v>0.473</v>
       </c>
       <c r="L340" t="n">
         <v>117115</v>
@@ -18033,10 +18033,10 @@
         <v>2018</v>
       </c>
       <c r="C341" t="n">
-        <v>617.8</v>
+        <v>6.178</v>
       </c>
       <c r="D341" t="n">
-        <v>1303.9</v>
+        <v>1303900</v>
       </c>
       <c r="E341" t="n">
         <v>211</v>
@@ -18057,7 +18057,7 @@
         <v>358</v>
       </c>
       <c r="K341" t="n">
-        <v>46.4</v>
+        <v>0.464</v>
       </c>
       <c r="L341" t="n">
         <v>124006</v>
@@ -18085,10 +18085,10 @@
         <v>2019</v>
       </c>
       <c r="C342" t="n">
-        <v>620.7</v>
+        <v>6.207000000000001</v>
       </c>
       <c r="D342" t="n">
-        <v>1324.8</v>
+        <v>1324800</v>
       </c>
       <c r="E342" t="n">
         <v>213.4</v>
@@ -18109,7 +18109,7 @@
         <v>370</v>
       </c>
       <c r="K342" t="n">
-        <v>45.6</v>
+        <v>0.456</v>
       </c>
       <c r="L342" t="n">
         <v>132187</v>
@@ -18137,10 +18137,10 @@
         <v>2020</v>
       </c>
       <c r="C343" t="n">
-        <v>620.8</v>
+        <v>6.207999999999999</v>
       </c>
       <c r="D343" t="n">
-        <v>1337.6</v>
+        <v>1337600</v>
       </c>
       <c r="E343" t="n">
         <v>215.5</v>
@@ -18161,7 +18161,7 @@
         <v>149</v>
       </c>
       <c r="K343" t="n">
-        <v>45.2</v>
+        <v>0.452</v>
       </c>
       <c r="L343" t="n">
         <v>144478</v>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="n">
-        <v>1350.9</v>
+        <v>1350900</v>
       </c>
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="n">
@@ -18209,7 +18209,7 @@
         <v>141</v>
       </c>
       <c r="K344" t="n">
-        <v>44.1</v>
+        <v>0.441</v>
       </c>
       <c r="L344" t="n">
         <v>149890</v>
@@ -18235,10 +18235,10 @@
         <v>2015</v>
       </c>
       <c r="C345" t="n">
-        <v>462.2</v>
+        <v>4.622</v>
       </c>
       <c r="D345" t="n">
-        <v>617.9</v>
+        <v>617900</v>
       </c>
       <c r="E345" t="n">
         <v>134</v>
@@ -18259,7 +18259,7 @@
         <v>39</v>
       </c>
       <c r="K345" t="n">
-        <v>51.6</v>
+        <v>0.516</v>
       </c>
       <c r="L345" t="n">
         <v>34484</v>
@@ -18285,10 +18285,10 @@
         <v>2016</v>
       </c>
       <c r="C346" t="n">
-        <v>462.2</v>
+        <v>4.622</v>
       </c>
       <c r="D346" t="n">
-        <v>621.6</v>
+        <v>621600</v>
       </c>
       <c r="E346" t="n">
         <v>134</v>
@@ -18309,7 +18309,7 @@
         <v>50</v>
       </c>
       <c r="K346" t="n">
-        <v>53.8</v>
+        <v>0.538</v>
       </c>
       <c r="L346" t="n">
         <v>24830</v>
@@ -18335,10 +18335,10 @@
         <v>2017</v>
       </c>
       <c r="C347" t="n">
-        <v>462.3</v>
+        <v>4.623</v>
       </c>
       <c r="D347" t="n">
-        <v>625.4</v>
+        <v>625400</v>
       </c>
       <c r="E347" t="n">
         <v>135</v>
@@ -18359,7 +18359,7 @@
         <v>70</v>
       </c>
       <c r="K347" t="n">
-        <v>54.5</v>
+        <v>0.545</v>
       </c>
       <c r="L347" t="n">
         <v>31530</v>
@@ -18385,10 +18385,10 @@
         <v>2018</v>
       </c>
       <c r="C348" t="n">
-        <v>461.9</v>
+        <v>4.619</v>
       </c>
       <c r="D348" t="n">
-        <v>629.7</v>
+        <v>629700</v>
       </c>
       <c r="E348" t="n">
         <v>136</v>
@@ -18409,7 +18409,7 @@
         <v>57</v>
       </c>
       <c r="K348" t="n">
-        <v>54.9</v>
+        <v>0.549</v>
       </c>
       <c r="L348" t="n">
         <v>32216</v>
@@ -18435,10 +18435,10 @@
         <v>2019</v>
       </c>
       <c r="C349" t="n">
-        <v>470.1</v>
+        <v>4.701000000000001</v>
       </c>
       <c r="D349" t="n">
-        <v>633.4</v>
+        <v>633400</v>
       </c>
       <c r="E349" t="n">
         <v>137</v>
@@ -18459,7 +18459,7 @@
         <v>64</v>
       </c>
       <c r="K349" t="n">
-        <v>54.3</v>
+        <v>0.543</v>
       </c>
       <c r="L349" t="n">
         <v>35986</v>
@@ -18485,10 +18485,10 @@
         <v>2020</v>
       </c>
       <c r="C350" t="n">
-        <v>470.1</v>
+        <v>4.701000000000001</v>
       </c>
       <c r="D350" t="n">
-        <v>637.4</v>
+        <v>637400</v>
       </c>
       <c r="E350" t="n">
         <v>136</v>
@@ -18509,7 +18509,7 @@
         <v>62</v>
       </c>
       <c r="K350" t="n">
-        <v>54.4</v>
+        <v>0.544</v>
       </c>
       <c r="L350" t="n">
         <v>35068</v>
@@ -18535,10 +18535,10 @@
         <v>2021</v>
       </c>
       <c r="C351" t="n">
-        <v>470.1</v>
+        <v>4.701000000000001</v>
       </c>
       <c r="D351" t="n">
-        <v>647.8</v>
+        <v>647800</v>
       </c>
       <c r="E351" t="n">
         <v>138</v>
@@ -18559,7 +18559,7 @@
         <v>79</v>
       </c>
       <c r="K351" t="n">
-        <v>54.6</v>
+        <v>0.546</v>
       </c>
       <c r="L351" t="n">
         <v>36042</v>
@@ -18583,10 +18583,10 @@
         <v>2015</v>
       </c>
       <c r="C352" t="n">
-        <v>331.2</v>
+        <v>3.312</v>
       </c>
       <c r="D352" t="n">
-        <v>1236.3</v>
+        <v>1236300</v>
       </c>
       <c r="E352" t="n">
         <v>373</v>
@@ -18607,7 +18607,7 @@
         <v>452</v>
       </c>
       <c r="K352" t="n">
-        <v>366.9</v>
+        <v>3.669</v>
       </c>
       <c r="L352" t="n">
         <v>218742</v>
@@ -18635,10 +18635,10 @@
         <v>2016</v>
       </c>
       <c r="C353" t="n">
-        <v>331.2</v>
+        <v>3.312</v>
       </c>
       <c r="D353" t="n">
-        <v>1227.6</v>
+        <v>1227600</v>
       </c>
       <c r="E353" t="n">
         <v>371</v>
@@ -18659,7 +18659,7 @@
         <v>513</v>
       </c>
       <c r="K353" t="n">
-        <v>360.6</v>
+        <v>3.606</v>
       </c>
       <c r="L353" t="n">
         <v>237125</v>
@@ -18687,10 +18687,10 @@
         <v>2017</v>
       </c>
       <c r="C354" t="n">
-        <v>331.4</v>
+        <v>3.314</v>
       </c>
       <c r="D354" t="n">
-        <v>1218.3</v>
+        <v>1218300</v>
       </c>
       <c r="E354" t="n">
         <v>368</v>
@@ -18711,7 +18711,7 @@
         <v>501</v>
       </c>
       <c r="K354" t="n">
-        <v>352.4</v>
+        <v>3.524</v>
       </c>
       <c r="L354" t="n">
         <v>256884</v>
@@ -18739,10 +18739,10 @@
         <v>2018</v>
       </c>
       <c r="C355" t="n">
-        <v>331.2</v>
+        <v>3.312</v>
       </c>
       <c r="D355" t="n">
-        <v>1208.8</v>
+        <v>1208800</v>
       </c>
       <c r="E355" t="n">
         <v>365</v>
@@ -18763,7 +18763,7 @@
         <v>495</v>
       </c>
       <c r="K355" t="n">
-        <v>356</v>
+        <v>3.56</v>
       </c>
       <c r="L355" t="n">
         <v>257760</v>
@@ -18791,10 +18791,10 @@
         <v>2019</v>
       </c>
       <c r="C356" t="n">
-        <v>329.8</v>
+        <v>3.298</v>
       </c>
       <c r="D356" t="n">
-        <v>1199.5</v>
+        <v>1199500</v>
       </c>
       <c r="E356" t="n">
         <v>364</v>
@@ -18815,7 +18815,7 @@
         <v>495</v>
       </c>
       <c r="K356" t="n">
-        <v>360.6</v>
+        <v>3.606</v>
       </c>
       <c r="L356" t="n">
         <v>313706</v>
@@ -18843,10 +18843,10 @@
         <v>2020</v>
       </c>
       <c r="C357" t="n">
-        <v>329.8</v>
+        <v>3.298</v>
       </c>
       <c r="D357" t="n">
-        <v>1195.7</v>
+        <v>1195700</v>
       </c>
       <c r="E357" t="n">
         <v>363</v>
@@ -18867,7 +18867,7 @@
         <v>414</v>
       </c>
       <c r="K357" t="n">
-        <v>356.5</v>
+        <v>3.565</v>
       </c>
       <c r="L357" t="n">
         <v>325295</v>
@@ -18895,10 +18895,10 @@
         <v>2021</v>
       </c>
       <c r="C358" t="n">
-        <v>329.8</v>
+        <v>3.298</v>
       </c>
       <c r="D358" t="n">
-        <v>1206.8</v>
+        <v>1206800</v>
       </c>
       <c r="E358" t="n">
         <v>366</v>
@@ -18919,7 +18919,7 @@
         <v>431</v>
       </c>
       <c r="K358" t="n">
-        <v>330.1</v>
+        <v>3.301</v>
       </c>
       <c r="L358" t="n">
         <v>321878</v>
@@ -18947,10 +18947,10 @@
         <v>2015</v>
       </c>
       <c r="C359" t="n">
-        <v>1412.3</v>
+        <v>14.123</v>
       </c>
       <c r="D359" t="n">
-        <v>1177.4</v>
+        <v>1177400</v>
       </c>
       <c r="E359" t="n">
         <v>83</v>
@@ -18971,7 +18971,7 @@
         <v>48</v>
       </c>
       <c r="K359" t="n">
-        <v>212.1</v>
+        <v>2.121</v>
       </c>
       <c r="L359" t="n">
         <v>6577</v>
@@ -18999,10 +18999,10 @@
         <v>2016</v>
       </c>
       <c r="C360" t="n">
-        <v>1412.3</v>
+        <v>14.123</v>
       </c>
       <c r="D360" t="n">
-        <v>1194.9</v>
+        <v>1194900</v>
       </c>
       <c r="E360" t="n">
         <v>85</v>
@@ -19023,7 +19023,7 @@
         <v>271</v>
       </c>
       <c r="K360" t="n">
-        <v>204.2</v>
+        <v>2.042</v>
       </c>
       <c r="L360" t="n">
         <v>6757</v>
@@ -19051,10 +19051,10 @@
         <v>2017</v>
       </c>
       <c r="C361" t="n">
-        <v>1412.4</v>
+        <v>14.124</v>
       </c>
       <c r="D361" t="n">
-        <v>1213.5</v>
+        <v>1213500</v>
       </c>
       <c r="E361" t="n">
         <v>86</v>
@@ -19075,7 +19075,7 @@
         <v>273</v>
       </c>
       <c r="K361" t="n">
-        <v>189.1</v>
+        <v>1.891</v>
       </c>
       <c r="L361" t="n">
         <v>7453</v>
@@ -19103,10 +19103,10 @@
         <v>2018</v>
       </c>
       <c r="C362" t="n">
-        <v>1412.5</v>
+        <v>14.125</v>
       </c>
       <c r="D362" t="n">
-        <v>1233.1</v>
+        <v>1233100</v>
       </c>
       <c r="E362" t="n">
         <v>87</v>
@@ -19127,7 +19127,7 @@
         <v>337</v>
       </c>
       <c r="K362" t="n">
-        <v>164.4</v>
+        <v>1.644</v>
       </c>
       <c r="L362" t="n">
         <v>7681</v>
@@ -19155,10 +19155,10 @@
         <v>2019</v>
       </c>
       <c r="C363" t="n">
-        <v>1411</v>
+        <v>14.11</v>
       </c>
       <c r="D363" t="n">
-        <v>1252.7</v>
+        <v>1252700</v>
       </c>
       <c r="E363" t="n">
         <v>89</v>
@@ -19179,7 +19179,7 @@
         <v>398</v>
       </c>
       <c r="K363" t="n">
-        <v>146.3</v>
+        <v>1.463</v>
       </c>
       <c r="L363" t="n">
         <v>8006</v>
@@ -19207,10 +19207,10 @@
         <v>2020</v>
       </c>
       <c r="C364" t="n">
-        <v>1411</v>
+        <v>14.11</v>
       </c>
       <c r="D364" t="n">
-        <v>1270.6</v>
+        <v>1270600</v>
       </c>
       <c r="E364" t="n">
         <v>90</v>
@@ -19231,7 +19231,7 @@
         <v>235</v>
       </c>
       <c r="K364" t="n">
-        <v>136.9</v>
+        <v>1.369</v>
       </c>
       <c r="L364" t="n">
         <v>8335</v>
@@ -19260,7 +19260,7 @@
       </c>
       <c r="C365" t="inlineStr"/>
       <c r="D365" t="n">
-        <v>1287.7</v>
+        <v>1287700</v>
       </c>
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="n">
@@ -19279,7 +19279,7 @@
         <v>250</v>
       </c>
       <c r="K365" t="n">
-        <v>129.4</v>
+        <v>1.294</v>
       </c>
       <c r="L365" t="n">
         <v>8550</v>
@@ -19307,10 +19307,10 @@
         <v>2015</v>
       </c>
       <c r="C366" t="n">
-        <v>404.1</v>
+        <v>4.041</v>
       </c>
       <c r="D366" t="n">
-        <v>1129.9</v>
+        <v>1129900</v>
       </c>
       <c r="E366" t="n">
         <v>280</v>
@@ -19331,7 +19331,7 @@
         <v>1091</v>
       </c>
       <c r="K366" t="n">
-        <v>149.3</v>
+        <v>1.493</v>
       </c>
       <c r="L366" t="n">
         <v>18912.1</v>
@@ -19359,10 +19359,10 @@
         <v>2016</v>
       </c>
       <c r="C367" t="n">
-        <v>404.1</v>
+        <v>4.041</v>
       </c>
       <c r="D367" t="n">
-        <v>1139.7</v>
+        <v>1139700</v>
       </c>
       <c r="E367" t="n">
         <v>282</v>
@@ -19383,7 +19383,7 @@
         <v>657</v>
       </c>
       <c r="K367" t="n">
-        <v>148.9</v>
+        <v>1.489</v>
       </c>
       <c r="L367" t="n">
         <v>16038.2</v>
@@ -19411,10 +19411,10 @@
         <v>2017</v>
       </c>
       <c r="C368" t="n">
-        <v>404.2</v>
+        <v>4.042</v>
       </c>
       <c r="D368" t="n">
-        <v>1151.1</v>
+        <v>1151100</v>
       </c>
       <c r="E368" t="n">
         <v>285</v>
@@ -19435,7 +19435,7 @@
         <v>666</v>
       </c>
       <c r="K368" t="n">
-        <v>152.7</v>
+        <v>1.527</v>
       </c>
       <c r="L368" t="n">
         <v>14268.8</v>
@@ -19463,10 +19463,10 @@
         <v>2018</v>
       </c>
       <c r="C369" t="n">
-        <v>404</v>
+        <v>4.04</v>
       </c>
       <c r="D369" t="n">
-        <v>1160.7</v>
+        <v>1160700</v>
       </c>
       <c r="E369" t="n">
         <v>287</v>
@@ -19487,7 +19487,7 @@
         <v>544</v>
       </c>
       <c r="K369" t="n">
-        <v>155.2</v>
+        <v>1.552</v>
       </c>
       <c r="L369" t="n">
         <v>13054.8</v>
@@ -19515,10 +19515,10 @@
         <v>2019</v>
       </c>
       <c r="C370" t="n">
-        <v>404.2</v>
+        <v>4.042</v>
       </c>
       <c r="D370" t="n">
-        <v>1171.7</v>
+        <v>1171700</v>
       </c>
       <c r="E370" t="n">
         <v>290</v>
@@ -19539,7 +19539,7 @@
         <v>586</v>
       </c>
       <c r="K370" t="n">
-        <v>154</v>
+        <v>1.54</v>
       </c>
       <c r="L370" t="n">
         <v>9845.6</v>
@@ -19567,10 +19567,10 @@
         <v>2020</v>
       </c>
       <c r="C371" t="n">
-        <v>404.2</v>
+        <v>4.042</v>
       </c>
       <c r="D371" t="n">
-        <v>1178.3</v>
+        <v>1178300</v>
       </c>
       <c r="E371" t="n">
         <v>292</v>
@@ -19591,7 +19591,7 @@
         <v>580</v>
       </c>
       <c r="K371" t="n">
-        <v>152.4</v>
+        <v>1.524</v>
       </c>
       <c r="L371" t="n">
         <v>14125.4</v>
@@ -19619,10 +19619,10 @@
         <v>2021</v>
       </c>
       <c r="C372" t="n">
-        <v>404.2</v>
+        <v>4.042</v>
       </c>
       <c r="D372" t="n">
-        <v>1181.9</v>
+        <v>1181900</v>
       </c>
       <c r="E372" t="n">
         <v>292</v>
@@ -19643,7 +19643,7 @@
         <v>574</v>
       </c>
       <c r="K372" t="n">
-        <v>153</v>
+        <v>1.53</v>
       </c>
       <c r="L372" t="n">
         <v>15951</v>
@@ -19671,10 +19671,10 @@
         <v>2015</v>
       </c>
       <c r="C373" t="n">
-        <v>158.7</v>
+        <v>1.587</v>
       </c>
       <c r="D373" t="n">
-        <v>1830.3</v>
+        <v>1830300</v>
       </c>
       <c r="E373" t="n">
         <v>1153</v>
@@ -19695,7 +19695,7 @@
         <v>781</v>
       </c>
       <c r="K373" t="n">
-        <v>172.1</v>
+        <v>1.721</v>
       </c>
       <c r="L373" t="n">
         <v>182953</v>
@@ -19723,10 +19723,10 @@
         <v>2016</v>
       </c>
       <c r="C374" t="n">
-        <v>158.6</v>
+        <v>1.586</v>
       </c>
       <c r="D374" t="n">
-        <v>1838.1</v>
+        <v>1838100</v>
       </c>
       <c r="E374" t="n">
         <v>1159</v>
@@ -19747,7 +19747,7 @@
         <v>969</v>
       </c>
       <c r="K374" t="n">
-        <v>172.3</v>
+        <v>1.723</v>
       </c>
       <c r="L374" t="n">
         <v>196946</v>
@@ -19775,10 +19775,10 @@
         <v>2017</v>
       </c>
       <c r="C375" t="n">
-        <v>158.8</v>
+        <v>1.588</v>
       </c>
       <c r="D375" t="n">
-        <v>1846.1</v>
+        <v>1846100</v>
       </c>
       <c r="E375" t="n">
         <v>1163</v>
@@ -19799,7 +19799,7 @@
         <v>1014</v>
       </c>
       <c r="K375" t="n">
-        <v>171.9</v>
+        <v>1.719</v>
       </c>
       <c r="L375" t="n">
         <v>213165</v>
@@ -19827,10 +19827,10 @@
         <v>2018</v>
       </c>
       <c r="C376" t="n">
-        <v>158.8</v>
+        <v>1.588</v>
       </c>
       <c r="D376" t="n">
-        <v>1854.1</v>
+        <v>1854100</v>
       </c>
       <c r="E376" t="n">
         <v>1168</v>
@@ -19851,7 +19851,7 @@
         <v>926</v>
       </c>
       <c r="K376" t="n">
-        <v>168.8</v>
+        <v>1.688</v>
       </c>
       <c r="L376" t="n">
         <v>229142</v>
@@ -19879,10 +19879,10 @@
         <v>2019</v>
       </c>
       <c r="C377" t="n">
-        <v>158.5</v>
+        <v>1.585</v>
       </c>
       <c r="D377" t="n">
-        <v>1862.2</v>
+        <v>1862200</v>
       </c>
       <c r="E377" t="n">
         <v>1175</v>
@@ -19903,7 +19903,7 @@
         <v>791</v>
       </c>
       <c r="K377" t="n">
-        <v>166</v>
+        <v>1.66</v>
       </c>
       <c r="L377" t="n">
         <v>244383</v>
@@ -19931,10 +19931,10 @@
         <v>2020</v>
       </c>
       <c r="C378" t="n">
-        <v>158.5</v>
+        <v>1.585</v>
       </c>
       <c r="D378" t="n">
-        <v>1870.2</v>
+        <v>1870200</v>
       </c>
       <c r="E378" t="n">
         <v>1180</v>
@@ -19955,7 +19955,7 @@
         <v>590</v>
       </c>
       <c r="K378" t="n">
-        <v>164.6</v>
+        <v>1.646</v>
       </c>
       <c r="L378" t="n">
         <v>260351</v>
@@ -19984,7 +19984,7 @@
       </c>
       <c r="C379" t="inlineStr"/>
       <c r="D379" t="n">
-        <v>1875.7</v>
+        <v>1875700</v>
       </c>
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="n">
@@ -20003,7 +20003,7 @@
         <v>606</v>
       </c>
       <c r="K379" t="n">
-        <v>163.6</v>
+        <v>1.636</v>
       </c>
       <c r="L379" t="n">
         <v>272073</v>
@@ -20029,10 +20029,10 @@
         <v>2015</v>
       </c>
       <c r="C380" t="n">
-        <v>352.7</v>
+        <v>3.527</v>
       </c>
       <c r="D380" t="n">
-        <v>1230.8</v>
+        <v>1230800</v>
       </c>
       <c r="E380" t="n">
         <v>349</v>
@@ -20053,7 +20053,7 @@
         <v>548</v>
       </c>
       <c r="K380" t="n">
-        <v>93.5</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="L380" t="n">
         <v>8310</v>
@@ -20081,10 +20081,10 @@
         <v>2016</v>
       </c>
       <c r="C381" t="n">
-        <v>352.7</v>
+        <v>3.527</v>
       </c>
       <c r="D381" t="n">
-        <v>1242.8</v>
+        <v>1242800</v>
       </c>
       <c r="E381" t="n">
         <v>352.4</v>
@@ -20105,7 +20105,7 @@
         <v>800</v>
       </c>
       <c r="K381" t="n">
-        <v>92.09999999999999</v>
+        <v>0.9209999999999999</v>
       </c>
       <c r="L381" t="n">
         <v>9451</v>
@@ -20133,10 +20133,10 @@
         <v>2017</v>
       </c>
       <c r="C382" t="n">
-        <v>352.6</v>
+        <v>3.526</v>
       </c>
       <c r="D382" t="n">
-        <v>1256.1</v>
+        <v>1256100</v>
       </c>
       <c r="E382" t="n">
         <v>356.2</v>
@@ -20157,7 +20157,7 @@
         <v>753</v>
       </c>
       <c r="K382" t="n">
-        <v>88.90000000000001</v>
+        <v>0.8890000000000001</v>
       </c>
       <c r="L382" t="n">
         <v>10646</v>
@@ -20185,10 +20185,10 @@
         <v>2018</v>
       </c>
       <c r="C383" t="n">
-        <v>352.7</v>
+        <v>3.527</v>
       </c>
       <c r="D383" t="n">
-        <v>1273.6</v>
+        <v>1273600</v>
       </c>
       <c r="E383" t="n">
         <v>361.1</v>
@@ -20209,7 +20209,7 @@
         <v>783</v>
       </c>
       <c r="K383" t="n">
-        <v>87.90000000000001</v>
+        <v>0.8790000000000001</v>
       </c>
       <c r="L383" t="n">
         <v>12008</v>
@@ -20237,10 +20237,10 @@
         <v>2019</v>
       </c>
       <c r="C384" t="n">
-        <v>352.2</v>
+        <v>3.522</v>
       </c>
       <c r="D384" t="n">
-        <v>1290.9</v>
+        <v>1290900</v>
       </c>
       <c r="E384" t="n">
         <v>366.5</v>
@@ -20261,7 +20261,7 @@
         <v>783</v>
       </c>
       <c r="K384" t="n">
-        <v>87</v>
+        <v>0.87</v>
       </c>
       <c r="L384" t="n">
         <v>13599</v>
@@ -20289,10 +20289,10 @@
         <v>2020</v>
       </c>
       <c r="C385" t="n">
-        <v>352.2</v>
+        <v>3.522</v>
       </c>
       <c r="D385" t="n">
-        <v>1307.9</v>
+        <v>1307900</v>
       </c>
       <c r="E385" t="n">
         <v>371.4</v>
@@ -20313,7 +20313,7 @@
         <v>761</v>
       </c>
       <c r="K385" t="n">
-        <v>85.90000000000001</v>
+        <v>0.8590000000000001</v>
       </c>
       <c r="L385" t="n">
         <v>14891</v>
@@ -20342,7 +20342,7 @@
       </c>
       <c r="C386" t="inlineStr"/>
       <c r="D386" t="n">
-        <v>1323.2</v>
+        <v>1323200</v>
       </c>
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="n">
@@ -20361,7 +20361,7 @@
         <v>753</v>
       </c>
       <c r="K386" t="n">
-        <v>84.5</v>
+        <v>0.845</v>
       </c>
       <c r="L386" t="n">
         <v>16176</v>
@@ -20387,10 +20387,10 @@
         <v>2015</v>
       </c>
       <c r="C387" t="n">
-        <v>1111.5</v>
+        <v>11.115</v>
       </c>
       <c r="D387" t="n">
-        <v>3537</v>
+        <v>3537000</v>
       </c>
       <c r="E387" t="n">
         <v>318</v>
@@ -20411,7 +20411,7 @@
         <v>710</v>
       </c>
       <c r="K387" t="n">
-        <v>313.8</v>
+        <v>3.138</v>
       </c>
       <c r="L387" t="n">
         <v>143405</v>
@@ -20437,10 +20437,10 @@
         <v>2016</v>
       </c>
       <c r="C388" t="n">
-        <v>1111.4</v>
+        <v>11.114</v>
       </c>
       <c r="D388" t="n">
-        <v>3570.8</v>
+        <v>3570800</v>
       </c>
       <c r="E388" t="n">
         <v>321</v>
@@ -20461,7 +20461,7 @@
         <v>914</v>
       </c>
       <c r="K388" t="n">
-        <v>306.9</v>
+        <v>3.069</v>
       </c>
       <c r="L388" t="n">
         <v>151340</v>
@@ -20487,10 +20487,10 @@
         <v>2017</v>
       </c>
       <c r="C389" t="n">
-        <v>1111.6</v>
+        <v>11.116</v>
       </c>
       <c r="D389" t="n">
-        <v>3603.7</v>
+        <v>3603700</v>
       </c>
       <c r="E389" t="n">
         <v>324</v>
@@ -20511,7 +20511,7 @@
         <v>934</v>
       </c>
       <c r="K389" t="n">
-        <v>301</v>
+        <v>3.01</v>
       </c>
       <c r="L389" t="n">
         <v>159143</v>
@@ -20537,10 +20537,10 @@
         <v>2018</v>
       </c>
       <c r="C390" t="n">
-        <v>1111.5</v>
+        <v>11.115</v>
       </c>
       <c r="D390" t="n">
-        <v>3631.3</v>
+        <v>3631300</v>
       </c>
       <c r="E390" t="n">
         <v>327</v>
@@ -20561,7 +20561,7 @@
         <v>966</v>
       </c>
       <c r="K390" t="n">
-        <v>289.4</v>
+        <v>2.894</v>
       </c>
       <c r="L390" t="n">
         <v>170048</v>
@@ -20587,10 +20587,10 @@
         <v>2019</v>
       </c>
       <c r="C391" t="n">
-        <v>1111.5</v>
+        <v>11.115</v>
       </c>
       <c r="D391" t="n">
-        <v>3645.8</v>
+        <v>3645800</v>
       </c>
       <c r="E391" t="n">
         <v>328</v>
@@ -20611,7 +20611,7 @@
         <v>998</v>
       </c>
       <c r="K391" t="n">
-        <v>284.1</v>
+        <v>2.841</v>
       </c>
       <c r="L391" t="n">
         <v>181820</v>
@@ -20637,10 +20637,10 @@
         <v>2020</v>
       </c>
       <c r="C392" t="n">
-        <v>1111.5</v>
+        <v>11.115</v>
       </c>
       <c r="D392" t="n">
-        <v>3664.9</v>
+        <v>3664900</v>
       </c>
       <c r="E392" t="n">
         <v>330</v>
@@ -20661,7 +20661,7 @@
         <v>871</v>
       </c>
       <c r="K392" t="n">
-        <v>273.9</v>
+        <v>2.739</v>
       </c>
       <c r="L392" t="n">
         <v>192756</v>
@@ -20687,10 +20687,10 @@
         <v>2021</v>
       </c>
       <c r="C393" t="n">
-        <v>1111.5</v>
+        <v>11.115</v>
       </c>
       <c r="D393" t="n">
-        <v>3716.4</v>
+        <v>3716400</v>
       </c>
       <c r="E393" t="n">
         <v>334</v>
@@ -20711,7 +20711,7 @@
         <v>900</v>
       </c>
       <c r="K393" t="n">
-        <v>273.8</v>
+        <v>2.738</v>
       </c>
       <c r="L393" t="n">
         <v>201707</v>
@@ -20737,10 +20737,10 @@
         <v>2015</v>
       </c>
       <c r="C394" t="n">
-        <v>490.2</v>
+        <v>4.902</v>
       </c>
       <c r="D394" t="n">
-        <v>1114.7</v>
+        <v>1114700</v>
       </c>
       <c r="E394" t="n">
         <v>233</v>
@@ -20761,7 +20761,7 @@
         <v>48</v>
       </c>
       <c r="K394" t="n">
-        <v>56.1</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="L394" t="n">
         <v>54300</v>
@@ -20789,10 +20789,10 @@
         <v>2016</v>
       </c>
       <c r="C395" t="n">
-        <v>490.2</v>
+        <v>4.902</v>
       </c>
       <c r="D395" t="n">
-        <v>1118</v>
+        <v>1118000</v>
       </c>
       <c r="E395" t="n">
         <v>228</v>
@@ -20813,7 +20813,7 @@
         <v>71</v>
       </c>
       <c r="K395" t="n">
-        <v>56.1</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="L395" t="n">
         <v>45406</v>
@@ -20841,10 +20841,10 @@
         <v>2017</v>
       </c>
       <c r="C396" t="n">
-        <v>490.1</v>
+        <v>4.901000000000001</v>
       </c>
       <c r="D396" t="n">
-        <v>1123.4</v>
+        <v>1123400</v>
       </c>
       <c r="E396" t="n">
         <v>229</v>
@@ -20865,7 +20865,7 @@
         <v>71</v>
       </c>
       <c r="K396" t="n">
-        <v>56.6</v>
+        <v>0.5660000000000001</v>
       </c>
       <c r="L396" t="n">
         <v>52079</v>
@@ -20893,10 +20893,10 @@
         <v>2018</v>
       </c>
       <c r="C397" t="n">
-        <v>490.2</v>
+        <v>4.902</v>
       </c>
       <c r="D397" t="n">
-        <v>1125.4</v>
+        <v>1125400</v>
       </c>
       <c r="E397" t="n">
         <v>230</v>
@@ -20917,7 +20917,7 @@
         <v>71</v>
       </c>
       <c r="K397" t="n">
-        <v>56.3</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="L397" t="n">
         <v>55632</v>
@@ -20945,10 +20945,10 @@
         <v>2019</v>
       </c>
       <c r="C398" t="n">
-        <v>494.7</v>
+        <v>4.947</v>
       </c>
       <c r="D398" t="n">
-        <v>1129.5</v>
+        <v>1129500</v>
       </c>
       <c r="E398" t="n">
         <v>230</v>
@@ -20969,7 +20969,7 @@
         <v>78</v>
       </c>
       <c r="K398" t="n">
-        <v>56.5</v>
+        <v>0.5650000000000001</v>
       </c>
       <c r="L398" t="n">
         <v>57820</v>
@@ -20997,10 +20997,10 @@
         <v>2020</v>
       </c>
       <c r="C399" t="n">
-        <v>494.7</v>
+        <v>4.947</v>
       </c>
       <c r="D399" t="n">
-        <v>1133.6</v>
+        <v>1133600</v>
       </c>
       <c r="E399" t="n">
         <v>229</v>
@@ -21021,7 +21021,7 @@
         <v>33</v>
       </c>
       <c r="K399" t="n">
-        <v>55.7</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="L399" t="n">
         <v>56750</v>
@@ -21050,7 +21050,7 @@
       </c>
       <c r="C400" t="inlineStr"/>
       <c r="D400" t="n">
-        <v>1153.8</v>
+        <v>1153800</v>
       </c>
       <c r="E400" t="n">
         <v>233</v>
@@ -21071,7 +21071,7 @@
         <v>42</v>
       </c>
       <c r="K400" t="n">
-        <v>55.4</v>
+        <v>0.554</v>
       </c>
       <c r="L400" t="n">
         <v>59523</v>
@@ -21099,10 +21099,10 @@
         <v>2015</v>
       </c>
       <c r="C401" t="n">
-        <v>250.9</v>
+        <v>2.509</v>
       </c>
       <c r="D401" t="n">
-        <v>1728.7</v>
+        <v>1728700</v>
       </c>
       <c r="E401" t="n">
         <v>689</v>
@@ -21123,7 +21123,7 @@
         <v>410</v>
       </c>
       <c r="K401" t="n">
-        <v>229.1</v>
+        <v>2.291</v>
       </c>
       <c r="L401" t="n">
         <v>242769</v>
@@ -21151,10 +21151,10 @@
         <v>2016</v>
       </c>
       <c r="C402" t="n">
-        <v>251</v>
+        <v>2.51</v>
       </c>
       <c r="D402" t="n">
-        <v>1740.1</v>
+        <v>1740100</v>
       </c>
       <c r="E402" t="n">
         <v>693</v>
@@ -21175,7 +21175,7 @@
         <v>453</v>
       </c>
       <c r="K402" t="n">
-        <v>219.5</v>
+        <v>2.195</v>
       </c>
       <c r="L402" t="n">
         <v>249687</v>
@@ -21203,10 +21203,10 @@
         <v>2017</v>
       </c>
       <c r="C403" t="n">
-        <v>251.1</v>
+        <v>2.511</v>
       </c>
       <c r="D403" t="n">
-        <v>1751.8</v>
+        <v>1751800</v>
       </c>
       <c r="E403" t="n">
         <v>698</v>
@@ -21227,7 +21227,7 @@
         <v>520</v>
       </c>
       <c r="K403" t="n">
-        <v>215.3</v>
+        <v>2.153</v>
       </c>
       <c r="L403" t="n">
         <v>273686</v>
@@ -21255,10 +21255,10 @@
         <v>2018</v>
       </c>
       <c r="C404" t="n">
-        <v>251</v>
+        <v>2.51</v>
       </c>
       <c r="D404" t="n">
-        <v>1759.1</v>
+        <v>1759100</v>
       </c>
       <c r="E404" t="n">
         <v>701</v>
@@ -21279,7 +21279,7 @@
         <v>530</v>
       </c>
       <c r="K404" t="n">
-        <v>206</v>
+        <v>2.06</v>
       </c>
       <c r="L404" t="n">
         <v>292337</v>
@@ -21307,10 +21307,10 @@
         <v>2019</v>
       </c>
       <c r="C405" t="n">
-        <v>255.6</v>
+        <v>2.556</v>
       </c>
       <c r="D405" t="n">
-        <v>1766.3</v>
+        <v>1766300</v>
       </c>
       <c r="E405" t="n">
         <v>691</v>
@@ -21331,7 +21331,7 @@
         <v>530</v>
       </c>
       <c r="K405" t="n">
-        <v>188.2</v>
+        <v>1.882</v>
       </c>
       <c r="L405" t="n">
         <v>309971</v>
@@ -21359,10 +21359,10 @@
         <v>2020</v>
       </c>
       <c r="C406" t="n">
-        <v>255.6</v>
+        <v>2.556</v>
       </c>
       <c r="D406" t="n">
-        <v>1772.5</v>
+        <v>1772500</v>
       </c>
       <c r="E406" t="n">
         <v>693</v>
@@ -21383,7 +21383,7 @@
         <v>462</v>
       </c>
       <c r="K406" t="n">
-        <v>139.4</v>
+        <v>1.394</v>
       </c>
       <c r="L406" t="n">
         <v>357568</v>
@@ -21412,7 +21412,7 @@
       </c>
       <c r="C407" t="inlineStr"/>
       <c r="D407" t="n">
-        <v>1779.4</v>
+        <v>1779400</v>
       </c>
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="n">
@@ -21431,7 +21431,7 @@
         <v>543</v>
       </c>
       <c r="K407" t="n">
-        <v>134.1</v>
+        <v>1.341</v>
       </c>
       <c r="L407" t="n">
         <v>362558</v>
@@ -21457,10 +21457,10 @@
         <v>2015</v>
       </c>
       <c r="C408" t="n">
-        <v>235.8</v>
+        <v>2.358</v>
       </c>
       <c r="D408" t="n">
-        <v>1006.9</v>
+        <v>1006900</v>
       </c>
       <c r="E408" t="n">
         <v>427</v>
@@ -21481,7 +21481,7 @@
         <v>108</v>
       </c>
       <c r="K408" t="n">
-        <v>241.4</v>
+        <v>2.414</v>
       </c>
       <c r="L408" t="n">
         <v>167344</v>
@@ -21509,10 +21509,10 @@
         <v>2016</v>
       </c>
       <c r="C409" t="n">
-        <v>235.8</v>
+        <v>2.358</v>
       </c>
       <c r="D409" t="n">
-        <v>1007.6</v>
+        <v>1007600</v>
       </c>
       <c r="E409" t="n">
         <v>427</v>
@@ -21533,7 +21533,7 @@
         <v>105</v>
       </c>
       <c r="K409" t="n">
-        <v>214.8</v>
+        <v>2.148</v>
       </c>
       <c r="L409" t="n">
         <v>172238</v>
@@ -21561,10 +21561,10 @@
         <v>2017</v>
       </c>
       <c r="C410" t="n">
-        <v>235.6</v>
+        <v>2.356</v>
       </c>
       <c r="D410" t="n">
-        <v>1008.1</v>
+        <v>1008100</v>
       </c>
       <c r="E410" t="n">
         <v>428</v>
@@ -21585,7 +21585,7 @@
         <v>109</v>
       </c>
       <c r="K410" t="n">
-        <v>224.4</v>
+        <v>2.244</v>
       </c>
       <c r="L410" t="n">
         <v>190962</v>
@@ -21613,10 +21613,10 @@
         <v>2018</v>
       </c>
       <c r="C411" t="n">
-        <v>235.8</v>
+        <v>2.358</v>
       </c>
       <c r="D411" t="n">
-        <v>1008.8</v>
+        <v>1008800</v>
       </c>
       <c r="E411" t="n">
         <v>428</v>
@@ -21637,7 +21637,7 @@
         <v>109</v>
       </c>
       <c r="K411" t="n">
-        <v>227.1</v>
+        <v>2.271</v>
       </c>
       <c r="L411" t="n">
         <v>200614</v>
@@ -21665,10 +21665,10 @@
         <v>2019</v>
       </c>
       <c r="C412" t="n">
-        <v>239.1</v>
+        <v>2.391</v>
       </c>
       <c r="D412" t="n">
-        <v>1009.3</v>
+        <v>1009300</v>
       </c>
       <c r="E412" t="n">
         <v>422</v>
@@ -21689,7 +21689,7 @@
         <v>100</v>
       </c>
       <c r="K412" t="n">
-        <v>228</v>
+        <v>2.28</v>
       </c>
       <c r="L412" t="n">
         <v>219263</v>
@@ -21717,10 +21717,10 @@
         <v>2020</v>
       </c>
       <c r="C413" t="n">
-        <v>239.1</v>
+        <v>2.391</v>
       </c>
       <c r="D413" t="n">
-        <v>1009.9</v>
+        <v>1009900</v>
       </c>
       <c r="E413" t="n">
         <v>422</v>
@@ -21741,7 +21741,7 @@
         <v>595</v>
       </c>
       <c r="K413" t="n">
-        <v>208.8</v>
+        <v>2.088</v>
       </c>
       <c r="L413" t="n">
         <v>228603</v>
@@ -21770,7 +21770,7 @@
       </c>
       <c r="C414" t="inlineStr"/>
       <c r="D414" t="n">
-        <v>1018.6</v>
+        <v>1018600</v>
       </c>
       <c r="E414" t="inlineStr"/>
       <c r="F414" t="n">
@@ -21789,7 +21789,7 @@
         <v>673</v>
       </c>
       <c r="K414" t="n">
-        <v>212.8</v>
+        <v>2.128</v>
       </c>
       <c r="L414" t="n">
         <v>221337</v>
@@ -21815,10 +21815,10 @@
         <v>2015</v>
       </c>
       <c r="C415" t="n">
-        <v>586.8</v>
+        <v>5.867999999999999</v>
       </c>
       <c r="D415" t="n">
-        <v>756.2</v>
+        <v>756200</v>
       </c>
       <c r="E415" t="n">
         <v>128.9</v>
@@ -21839,7 +21839,7 @@
         <v>111</v>
       </c>
       <c r="K415" t="n">
-        <v>64.2</v>
+        <v>0.642</v>
       </c>
       <c r="L415" t="n">
         <v>6824</v>
@@ -21867,10 +21867,10 @@
         <v>2016</v>
       </c>
       <c r="C416" t="n">
-        <v>586.8</v>
+        <v>5.867999999999999</v>
       </c>
       <c r="D416" t="n">
-        <v>763.4</v>
+        <v>763400</v>
       </c>
       <c r="E416" t="n">
         <v>130.1</v>
@@ -21891,7 +21891,7 @@
         <v>287</v>
       </c>
       <c r="K416" t="n">
-        <v>63.5</v>
+        <v>0.635</v>
       </c>
       <c r="L416" t="n">
         <v>6865</v>
@@ -21919,10 +21919,10 @@
         <v>2017</v>
       </c>
       <c r="C417" t="n">
-        <v>586.8</v>
+        <v>5.867999999999999</v>
       </c>
       <c r="D417" t="n">
-        <v>770.5</v>
+        <v>770500</v>
       </c>
       <c r="E417" t="n">
         <v>131.3</v>
@@ -21943,7 +21943,7 @@
         <v>305</v>
       </c>
       <c r="K417" t="n">
-        <v>63.7</v>
+        <v>0.637</v>
       </c>
       <c r="L417" t="n">
         <v>7253</v>
@@ -21971,10 +21971,10 @@
         <v>2018</v>
       </c>
       <c r="C418" t="n">
-        <v>586.8</v>
+        <v>5.867999999999999</v>
       </c>
       <c r="D418" t="n">
-        <v>778.3</v>
+        <v>778300</v>
       </c>
       <c r="E418" t="n">
         <v>132.7</v>
@@ -21995,7 +21995,7 @@
         <v>354</v>
       </c>
       <c r="K418" t="n">
-        <v>62.3</v>
+        <v>0.623</v>
       </c>
       <c r="L418" t="n">
         <v>8009</v>
@@ -22023,10 +22023,10 @@
         <v>2019</v>
       </c>
       <c r="C419" t="n">
-        <v>586.8</v>
+        <v>5.867999999999999</v>
       </c>
       <c r="D419" t="n">
-        <v>786.3</v>
+        <v>786300</v>
       </c>
       <c r="E419" t="n">
         <v>134</v>
@@ -22047,7 +22047,7 @@
         <v>404</v>
       </c>
       <c r="K419" t="n">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="L419" t="n">
         <v>8625</v>
@@ -22075,10 +22075,10 @@
         <v>2020</v>
       </c>
       <c r="C420" t="n">
-        <v>586.8</v>
+        <v>5.867999999999999</v>
       </c>
       <c r="D420" t="n">
-        <v>792.9</v>
+        <v>792900</v>
       </c>
       <c r="E420" t="n">
         <v>135.1</v>
@@ -22099,7 +22099,7 @@
         <v>358</v>
       </c>
       <c r="K420" t="n">
-        <v>63.7</v>
+        <v>0.637</v>
       </c>
       <c r="L420" t="n">
         <v>9348</v>
@@ -22128,7 +22128,7 @@
       </c>
       <c r="C421" t="inlineStr"/>
       <c r="D421" t="n">
-        <v>801.7</v>
+        <v>801700</v>
       </c>
       <c r="E421" t="inlineStr"/>
       <c r="F421" t="n">
@@ -22147,7 +22147,7 @@
         <v>373</v>
       </c>
       <c r="K421" t="n">
-        <v>62.7</v>
+        <v>0.627</v>
       </c>
       <c r="L421" t="n">
         <v>10097</v>
@@ -22173,10 +22173,10 @@
         <v>2015</v>
       </c>
       <c r="C422" t="n">
-        <v>152.6</v>
+        <v>1.526</v>
       </c>
       <c r="D422" t="n">
-        <v>1023.2</v>
+        <v>1023200</v>
       </c>
       <c r="E422" t="n">
         <v>685</v>
@@ -22197,7 +22197,7 @@
         <v>99</v>
       </c>
       <c r="K422" t="n">
-        <v>181.7</v>
+        <v>1.817</v>
       </c>
       <c r="L422" t="n">
         <v>112174</v>
@@ -22225,10 +22225,10 @@
         <v>2016</v>
       </c>
       <c r="C423" t="n">
-        <v>152.6</v>
+        <v>1.526</v>
       </c>
       <c r="D423" t="n">
-        <v>1022.9</v>
+        <v>1022900</v>
       </c>
       <c r="E423" t="n">
         <v>687</v>
@@ -22249,7 +22249,7 @@
         <v>107</v>
       </c>
       <c r="K423" t="n">
-        <v>177.7</v>
+        <v>1.777</v>
       </c>
       <c r="L423" t="n">
         <v>114180</v>
@@ -22277,10 +22277,10 @@
         <v>2017</v>
       </c>
       <c r="C424" t="n">
-        <v>152.4</v>
+        <v>1.524</v>
       </c>
       <c r="D424" t="n">
-        <v>1022.6</v>
+        <v>1022600</v>
       </c>
       <c r="E424" t="n">
         <v>689</v>
@@ -22301,7 +22301,7 @@
         <v>114</v>
       </c>
       <c r="K424" t="n">
-        <v>170.8</v>
+        <v>1.708</v>
       </c>
       <c r="L424" t="n">
         <v>117333</v>
@@ -22329,10 +22329,10 @@
         <v>2018</v>
       </c>
       <c r="C425" t="n">
-        <v>152.4</v>
+        <v>1.524</v>
       </c>
       <c r="D425" t="n">
-        <v>1022.7</v>
+        <v>1022700</v>
       </c>
       <c r="E425" t="n">
         <v>689</v>
@@ -22353,7 +22353,7 @@
         <v>113</v>
       </c>
       <c r="K425" t="n">
-        <v>163.4</v>
+        <v>1.634</v>
       </c>
       <c r="L425" t="n">
         <v>126255</v>
@@ -22381,10 +22381,10 @@
         <v>2019</v>
       </c>
       <c r="C426" t="n">
-        <v>152.6</v>
+        <v>1.526</v>
       </c>
       <c r="D426" t="n">
-        <v>1022.6</v>
+        <v>1022600</v>
       </c>
       <c r="E426" t="n">
         <v>670</v>
@@ -22405,7 +22405,7 @@
         <v>99</v>
       </c>
       <c r="K426" t="n">
-        <v>157</v>
+        <v>1.57</v>
       </c>
       <c r="L426" t="n">
         <v>157368.6</v>
@@ -22433,10 +22433,10 @@
         <v>2020</v>
       </c>
       <c r="C427" t="n">
-        <v>152.6</v>
+        <v>1.526</v>
       </c>
       <c r="D427" t="n">
-        <v>1023</v>
+        <v>1023000</v>
       </c>
       <c r="E427" t="n">
         <v>670</v>
@@ -22457,7 +22457,7 @@
         <v>96</v>
       </c>
       <c r="K427" t="n">
-        <v>147.2</v>
+        <v>1.472</v>
       </c>
       <c r="L427" t="n">
         <v>153303.2</v>
@@ -22485,10 +22485,10 @@
         <v>2021</v>
       </c>
       <c r="C428" t="n">
-        <v>152.6</v>
+        <v>1.526</v>
       </c>
       <c r="D428" t="n">
-        <v>1029</v>
+        <v>1029000</v>
       </c>
       <c r="E428" t="n">
         <v>674</v>
@@ -22509,7 +22509,7 @@
         <v>102</v>
       </c>
       <c r="K428" t="n">
-        <v>135.8</v>
+        <v>1.358</v>
       </c>
       <c r="L428" t="n">
         <v>134215</v>
@@ -22535,10 +22535,10 @@
         <v>2015</v>
       </c>
       <c r="C429" t="n">
-        <v>123.5</v>
+        <v>1.235</v>
       </c>
       <c r="D429" t="n">
-        <v>1090.4</v>
+        <v>1090400</v>
       </c>
       <c r="E429" t="n">
         <v>883</v>
@@ -22559,7 +22559,7 @@
         <v>691</v>
       </c>
       <c r="K429" t="n">
-        <v>74.5</v>
+        <v>0.745</v>
       </c>
       <c r="L429" t="n">
         <v>19758</v>
@@ -22587,10 +22587,10 @@
         <v>2016</v>
       </c>
       <c r="C430" t="n">
-        <v>123.5</v>
+        <v>1.235</v>
       </c>
       <c r="D430" t="n">
-        <v>1106.1</v>
+        <v>1106100</v>
       </c>
       <c r="E430" t="n">
         <v>896</v>
@@ -22611,7 +22611,7 @@
         <v>1007</v>
       </c>
       <c r="K430" t="n">
-        <v>74.40000000000001</v>
+        <v>0.7440000000000001</v>
       </c>
       <c r="L430" t="n">
         <v>19409</v>
@@ -22639,10 +22639,10 @@
         <v>2017</v>
       </c>
       <c r="C431" t="n">
-        <v>123.7</v>
+        <v>1.237</v>
       </c>
       <c r="D431" t="n">
-        <v>1123.1</v>
+        <v>1123100</v>
       </c>
       <c r="E431" t="n">
         <v>908</v>
@@ -22663,7 +22663,7 @@
         <v>1076</v>
       </c>
       <c r="K431" t="n">
-        <v>73</v>
+        <v>0.73</v>
       </c>
       <c r="L431" t="n">
         <v>20180</v>
@@ -22691,10 +22691,10 @@
         <v>2018</v>
       </c>
       <c r="C432" t="n">
-        <v>123.6</v>
+        <v>1.236</v>
       </c>
       <c r="D432" t="n">
-        <v>1138.4</v>
+        <v>1138400</v>
       </c>
       <c r="E432" t="n">
         <v>921</v>
@@ -22715,7 +22715,7 @@
         <v>1136</v>
       </c>
       <c r="K432" t="n">
-        <v>70.90000000000001</v>
+        <v>0.7090000000000001</v>
       </c>
       <c r="L432" t="n">
         <v>21028</v>
@@ -22743,10 +22743,10 @@
         <v>2019</v>
       </c>
       <c r="C433" t="n">
-        <v>123.6</v>
+        <v>1.236</v>
       </c>
       <c r="D433" t="n">
-        <v>1154.8</v>
+        <v>1154800</v>
       </c>
       <c r="E433" t="n">
         <v>934</v>
@@ -22767,7 +22767,7 @@
         <v>1130</v>
       </c>
       <c r="K433" t="n">
-        <v>65.3</v>
+        <v>0.653</v>
       </c>
       <c r="L433" t="n">
         <v>22006</v>
@@ -22795,10 +22795,10 @@
         <v>2020</v>
       </c>
       <c r="C434" t="n">
-        <v>123.6</v>
+        <v>1.236</v>
       </c>
       <c r="D434" t="n">
-        <v>1171.2</v>
+        <v>1171200</v>
       </c>
       <c r="E434" t="n">
         <v>948</v>
@@ -22819,7 +22819,7 @@
         <v>726</v>
       </c>
       <c r="K434" t="n">
-        <v>63.5</v>
+        <v>0.635</v>
       </c>
       <c r="L434" t="n">
         <v>22858</v>
@@ -22847,10 +22847,10 @@
         <v>2021</v>
       </c>
       <c r="C435" t="n">
-        <v>123.6</v>
+        <v>1.236</v>
       </c>
       <c r="D435" t="n">
-        <v>1191.8</v>
+        <v>1191800</v>
       </c>
       <c r="E435" t="n">
         <v>964</v>
@@ -22871,7 +22871,7 @@
         <v>665</v>
       </c>
       <c r="K435" t="n">
-        <v>62.8</v>
+        <v>0.628</v>
       </c>
       <c r="L435" t="n">
         <v>23503</v>
@@ -22899,10 +22899,10 @@
         <v>2015</v>
       </c>
       <c r="C436" t="n">
-        <v>688.8</v>
+        <v>6.888</v>
       </c>
       <c r="D436" t="n">
-        <v>793.1</v>
+        <v>793100</v>
       </c>
       <c r="E436" t="n">
         <v>115.1</v>
@@ -22923,7 +22923,7 @@
         <v>18</v>
       </c>
       <c r="K436" t="n">
-        <v>69.5</v>
+        <v>0.6950000000000001</v>
       </c>
       <c r="L436" t="n">
         <v>6430</v>
@@ -22951,10 +22951,10 @@
         <v>2016</v>
       </c>
       <c r="C437" t="n">
-        <v>688.8</v>
+        <v>6.888</v>
       </c>
       <c r="D437" t="n">
-        <v>800.3</v>
+        <v>800300</v>
       </c>
       <c r="E437" t="n">
         <v>116.2</v>
@@ -22975,7 +22975,7 @@
         <v>18</v>
       </c>
       <c r="K437" t="n">
-        <v>71.40000000000001</v>
+        <v>0.7140000000000001</v>
       </c>
       <c r="L437" t="n">
         <v>6693</v>
@@ -23003,10 +23003,10 @@
         <v>2017</v>
       </c>
       <c r="C438" t="n">
-        <v>688.7</v>
+        <v>6.887</v>
       </c>
       <c r="D438" t="n">
-        <v>807.3</v>
+        <v>807300</v>
       </c>
       <c r="E438" t="n">
         <v>117.2</v>
@@ -23027,7 +23027,7 @@
         <v>16</v>
       </c>
       <c r="K438" t="n">
-        <v>70.7</v>
+        <v>0.7070000000000001</v>
       </c>
       <c r="L438" t="n">
         <v>7497</v>
@@ -23055,10 +23055,10 @@
         <v>2018</v>
       </c>
       <c r="C439" t="n">
-        <v>688.7</v>
+        <v>6.887</v>
       </c>
       <c r="D439" t="n">
-        <v>814.6</v>
+        <v>814600</v>
       </c>
       <c r="E439" t="n">
         <v>118.3</v>
@@ -23079,7 +23079,7 @@
         <v>32</v>
       </c>
       <c r="K439" t="n">
-        <v>70.59999999999999</v>
+        <v>0.706</v>
       </c>
       <c r="L439" t="n">
         <v>9017</v>
@@ -23107,10 +23107,10 @@
         <v>2019</v>
       </c>
       <c r="C440" t="n">
-        <v>689.3</v>
+        <v>6.893</v>
       </c>
       <c r="D440" t="n">
-        <v>823</v>
+        <v>823000</v>
       </c>
       <c r="E440" t="n">
         <v>119.4</v>
@@ -23131,7 +23131,7 @@
         <v>34</v>
       </c>
       <c r="K440" t="n">
-        <v>71.59999999999999</v>
+        <v>0.716</v>
       </c>
       <c r="L440" t="n">
         <v>10485</v>
@@ -23159,10 +23159,10 @@
         <v>2020</v>
       </c>
       <c r="C441" t="n">
-        <v>689.3</v>
+        <v>6.893</v>
       </c>
       <c r="D441" t="n">
-        <v>831.6</v>
+        <v>831600</v>
       </c>
       <c r="E441" t="n">
         <v>120.6</v>
@@ -23183,7 +23183,7 @@
         <v>17</v>
       </c>
       <c r="K441" t="n">
-        <v>72.3</v>
+        <v>0.723</v>
       </c>
       <c r="L441" t="n">
         <v>11634</v>
@@ -23212,7 +23212,7 @@
       </c>
       <c r="C442" t="inlineStr"/>
       <c r="D442" t="n">
-        <v>842.7</v>
+        <v>842700</v>
       </c>
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="n">
@@ -23231,7 +23231,7 @@
         <v>21</v>
       </c>
       <c r="K442" t="n">
-        <v>72.09999999999999</v>
+        <v>0.721</v>
       </c>
       <c r="L442" t="n">
         <v>12699</v>
